--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2019"/>
+  <dimension ref="A1:H1998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58235,10 +58235,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1798">
@@ -58269,10 +58267,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1799">
@@ -58303,10 +58299,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1800">
@@ -58341,10 +58335,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1801">
@@ -58375,10 +58367,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1802">
@@ -58413,10 +58403,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1803">
@@ -58451,10 +58439,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1804">
@@ -58489,10 +58475,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1804" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1805">
@@ -58527,10 +58511,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1805" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1806">
@@ -58561,10 +58543,8 @@
         </is>
       </c>
       <c r="G1806" t="inlineStr"/>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1807">
@@ -58599,10 +58579,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1808">
@@ -58637,10 +58615,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1809">
@@ -58671,10 +58647,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1810">
@@ -58705,10 +58679,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1811">
@@ -58739,10 +58711,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1812">
@@ -58773,10 +58743,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1813">
@@ -58811,10 +58779,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1814">
@@ -58837,10 +58803,8 @@
       <c r="E1814" t="inlineStr"/>
       <c r="F1814" t="inlineStr"/>
       <c r="G1814" t="inlineStr"/>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1815">
@@ -58871,10 +58835,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1816">
@@ -58905,10 +58867,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1817">
@@ -58939,10 +58899,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1818">
@@ -58965,10 +58923,8 @@
       <c r="E1818" t="inlineStr"/>
       <c r="F1818" t="inlineStr"/>
       <c r="G1818" t="inlineStr"/>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1819">
@@ -58995,10 +58951,8 @@
       </c>
       <c r="F1819" t="inlineStr"/>
       <c r="G1819" t="inlineStr"/>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1820">
@@ -59029,10 +58983,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1821">
@@ -59063,10 +59015,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1822">
@@ -59097,10 +59047,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1823">
@@ -59131,10 +59079,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1824">
@@ -59169,10 +59115,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1825">
@@ -59203,10 +59147,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -59241,10 +59183,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1827">
@@ -59279,10 +59219,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1828">
@@ -59313,10 +59251,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -59347,10 +59283,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59385,10 +59319,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1831">
@@ -59423,10 +59355,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1832">
@@ -59461,10 +59391,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1833">
@@ -59495,10 +59423,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1834">
@@ -59529,10 +59455,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -59563,10 +59487,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -59597,10 +59519,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1837">
@@ -59631,10 +59551,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
@@ -59665,10 +59583,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1839">
@@ -59691,10 +59607,8 @@
       <c r="E1839" t="inlineStr"/>
       <c r="F1839" t="inlineStr"/>
       <c r="G1839" t="inlineStr"/>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1840">
@@ -59729,10 +59643,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1841">
@@ -59763,10 +59675,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1842">
@@ -59793,10 +59703,8 @@
       </c>
       <c r="F1842" t="inlineStr"/>
       <c r="G1842" t="inlineStr"/>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -59823,10 +59731,8 @@
       </c>
       <c r="F1843" t="inlineStr"/>
       <c r="G1843" t="inlineStr"/>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -59853,10 +59759,8 @@
       </c>
       <c r="F1844" t="inlineStr"/>
       <c r="G1844" t="inlineStr"/>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -59883,10 +59787,8 @@
       </c>
       <c r="F1845" t="inlineStr"/>
       <c r="G1845" t="inlineStr"/>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1846">
@@ -59913,10 +59815,8 @@
       </c>
       <c r="F1846" t="inlineStr"/>
       <c r="G1846" t="inlineStr"/>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -59943,10 +59843,8 @@
       </c>
       <c r="F1847" t="inlineStr"/>
       <c r="G1847" t="inlineStr"/>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -59981,10 +59879,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1849">
@@ -60019,10 +59915,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -60057,10 +59951,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -60091,10 +59983,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -60125,10 +60015,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60163,10 +60051,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1854">
@@ -60201,10 +60087,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1855">
@@ -60235,10 +60119,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -60269,10 +60151,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -60303,10 +60183,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1858">
@@ -60341,10 +60219,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -60375,10 +60251,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60409,10 +60283,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60443,10 +60315,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60477,10 +60347,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -60507,10 +60375,8 @@
       </c>
       <c r="F1863" t="inlineStr"/>
       <c r="G1863" t="inlineStr"/>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60537,10 +60403,8 @@
       </c>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr"/>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60567,10 +60431,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
@@ -60597,10 +60459,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1867">
@@ -60627,10 +60487,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1868">
@@ -60653,10 +60511,8 @@
       </c>
       <c r="F1868" t="inlineStr"/>
       <c r="G1868" t="inlineStr"/>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1869">
@@ -60679,10 +60535,8 @@
       </c>
       <c r="F1869" t="inlineStr"/>
       <c r="G1869" t="inlineStr"/>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -60709,10 +60563,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -60739,10 +60591,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -60769,56 +60619,74 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
       <c r="A1873" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1873" t="inlineStr"/>
-      <c r="C1873" t="inlineStr"/>
+          <t>03:55 AM</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>Unemployment ChangeJAN</t>
+        </is>
+      </c>
       <c r="D1873" t="inlineStr"/>
-      <c r="E1873" t="inlineStr"/>
-      <c r="F1873" t="inlineStr"/>
-      <c r="G1873" t="inlineStr"/>
-      <c r="H1873" t="inlineStr"/>
+      <c r="E1873" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F1873" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G1873" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H1873" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1874">
       <c r="A1874" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1874" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1874" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1874" t="inlineStr"/>
       <c r="E1874" t="inlineStr">
         <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F1874" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
+          <t>2.869M</t>
+        </is>
+      </c>
+      <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1874" t="inlineStr">
@@ -60830,75 +60698,71 @@
     <row r="1875">
       <c r="A1875" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1875" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1875" t="inlineStr"/>
       <c r="E1875" t="inlineStr">
         <is>
-          <t>-10.2%</t>
-        </is>
-      </c>
-      <c r="F1875" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F1875" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1875" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D1876" t="inlineStr"/>
-      <c r="E1876" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="E1876" t="inlineStr"/>
       <c r="F1876" t="inlineStr"/>
-      <c r="G1876" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1876" t="inlineStr"/>
       <c r="H1876" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1877" t="inlineStr">
@@ -60908,35 +60772,27 @@
       </c>
       <c r="C1877" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1877" t="inlineStr"/>
       <c r="E1877" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F1877" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1877" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1877" t="inlineStr"/>
+      <c r="G1877" t="inlineStr"/>
       <c r="H1877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1878">
       <c r="A1878" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1878" t="inlineStr">
@@ -60946,93 +60802,77 @@
       </c>
       <c r="C1878" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1878" t="inlineStr"/>
       <c r="E1878" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1878" t="inlineStr"/>
-      <c r="G1878" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1878" t="inlineStr"/>
       <c r="H1878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1879">
       <c r="A1879" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1879" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1879" t="inlineStr"/>
       <c r="E1879" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1879" t="inlineStr"/>
-      <c r="G1879" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1879" t="inlineStr"/>
       <c r="H1879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1880" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1880" t="inlineStr"/>
       <c r="E1880" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1880" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1880" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1880" t="inlineStr"/>
+      <c r="G1880" t="inlineStr"/>
       <c r="H1880" t="inlineStr">
         <is>
           <t>3</t>
@@ -61042,31 +60882,27 @@
     <row r="1881">
       <c r="A1881" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1881" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1881" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1881" t="inlineStr"/>
       <c r="E1881" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1881" t="inlineStr"/>
       <c r="H1881" t="inlineStr">
         <is>
           <t>3</t>
@@ -61076,31 +60912,27 @@
     <row r="1882">
       <c r="A1882" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1882" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1882" t="inlineStr"/>
       <c r="E1882" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1882" t="inlineStr"/>
-      <c r="G1882" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1882" t="inlineStr"/>
       <c r="H1882" t="inlineStr">
         <is>
           <t>3</t>
@@ -61110,171 +60942,147 @@
     <row r="1883">
       <c r="A1883" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1883" t="inlineStr"/>
       <c r="E1883" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1883" t="inlineStr"/>
-      <c r="G1883" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1883" t="inlineStr"/>
       <c r="H1883" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1884">
       <c r="A1884" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1884" t="inlineStr"/>
       <c r="E1884" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1884" t="inlineStr"/>
-      <c r="G1884" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1884" t="inlineStr"/>
       <c r="H1884" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1885">
       <c r="A1885" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1885" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1885" t="inlineStr"/>
       <c r="E1885" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1885" t="inlineStr"/>
-      <c r="G1885" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1885" t="inlineStr"/>
       <c r="H1885" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1886">
       <c r="A1886" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1886" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1886" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1886" t="inlineStr"/>
       <c r="E1886" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1886" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F1886" t="inlineStr"/>
+      <c r="G1886" t="inlineStr"/>
       <c r="H1886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1887">
       <c r="A1887" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1887" t="inlineStr"/>
       <c r="E1887" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1887" t="inlineStr"/>
-      <c r="G1887" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1887" t="inlineStr"/>
       <c r="H1887" t="inlineStr">
         <is>
           <t>3</t>
@@ -61284,31 +61092,27 @@
     <row r="1888">
       <c r="A1888" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1888" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1888" t="inlineStr"/>
       <c r="E1888" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1888" t="inlineStr"/>
-      <c r="G1888" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G1888" t="inlineStr"/>
       <c r="H1888" t="inlineStr">
         <is>
           <t>3</t>
@@ -61318,29 +61122,29 @@
     <row r="1889">
       <c r="A1889" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1889" t="inlineStr"/>
       <c r="E1889" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1889" t="inlineStr"/>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H1889" t="inlineStr">
@@ -61352,29 +61156,29 @@
     <row r="1890">
       <c r="A1890" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1890" t="inlineStr"/>
       <c r="E1890" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1890" t="inlineStr"/>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1890" t="inlineStr">
@@ -61386,29 +61190,29 @@
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1891" t="inlineStr"/>
       <c r="E1891" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1891" t="inlineStr"/>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1891" t="inlineStr">
@@ -61420,29 +61224,29 @@
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1892" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1892" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1892" t="inlineStr"/>
       <c r="E1892" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1892" t="inlineStr"/>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>INR-9700.0B</t>
         </is>
       </c>
       <c r="H1892" t="inlineStr">
@@ -61454,27 +61258,31 @@
     <row r="1893">
       <c r="A1893" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1893" t="inlineStr"/>
       <c r="E1893" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1893" t="inlineStr"/>
-      <c r="G1893" t="inlineStr"/>
+      <c r="G1893" t="inlineStr">
+        <is>
+          <t>77.9%</t>
+        </is>
+      </c>
       <c r="H1893" t="inlineStr">
         <is>
           <t>3</t>
@@ -61484,163 +61292,155 @@
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1894" t="inlineStr"/>
       <c r="E1894" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F1894" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>BRL-99.1B</t>
+        </is>
+      </c>
+      <c r="F1894" t="inlineStr"/>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1894" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1895" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1895" t="inlineStr"/>
       <c r="E1895" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1895" t="inlineStr"/>
-      <c r="G1895" t="inlineStr">
-        <is>
-          <t>2.876M</t>
-        </is>
-      </c>
+      <c r="G1895" t="inlineStr"/>
       <c r="H1895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1896" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1896" t="inlineStr"/>
       <c r="E1896" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F1896" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>9.8%</t>
+        </is>
+      </c>
+      <c r="F1896" t="inlineStr"/>
+      <c r="G1896" t="inlineStr"/>
       <c r="H1896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1897" t="inlineStr"/>
-      <c r="E1897" t="inlineStr"/>
+      <c r="E1897" t="inlineStr">
+        <is>
+          <t>$623.98B</t>
+        </is>
+      </c>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr"/>
       <c r="H1897" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1898" t="inlineStr"/>
       <c r="E1898" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1898" t="inlineStr"/>
-      <c r="G1898" t="inlineStr"/>
+      <c r="G1898" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H1898" t="inlineStr">
         <is>
           <t>3</t>
@@ -61650,67 +61450,75 @@
     <row r="1899">
       <c r="A1899" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1899" t="inlineStr"/>
       <c r="E1899" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1899" t="inlineStr"/>
-      <c r="G1899" t="inlineStr"/>
+      <c r="G1899" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H1899" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1900" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1900" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1900" t="inlineStr"/>
       <c r="E1900" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr"/>
+      <c r="G1900" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H1900" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1901" t="inlineStr">
@@ -61720,27 +61528,35 @@
       </c>
       <c r="C1901" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1901" t="inlineStr"/>
       <c r="E1901" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1901" t="inlineStr"/>
-      <c r="G1901" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F1901" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G1901" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1901" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1902" t="inlineStr">
@@ -61750,27 +61566,35 @@
       </c>
       <c r="C1902" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1902" t="inlineStr"/>
       <c r="E1902" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1902" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G1902" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1902" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1903">
       <c r="A1903" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1903" t="inlineStr">
@@ -61780,17 +61604,21 @@
       </c>
       <c r="C1903" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1903" t="inlineStr"/>
       <c r="E1903" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr"/>
+      <c r="G1903" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1903" t="inlineStr">
         <is>
           <t>3</t>
@@ -61800,7 +61628,7 @@
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
@@ -61810,17 +61638,25 @@
       </c>
       <c r="C1904" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1904" t="inlineStr"/>
-      <c r="G1904" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1904" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G1904" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1904" t="inlineStr">
         <is>
           <t>3</t>
@@ -61830,381 +61666,417 @@
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1905" t="inlineStr"/>
       <c r="E1905" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1905" t="inlineStr"/>
-      <c r="G1905" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1905" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1905" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1905" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1906" t="inlineStr"/>
       <c r="E1906" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1906" t="inlineStr"/>
-      <c r="G1906" t="inlineStr"/>
+      <c r="G1906" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1906" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1907" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1907" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1907" t="inlineStr"/>
       <c r="E1907" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F1907" t="inlineStr"/>
-      <c r="G1907" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1907" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1907" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1908" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1908" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1908" t="inlineStr"/>
       <c r="E1908" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1908" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1908" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1909">
       <c r="A1909" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1909" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1909" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1909" t="inlineStr"/>
       <c r="E1909" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1909" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1909" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1910">
       <c r="A1910" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1910" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1910" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D1910" t="inlineStr"/>
       <c r="E1910" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1911">
       <c r="A1911" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D1911" t="inlineStr"/>
       <c r="E1911" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1911" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1912">
       <c r="A1912" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1912" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D1912" t="inlineStr"/>
       <c r="E1912" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1912" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1912" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1912" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1913">
       <c r="A1913" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1913" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1913" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D1913" t="inlineStr"/>
-      <c r="E1913" t="inlineStr">
-        <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
+      <c r="E1913" t="inlineStr"/>
       <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>INR-9700.0B</t>
-        </is>
-      </c>
+      <c r="G1913" t="inlineStr"/>
       <c r="H1913" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1914">
       <c r="A1914" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1914" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1914" t="inlineStr"/>
       <c r="E1914" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1914" t="inlineStr"/>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1914" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1915" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1915" t="inlineStr"/>
       <c r="E1915" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1915" t="inlineStr"/>
       <c r="G1915" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1915" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1916">
       <c r="A1916" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1916" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1916" t="inlineStr"/>
       <c r="E1916" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr"/>
+      <c r="G1916" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1916" t="inlineStr">
         <is>
           <t>3</t>
@@ -62214,57 +62086,69 @@
     <row r="1917">
       <c r="A1917" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1917" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1917" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D1917" t="inlineStr"/>
       <c r="E1917" t="inlineStr">
         <is>
-          <t>9.8%</t>
-        </is>
-      </c>
-      <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F1917" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G1917" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H1917" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1918">
       <c r="A1918" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1918" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D1918" t="inlineStr"/>
       <c r="E1918" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr"/>
+      <c r="G1918" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H1918" t="inlineStr">
         <is>
           <t>3</t>
@@ -62274,31 +62158,27 @@
     <row r="1919">
       <c r="A1919" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1919" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1919" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D1919" t="inlineStr"/>
       <c r="E1919" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G1919" t="inlineStr"/>
       <c r="H1919" t="inlineStr">
         <is>
           <t>3</t>
@@ -62308,63 +62188,59 @@
     <row r="1920">
       <c r="A1920" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1920" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D1920" t="inlineStr"/>
       <c r="E1920" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G1920" t="inlineStr"/>
       <c r="H1920" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1921">
       <c r="A1921" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1921" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D1921" t="inlineStr"/>
       <c r="E1921" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F1921" t="inlineStr"/>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>ZAR 27.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1921" t="inlineStr">
@@ -62376,105 +62252,93 @@
     <row r="1922">
       <c r="A1922" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1922" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1922" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D1922" t="inlineStr"/>
       <c r="E1922" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1922" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H1922" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1923" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1923" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D1923" t="inlineStr"/>
       <c r="E1923" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1923" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F1923" t="inlineStr"/>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1923" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1924" t="inlineStr"/>
       <c r="B1924" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D1924" t="inlineStr"/>
       <c r="E1924" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1924" t="inlineStr"/>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1924" t="inlineStr">
@@ -62484,35 +62348,27 @@
       </c>
     </row>
     <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1925" t="inlineStr"/>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1925" t="inlineStr"/>
       <c r="E1925" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F1925" t="inlineStr"/>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1925" t="inlineStr">
@@ -62522,311 +62378,255 @@
       </c>
     </row>
     <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1926" t="inlineStr"/>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D1926" t="inlineStr"/>
       <c r="E1926" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="F1926" t="inlineStr"/>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1927" t="inlineStr"/>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1927" t="inlineStr"/>
       <c r="E1927" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H1927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1928" t="inlineStr"/>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1928" t="inlineStr"/>
       <c r="E1928" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H1928" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1929">
       <c r="A1929" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr"/>
+      <c r="C1929" t="inlineStr"/>
       <c r="D1929" t="inlineStr"/>
-      <c r="E1929" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1929" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E1929" t="inlineStr"/>
+      <c r="F1929" t="inlineStr"/>
+      <c r="G1929" t="inlineStr"/>
+      <c r="H1929" t="inlineStr"/>
     </row>
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1930" t="inlineStr"/>
       <c r="E1930" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1930" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="F1930" t="inlineStr"/>
+      <c r="G1930" t="inlineStr"/>
       <c r="H1930" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr"/>
       <c r="E1931" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1931" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1932" t="inlineStr"/>
       <c r="E1932" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1932" t="inlineStr"/>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1933" t="inlineStr"/>
       <c r="E1933" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1933" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1933" t="inlineStr"/>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1933" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D1934" t="inlineStr"/>
@@ -62842,29 +62642,29 @@
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F1935" t="inlineStr"/>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1935" t="inlineStr">
@@ -62876,29 +62676,29 @@
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr"/>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1936" t="inlineStr"/>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1936" t="inlineStr">
@@ -62910,31 +62710,27 @@
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G1937" t="inlineStr"/>
       <c r="H1937" t="inlineStr">
         <is>
           <t>3</t>
@@ -62944,67 +62740,59 @@
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F1938" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="F1938" t="inlineStr"/>
+      <c r="G1938" t="inlineStr"/>
       <c r="H1938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1939" t="inlineStr"/>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H1939" t="inlineStr">
@@ -63016,157 +62804,173 @@
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>472</t>
-        </is>
-      </c>
-      <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1940" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G1940" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H1940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr"/>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F1941" t="inlineStr"/>
-      <c r="G1941" t="inlineStr"/>
+      <c r="G1941" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1941" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr"/>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F1942" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F1942" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H1942" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr"/>
       <c r="E1944" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F1944" t="inlineStr"/>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1944" t="inlineStr">
@@ -63176,27 +62980,31 @@
       </c>
     </row>
     <row r="1945">
-      <c r="A1945" t="inlineStr"/>
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F1945" t="inlineStr"/>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1945" t="inlineStr">
@@ -63206,27 +63014,31 @@
       </c>
     </row>
     <row r="1946">
-      <c r="A1946" t="inlineStr"/>
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F1946" t="inlineStr"/>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H1946" t="inlineStr">
@@ -63236,57 +63048,49 @@
       </c>
     </row>
     <row r="1947">
-      <c r="A1947" t="inlineStr"/>
-      <c r="B1947" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1947" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr"/>
+      <c r="C1947" t="inlineStr"/>
       <c r="D1947" t="inlineStr"/>
-      <c r="E1947" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
+      <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1947" t="inlineStr"/>
+      <c r="H1947" t="inlineStr"/>
     </row>
     <row r="1948">
-      <c r="A1948" t="inlineStr"/>
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F1948" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F1948" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H1948" t="inlineStr">
@@ -63296,29 +63100,29 @@
       </c>
     </row>
     <row r="1949">
-      <c r="A1949" t="inlineStr"/>
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
+      <c r="G1949" t="inlineStr"/>
       <c r="H1949" t="inlineStr">
         <is>
           <t>3</t>
@@ -63328,37 +63132,53 @@
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
-      <c r="C1950" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D1950" t="inlineStr"/>
-      <c r="E1950" t="inlineStr"/>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr"/>
-      <c r="H1950" t="inlineStr"/>
+      <c r="H1950" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1951" t="inlineStr"/>
@@ -63372,99 +63192,87 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr"/>
-      <c r="G1952" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1952" t="inlineStr"/>
       <c r="H1952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F1953" t="inlineStr"/>
-      <c r="G1953" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1953" t="inlineStr"/>
       <c r="H1953" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F1954" t="inlineStr"/>
-      <c r="G1954" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1954" t="inlineStr"/>
       <c r="H1954" t="inlineStr">
         <is>
           <t>3</t>
@@ -63474,91 +63282,87 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
-      <c r="E1955" t="inlineStr"/>
+      <c r="E1955" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr"/>
       <c r="H1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F1956" t="inlineStr"/>
-      <c r="G1956" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1956" t="inlineStr"/>
       <c r="H1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F1957" t="inlineStr"/>
-      <c r="G1957" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1957" t="inlineStr"/>
       <c r="H1957" t="inlineStr">
         <is>
           <t>2</t>
@@ -63568,25 +63372,21 @@
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
-      <c r="E1958" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E1958" t="inlineStr"/>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr"/>
       <c r="H1958" t="inlineStr">
@@ -63598,97 +63398,93 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr"/>
       <c r="H1959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G1960" t="inlineStr"/>
       <c r="H1960" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H1961" t="inlineStr">
@@ -63700,29 +63496,33 @@
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F1962" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H1962" t="inlineStr">
@@ -63734,223 +63534,219 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H1963" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H1964" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F1965" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H1965" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E1966" t="inlineStr"/>
       <c r="F1966" t="inlineStr"/>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1966" t="inlineStr"/>
       <c r="H1966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G1967" t="inlineStr"/>
       <c r="H1967" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B1968" t="inlineStr"/>
-      <c r="C1968" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM FlashJAN</t>
+        </is>
+      </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr"/>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr"/>
-      <c r="H1968" t="inlineStr"/>
+      <c r="H1968" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1969" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>127.07</t>
+        </is>
+      </c>
+      <c r="F1969" t="inlineStr"/>
+      <c r="G1969" t="inlineStr"/>
       <c r="H1969" t="inlineStr">
         <is>
           <t>3</t>
@@ -63960,177 +63756,185 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr"/>
       <c r="H1970" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr"/>
       <c r="H1971" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
       <c r="G1972" t="inlineStr"/>
       <c r="H1972" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr"/>
       <c r="H1973" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr"/>
+      <c r="G1974" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H1974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1975" t="inlineStr"/>
-      <c r="G1975" t="inlineStr"/>
+      <c r="G1975" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H1975" t="inlineStr">
         <is>
           <t>3</t>
@@ -64140,27 +63944,31 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
-      <c r="G1976" t="inlineStr"/>
+      <c r="G1976" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H1976" t="inlineStr">
         <is>
           <t>3</t>
@@ -64170,77 +63978,69 @@
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
-      <c r="E1977" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E1977" t="inlineStr"/>
       <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr"/>
       <c r="H1977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
-      <c r="E1978" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E1978" t="inlineStr"/>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
@@ -64256,53 +64056,49 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
-      <c r="E1980" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E1980" t="inlineStr"/>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr"/>
       <c r="H1980" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
@@ -64316,33 +64112,33 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H1982" t="inlineStr">
@@ -64354,73 +64150,57 @@
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1983" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1983" t="inlineStr"/>
+      <c r="G1983" t="inlineStr"/>
       <c r="H1983" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F1984" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F1984" t="inlineStr"/>
+      <c r="G1984" t="inlineStr"/>
       <c r="H1984" t="inlineStr">
         <is>
           <t>2</t>
@@ -64430,29 +64210,29 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1985" t="inlineStr">
@@ -64464,55 +64244,43 @@
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
-      <c r="E1986" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1986" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E1986" t="inlineStr"/>
+      <c r="F1986" t="inlineStr"/>
+      <c r="G1986" t="inlineStr"/>
       <c r="H1986" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
@@ -64521,54 +64289,50 @@
       <c r="G1987" t="inlineStr"/>
       <c r="H1987" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
-      <c r="E1988" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1988" t="inlineStr"/>
       <c r="F1988" t="inlineStr"/>
       <c r="G1988" t="inlineStr"/>
       <c r="H1988" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
@@ -64577,32 +64341,28 @@
       <c r="G1989" t="inlineStr"/>
       <c r="H1989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
-      <c r="E1990" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E1990" t="inlineStr"/>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr"/>
       <c r="H1990" t="inlineStr">
@@ -64614,83 +64374,83 @@
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr"/>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
       <c r="G1992" t="inlineStr"/>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
@@ -64702,29 +64462,29 @@
       </c>
     </row>
     <row r="1994">
-      <c r="A1994" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1994" t="inlineStr"/>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr"/>
+      <c r="G1994" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -64734,65 +64494,37 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1995" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesDEC</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr"/>
+      <c r="C1995" t="inlineStr"/>
       <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1995" t="inlineStr"/>
+      <c r="H1995" t="inlineStr"/>
     </row>
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G1996" t="inlineStr"/>
       <c r="H1996" t="inlineStr">
         <is>
           <t>3</t>
@@ -64802,7 +64534,7 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
@@ -64812,21 +64544,13 @@
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
       <c r="H1997" t="inlineStr">
         <is>
           <t>3</t>
@@ -64836,610 +64560,28 @@
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr"/>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr"/>
       <c r="H1998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1999" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1999" t="inlineStr"/>
-      <c r="E1999" t="inlineStr"/>
-      <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr"/>
-      <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr"/>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2001" t="inlineStr"/>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2002" t="inlineStr"/>
-      <c r="E2002" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr"/>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2003" t="inlineStr"/>
-      <c r="E2003" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr"/>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2005" t="inlineStr"/>
-      <c r="E2005" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2005" t="inlineStr"/>
-      <c r="G2005" t="inlineStr"/>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2006" t="inlineStr"/>
-      <c r="E2006" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2007" t="inlineStr"/>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr"/>
-      <c r="G2007" t="inlineStr"/>
-      <c r="H2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2008" t="inlineStr"/>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr"/>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr"/>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr"/>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr"/>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr"/>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr">
-        <is>
-          <t>10-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2013" t="inlineStr"/>
-      <c r="E2013" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr"/>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>11:15 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr"/>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr"/>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2015" t="inlineStr"/>
-      <c r="E2015" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr"/>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr"/>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr"/>
-      <c r="H2016" t="inlineStr"/>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr"/>
-      <c r="H2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr"/>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr"/>
-      <c r="H2019" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1998"/>
+  <dimension ref="A1:H1979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60655,10 +60655,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1874">
@@ -60689,10 +60687,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1875">
@@ -60727,10 +60723,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1876">
@@ -60753,10 +60747,8 @@
       <c r="E1876" t="inlineStr"/>
       <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr"/>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1877">
@@ -60783,10 +60775,8 @@
       </c>
       <c r="F1877" t="inlineStr"/>
       <c r="G1877" t="inlineStr"/>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1878">
@@ -60813,10 +60803,8 @@
       </c>
       <c r="F1878" t="inlineStr"/>
       <c r="G1878" t="inlineStr"/>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1879">
@@ -60843,10 +60831,8 @@
       </c>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr"/>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -60873,10 +60859,8 @@
       </c>
       <c r="F1880" t="inlineStr"/>
       <c r="G1880" t="inlineStr"/>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -60903,10 +60887,8 @@
       </c>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr"/>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -60933,10 +60915,8 @@
       </c>
       <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr"/>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -60963,10 +60943,8 @@
       </c>
       <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr"/>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -60993,10 +60971,8 @@
       </c>
       <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr"/>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61023,10 +60999,8 @@
       </c>
       <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr"/>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61053,10 +61027,8 @@
       </c>
       <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr"/>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61083,10 +61055,8 @@
       </c>
       <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr"/>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1888">
@@ -61113,10 +61083,8 @@
       </c>
       <c r="F1888" t="inlineStr"/>
       <c r="G1888" t="inlineStr"/>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61147,10 +61115,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61181,10 +61147,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1891">
@@ -61215,10 +61179,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61249,10 +61211,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61283,10 +61243,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1894">
@@ -61317,10 +61275,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1895">
@@ -61347,10 +61303,8 @@
       </c>
       <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr"/>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61377,10 +61331,8 @@
       </c>
       <c r="F1896" t="inlineStr"/>
       <c r="G1896" t="inlineStr"/>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1897">
@@ -61407,10 +61359,8 @@
       </c>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr"/>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -61441,10 +61391,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1899">
@@ -61475,10 +61423,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1900">
@@ -61509,10 +61455,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1901">
@@ -61547,10 +61491,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1902">
@@ -61585,10 +61527,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1903">
@@ -61619,10 +61559,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1904">
@@ -61657,10 +61595,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -61695,10 +61631,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1906">
@@ -61729,10 +61663,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1907">
@@ -61767,10 +61699,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1908">
@@ -61805,10 +61735,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1909">
@@ -61843,10 +61771,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1910">
@@ -61877,10 +61803,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1911">
@@ -61911,10 +61835,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1912">
@@ -61949,10 +61871,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1913">
@@ -61975,10 +61895,8 @@
       <c r="E1913" t="inlineStr"/>
       <c r="F1913" t="inlineStr"/>
       <c r="G1913" t="inlineStr"/>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1914">
@@ -62009,10 +61927,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1915">
@@ -62043,10 +61959,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -62077,10 +61991,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -62115,10 +62027,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1918">
@@ -62149,10 +62059,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -62179,10 +62087,8 @@
       </c>
       <c r="F1919" t="inlineStr"/>
       <c r="G1919" t="inlineStr"/>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -62209,10 +62115,8 @@
       </c>
       <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62243,10 +62147,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1922">
@@ -62277,10 +62179,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62311,10 +62211,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
@@ -62341,10 +62239,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1925">
@@ -62371,10 +62267,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1926">
@@ -62401,10 +62295,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -62431,10 +62323,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -62461,10 +62351,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -62505,10 +62393,8 @@
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1931">
@@ -62539,10 +62425,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -62573,10 +62457,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -62607,10 +62489,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1934">
@@ -62633,10 +62513,8 @@
       <c r="E1934" t="inlineStr"/>
       <c r="F1934" t="inlineStr"/>
       <c r="G1934" t="inlineStr"/>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1935">
@@ -62667,10 +62545,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1936">
@@ -62701,10 +62577,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1937">
@@ -62731,10 +62605,8 @@
       </c>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr"/>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1938">
@@ -62761,10 +62633,8 @@
       </c>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr"/>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1939">
@@ -62795,10 +62665,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1940">
@@ -62833,10 +62701,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1941">
@@ -62867,10 +62733,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1942">
@@ -62905,10 +62769,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1943">
@@ -62939,10 +62801,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1944">
@@ -62973,10 +62833,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -63007,10 +62865,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -63041,114 +62897,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B1947" t="inlineStr"/>
-      <c r="C1947" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D1947" t="inlineStr"/>
-      <c r="E1947" t="inlineStr"/>
+      <c r="E1947" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F1947" t="inlineStr"/>
       <c r="G1947" t="inlineStr"/>
-      <c r="H1947" t="inlineStr"/>
+      <c r="H1947" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1948" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F1948" t="inlineStr"/>
+      <c r="G1948" t="inlineStr"/>
       <c r="H1948" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr"/>
       <c r="H1949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1950" t="inlineStr"/>
@@ -63162,117 +63024,129 @@
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr"/>
       <c r="H1951" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr"/>
-      <c r="G1952" t="inlineStr"/>
+      <c r="G1952" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1953" t="inlineStr"/>
-      <c r="G1953" t="inlineStr"/>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H1953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1954" t="inlineStr"/>
-      <c r="G1954" t="inlineStr"/>
+      <c r="G1954" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H1954" t="inlineStr">
         <is>
           <t>3</t>
@@ -63282,55 +63156,47 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
-      <c r="E1955" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E1955" t="inlineStr"/>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr"/>
       <c r="H1955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
-      <c r="E1956" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E1956" t="inlineStr"/>
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr"/>
       <c r="H1956" t="inlineStr">
@@ -63342,47 +63208,43 @@
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
-      <c r="E1957" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E1957" t="inlineStr"/>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr"/>
       <c r="H1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
@@ -63398,23 +63260,23 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
@@ -63428,27 +63290,35 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H1960" t="inlineStr">
         <is>
           <t>2</t>
@@ -63458,73 +63328,57 @@
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1961" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G1961" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1961" t="inlineStr"/>
+      <c r="G1961" t="inlineStr"/>
       <c r="H1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1962" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G1962" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F1962" t="inlineStr"/>
+      <c r="G1962" t="inlineStr"/>
       <c r="H1962" t="inlineStr">
         <is>
           <t>2</t>
@@ -63534,69 +63388,57 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F1963" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1963" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
-      <c r="E1964" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E1964" t="inlineStr"/>
       <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G1964" t="inlineStr"/>
       <c r="H1964" t="inlineStr">
         <is>
           <t>3</t>
@@ -63606,55 +63448,43 @@
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
-      <c r="E1965" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1965" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G1965" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E1965" t="inlineStr"/>
+      <c r="F1965" t="inlineStr"/>
+      <c r="G1965" t="inlineStr"/>
       <c r="H1965" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
@@ -63663,54 +63493,50 @@
       <c r="G1966" t="inlineStr"/>
       <c r="H1966" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
-      <c r="E1967" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1967" t="inlineStr"/>
       <c r="F1967" t="inlineStr"/>
       <c r="G1967" t="inlineStr"/>
       <c r="H1967" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
@@ -63719,30 +63545,30 @@
       <c r="G1968" t="inlineStr"/>
       <c r="H1968" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
@@ -63756,87 +63582,87 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr"/>
       <c r="H1970" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr"/>
       <c r="H1971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1972">
-      <c r="A1972" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1972" t="inlineStr"/>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr"/>
+      <c r="G1972" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H1972" t="inlineStr">
         <is>
           <t>3</t>
@@ -63846,61 +63672,37 @@
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1973" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1973" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr"/>
+      <c r="C1973" t="inlineStr"/>
       <c r="D1973" t="inlineStr"/>
-      <c r="E1973" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E1973" t="inlineStr"/>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr"/>
-      <c r="H1973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1973" t="inlineStr"/>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
-      <c r="E1974" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E1974" t="inlineStr"/>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G1974" t="inlineStr"/>
       <c r="H1974" t="inlineStr">
         <is>
           <t>3</t>
@@ -63910,31 +63712,23 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
-      <c r="E1975" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E1975" t="inlineStr"/>
       <c r="F1975" t="inlineStr"/>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G1975" t="inlineStr"/>
       <c r="H1975" t="inlineStr">
         <is>
           <t>3</t>
@@ -63944,31 +63738,27 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
-      <c r="G1976" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G1976" t="inlineStr"/>
       <c r="H1976" t="inlineStr">
         <is>
           <t>3</t>
@@ -63976,19 +63766,15 @@
       </c>
     </row>
     <row r="1977">
-      <c r="A1977" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1977" t="inlineStr"/>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
@@ -63997,24 +63783,20 @@
       <c r="G1977" t="inlineStr"/>
       <c r="H1977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
-      <c r="A1978" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1978" t="inlineStr"/>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
@@ -64028,19 +63810,15 @@
       </c>
     </row>
     <row r="1979">
-      <c r="A1979" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1979" t="inlineStr"/>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
@@ -64053,540 +63831,6 @@
         </is>
       </c>
     </row>
-    <row r="1980">
-      <c r="A1980" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1980" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1980" t="inlineStr"/>
-      <c r="E1980" t="inlineStr"/>
-      <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr"/>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1981">
-      <c r="A1981" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1981" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1981" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D1981" t="inlineStr"/>
-      <c r="E1981" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F1981" t="inlineStr"/>
-      <c r="G1981" t="inlineStr"/>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1982">
-      <c r="A1982" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1982" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1982" t="inlineStr"/>
-      <c r="E1982" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F1982" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G1982" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1983">
-      <c r="A1983" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1983" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D1983" t="inlineStr"/>
-      <c r="E1983" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr"/>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1984">
-      <c r="A1984" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1984" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1984" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D1984" t="inlineStr"/>
-      <c r="E1984" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr"/>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1985" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1985" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1985" t="inlineStr"/>
-      <c r="E1985" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1986" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1986" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D1986" t="inlineStr"/>
-      <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr"/>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1987" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1987" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr"/>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1988" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1988" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1988" t="inlineStr"/>
-      <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr"/>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1989" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1989" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1989" t="inlineStr"/>
-      <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr"/>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1990" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1990" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D1990" t="inlineStr"/>
-      <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr"/>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B1991" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1991" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D1991" t="inlineStr"/>
-      <c r="E1991" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr"/>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B1992" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1992" t="inlineStr">
-        <is>
-          <t>10-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1992" t="inlineStr"/>
-      <c r="E1992" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
-      <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr"/>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>11:15 PM</t>
-        </is>
-      </c>
-      <c r="B1993" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C1993" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
-      <c r="D1993" t="inlineStr"/>
-      <c r="E1993" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr"/>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="inlineStr"/>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1994" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D1994" t="inlineStr"/>
-      <c r="E1994" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr"/>
-      <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr"/>
-      <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr"/>
-      <c r="H1995" t="inlineStr"/>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1996" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr"/>
-      <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr"/>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1997" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr"/>
-      <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr"/>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1998" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr"/>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1979"/>
+  <dimension ref="A1:H1981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62358,123 +62358,137 @@
     <row r="1929">
       <c r="A1929" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr"/>
-      <c r="C1929" t="inlineStr"/>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
       <c r="D1929" t="inlineStr"/>
-      <c r="E1929" t="inlineStr"/>
+      <c r="E1929" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr"/>
-      <c r="H1929" t="inlineStr"/>
+      <c r="H1929" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1930" t="inlineStr"/>
       <c r="E1930" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="n">
-        <v>2</v>
+      <c r="H1930" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr"/>
       <c r="E1931" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1931" t="n">
-        <v>3</v>
+      <c r="G1931" t="inlineStr"/>
+      <c r="H1931" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1932" t="inlineStr"/>
       <c r="E1932" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1932" t="n">
-        <v>3</v>
+      <c r="G1932" t="inlineStr"/>
+      <c r="H1932" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D1933" t="inlineStr"/>
@@ -62484,421 +62498,425 @@
         </is>
       </c>
       <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1933" t="n">
-        <v>3</v>
+      <c r="G1933" t="inlineStr"/>
+      <c r="H1933" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D1934" t="inlineStr"/>
-      <c r="E1934" t="inlineStr"/>
+      <c r="E1934" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
       <c r="F1934" t="inlineStr"/>
       <c r="G1934" t="inlineStr"/>
-      <c r="H1934" t="n">
-        <v>2</v>
+      <c r="H1934" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H1935" t="n">
-        <v>2</v>
+      <c r="G1935" t="inlineStr"/>
+      <c r="H1935" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr"/>
-      <c r="E1936" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1936" t="inlineStr"/>
       <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1936" t="n">
-        <v>2</v>
+      <c r="G1936" t="inlineStr"/>
+      <c r="H1936" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr"/>
-      <c r="H1937" t="n">
-        <v>3</v>
+      <c r="H1937" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr"/>
-      <c r="H1938" t="n">
-        <v>3</v>
+      <c r="H1938" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1939" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1939" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H1939" t="n">
-        <v>3</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H1939" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F1940" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="H1940" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H1940" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr"/>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F1941" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1941" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H1941" t="n">
-        <v>2</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H1941" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr"/>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F1942" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H1942" t="n">
-        <v>1</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H1942" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F1943" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F1943" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1943" t="n">
-        <v>2</v>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H1943" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr"/>
-      <c r="E1944" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E1944" t="inlineStr"/>
       <c r="F1944" t="inlineStr"/>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1944" t="n">
-        <v>3</v>
+      <c r="G1944" t="inlineStr"/>
+      <c r="H1944" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1945" t="n">
-        <v>3</v>
+      <c r="G1945" t="inlineStr"/>
+      <c r="H1945" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr"/>
-      <c r="E1946" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="H1946" t="n">
-        <v>3</v>
+      <c r="G1946" t="inlineStr"/>
+      <c r="H1946" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1947">
@@ -63766,19 +63784,27 @@
       </c>
     </row>
     <row r="1977">
-      <c r="A1977" t="inlineStr"/>
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>02:45 AM</t>
+        </is>
+      </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
-      <c r="E1977" t="inlineStr"/>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr"/>
       <c r="H1977" t="inlineStr">
@@ -63788,19 +63814,27 @@
       </c>
     </row>
     <row r="1978">
-      <c r="A1978" t="inlineStr"/>
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
-      <c r="E1978" t="inlineStr"/>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
@@ -63818,7 +63852,7 @@
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
@@ -63831,6 +63865,50 @@
         </is>
       </c>
     </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr"/>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>Exports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr"/>
+      <c r="E1980" t="inlineStr"/>
+      <c r="F1980" t="inlineStr"/>
+      <c r="G1980" t="inlineStr"/>
+      <c r="H1980" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr"/>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>Imports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr"/>
+      <c r="E1981" t="inlineStr"/>
+      <c r="F1981" t="inlineStr"/>
+      <c r="G1981" t="inlineStr"/>
+      <c r="H1981" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2358"/>
+  <dimension ref="A1:H2340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63645,10 +63645,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1974" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1974" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1975">
@@ -63679,10 +63677,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H1975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1975" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1976">
@@ -63713,10 +63709,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1977">
@@ -63751,10 +63745,8 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H1977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1978">
@@ -63777,10 +63769,8 @@
       </c>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr"/>
-      <c r="H1978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1979">
@@ -63825,10 +63815,8 @@
           <t>115.3</t>
         </is>
       </c>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1981">
@@ -63863,10 +63851,8 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1982">
@@ -63893,10 +63879,8 @@
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr"/>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1983">
@@ -63923,10 +63907,8 @@
       </c>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr"/>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1984">
@@ -63953,10 +63935,8 @@
       </c>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr"/>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1985">
@@ -63987,10 +63967,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1985" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1986">
@@ -64021,10 +63999,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1987">
@@ -64059,10 +64035,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1987" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1988">
@@ -64097,10 +64071,8 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -64135,10 +64107,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1990">
@@ -64165,10 +64135,8 @@
       </c>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr"/>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1991">
@@ -64195,10 +64163,8 @@
       </c>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr"/>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1992">
@@ -64229,10 +64195,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1993">
@@ -64263,10 +64227,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1994">
@@ -64297,10 +64259,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1995">
@@ -64331,10 +64291,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1996">
@@ -64365,10 +64323,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1997">
@@ -64399,10 +64355,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1998">
@@ -64433,10 +64387,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1999">
@@ -64463,10 +64415,8 @@
       </c>
       <c r="F1999" t="inlineStr"/>
       <c r="G1999" t="inlineStr"/>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2000">
@@ -64493,10 +64443,8 @@
       </c>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr"/>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2001">
@@ -64523,10 +64471,8 @@
       </c>
       <c r="F2001" t="inlineStr"/>
       <c r="G2001" t="inlineStr"/>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2002">
@@ -64561,10 +64507,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2003">
@@ -64595,10 +64539,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2003" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2004">
@@ -64629,10 +64571,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2004" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2005">
@@ -64655,10 +64595,8 @@
       <c r="E2005" t="inlineStr"/>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr"/>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2005" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2006">
@@ -64685,10 +64623,8 @@
       </c>
       <c r="F2006" t="inlineStr"/>
       <c r="G2006" t="inlineStr"/>
-      <c r="H2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2007">
@@ -64715,10 +64651,8 @@
       </c>
       <c r="F2007" t="inlineStr"/>
       <c r="G2007" t="inlineStr"/>
-      <c r="H2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2008">
@@ -64745,10 +64679,8 @@
       </c>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr"/>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2009">
@@ -64775,10 +64707,8 @@
       </c>
       <c r="F2009" t="inlineStr"/>
       <c r="G2009" t="inlineStr"/>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2009" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2010">
@@ -64809,10 +64739,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2011">
@@ -64843,10 +64771,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2011" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2012">
@@ -64873,10 +64799,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2012" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2013">
@@ -64895,10 +64819,8 @@
       <c r="E2013" t="inlineStr"/>
       <c r="F2013" t="inlineStr"/>
       <c r="G2013" t="inlineStr"/>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2013" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2014">
@@ -64929,10 +64851,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2014" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2015">
@@ -64963,10 +64883,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2016">
@@ -64993,10 +64911,8 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2017">
@@ -65037,10 +64953,8 @@
       </c>
       <c r="F2018" t="inlineStr"/>
       <c r="G2018" t="inlineStr"/>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2019">
@@ -65071,10 +64985,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2020">
@@ -65105,10 +65017,8 @@
           <t>-4.1%</t>
         </is>
       </c>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2021">
@@ -65139,10 +65049,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2022">
@@ -65173,10 +65081,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2023">
@@ -65211,10 +65117,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2023" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2024">
@@ -65249,10 +65153,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2025">
@@ -65279,10 +65181,8 @@
       </c>
       <c r="F2025" t="inlineStr"/>
       <c r="G2025" t="inlineStr"/>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2026">
@@ -65309,10 +65209,8 @@
       </c>
       <c r="F2026" t="inlineStr"/>
       <c r="G2026" t="inlineStr"/>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2027">
@@ -65339,10 +65237,8 @@
       </c>
       <c r="F2027" t="inlineStr"/>
       <c r="G2027" t="inlineStr"/>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2028">
@@ -65369,10 +65265,8 @@
       </c>
       <c r="F2028" t="inlineStr"/>
       <c r="G2028" t="inlineStr"/>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2028" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2029">
@@ -65399,10 +65293,8 @@
       </c>
       <c r="F2029" t="inlineStr"/>
       <c r="G2029" t="inlineStr"/>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2030">
@@ -65437,10 +65329,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2030" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2030" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2031">
@@ -65475,10 +65365,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2032">
@@ -65509,10 +65397,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2033">
@@ -65543,10 +65429,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2033" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2034">
@@ -65573,10 +65457,8 @@
       </c>
       <c r="F2034" t="inlineStr"/>
       <c r="G2034" t="inlineStr"/>
-      <c r="H2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2035">
@@ -65611,10 +65493,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2035" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2035" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2036">
@@ -65645,10 +65525,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2036" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2037">
@@ -65683,10 +65561,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2038">
@@ -65717,10 +65593,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2039">
@@ -65751,10 +65625,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2039" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2040">
@@ -65777,10 +65649,8 @@
       <c r="E2040" t="inlineStr"/>
       <c r="F2040" t="inlineStr"/>
       <c r="G2040" t="inlineStr"/>
-      <c r="H2040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2041">
@@ -65815,10 +65685,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2042">
@@ -65853,10 +65721,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2043">
@@ -65887,10 +65753,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2044">
@@ -65921,10 +65785,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2045">
@@ -65955,10 +65817,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2046">
@@ -65989,10 +65849,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2047">
@@ -66019,10 +65877,8 @@
       </c>
       <c r="F2047" t="inlineStr"/>
       <c r="G2047" t="inlineStr"/>
-      <c r="H2047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2048">
@@ -66049,10 +65905,8 @@
       </c>
       <c r="F2048" t="inlineStr"/>
       <c r="G2048" t="inlineStr"/>
-      <c r="H2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2049">
@@ -66075,10 +65929,8 @@
       <c r="E2049" t="inlineStr"/>
       <c r="F2049" t="inlineStr"/>
       <c r="G2049" t="inlineStr"/>
-      <c r="H2049" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2049" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2050">
@@ -66105,10 +65957,8 @@
       </c>
       <c r="F2050" t="inlineStr"/>
       <c r="G2050" t="inlineStr"/>
-      <c r="H2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2051">
@@ -66135,10 +65985,8 @@
       </c>
       <c r="F2051" t="inlineStr"/>
       <c r="G2051" t="inlineStr"/>
-      <c r="H2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2052">
@@ -66165,10 +66013,8 @@
       </c>
       <c r="F2052" t="inlineStr"/>
       <c r="G2052" t="inlineStr"/>
-      <c r="H2052" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2052" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2053">
@@ -66191,10 +66037,8 @@
       <c r="E2053" t="inlineStr"/>
       <c r="F2053" t="inlineStr"/>
       <c r="G2053" t="inlineStr"/>
-      <c r="H2053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2054">
@@ -66229,10 +66073,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2054" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2054" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2055">
@@ -66267,10 +66109,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2056">
@@ -66305,10 +66145,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2057">
@@ -66343,10 +66181,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2057" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2058">
@@ -66381,10 +66217,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2059">
@@ -66415,10 +66249,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2060">
@@ -66453,10 +66285,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2061">
@@ -66491,10 +66321,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2062">
@@ -66521,10 +66349,8 @@
       </c>
       <c r="F2062" t="inlineStr"/>
       <c r="G2062" t="inlineStr"/>
-      <c r="H2062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2062" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2063">
@@ -66573,10 +66399,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2064" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2064" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2065">
@@ -66611,10 +66435,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2065" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2065" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2066">
@@ -66649,10 +66471,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2066" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2066" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2067">
@@ -66683,10 +66503,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2067" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2067" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2068">
@@ -66717,10 +66535,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2069">
@@ -66755,10 +66571,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2070">
@@ -66793,10 +66607,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2071">
@@ -66827,10 +66639,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2072">
@@ -66861,10 +66671,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2073">
@@ -66891,10 +66699,8 @@
       </c>
       <c r="F2073" t="inlineStr"/>
       <c r="G2073" t="inlineStr"/>
-      <c r="H2073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2074">
@@ -66921,10 +66727,8 @@
       </c>
       <c r="F2074" t="inlineStr"/>
       <c r="G2074" t="inlineStr"/>
-      <c r="H2074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2075">
@@ -66951,10 +66755,8 @@
       </c>
       <c r="F2075" t="inlineStr"/>
       <c r="G2075" t="inlineStr"/>
-      <c r="H2075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2076">
@@ -66985,10 +66787,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2076" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2076" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2077">
@@ -67015,10 +66815,8 @@
       </c>
       <c r="F2077" t="inlineStr"/>
       <c r="G2077" t="inlineStr"/>
-      <c r="H2077" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2077" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2078">
@@ -67045,10 +66843,8 @@
       </c>
       <c r="F2078" t="inlineStr"/>
       <c r="G2078" t="inlineStr"/>
-      <c r="H2078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2079">
@@ -67075,10 +66871,8 @@
       </c>
       <c r="F2079" t="inlineStr"/>
       <c r="G2079" t="inlineStr"/>
-      <c r="H2079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2080">
@@ -67105,10 +66899,8 @@
       </c>
       <c r="F2080" t="inlineStr"/>
       <c r="G2080" t="inlineStr"/>
-      <c r="H2080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2081">
@@ -67135,10 +66927,8 @@
       </c>
       <c r="F2081" t="inlineStr"/>
       <c r="G2081" t="inlineStr"/>
-      <c r="H2081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2082">
@@ -67173,10 +66963,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2083">
@@ -67207,10 +66995,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2083" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2084">
@@ -67245,10 +67031,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2085">
@@ -67283,10 +67067,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2086">
@@ -67309,10 +67091,8 @@
       <c r="E2086" t="inlineStr"/>
       <c r="F2086" t="inlineStr"/>
       <c r="G2086" t="inlineStr"/>
-      <c r="H2086" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2086" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2087">
@@ -67335,10 +67115,8 @@
       <c r="E2087" t="inlineStr"/>
       <c r="F2087" t="inlineStr"/>
       <c r="G2087" t="inlineStr"/>
-      <c r="H2087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2088">
@@ -67365,10 +67143,8 @@
       </c>
       <c r="F2088" t="inlineStr"/>
       <c r="G2088" t="inlineStr"/>
-      <c r="H2088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2089">
@@ -67395,10 +67171,8 @@
       </c>
       <c r="F2089" t="inlineStr"/>
       <c r="G2089" t="inlineStr"/>
-      <c r="H2089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2090">
@@ -67425,10 +67199,8 @@
       </c>
       <c r="F2090" t="inlineStr"/>
       <c r="G2090" t="inlineStr"/>
-      <c r="H2090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2091">
@@ -67455,10 +67227,8 @@
       </c>
       <c r="F2091" t="inlineStr"/>
       <c r="G2091" t="inlineStr"/>
-      <c r="H2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -67485,10 +67255,8 @@
       </c>
       <c r="F2092" t="inlineStr"/>
       <c r="G2092" t="inlineStr"/>
-      <c r="H2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -67515,10 +67283,8 @@
       </c>
       <c r="F2093" t="inlineStr"/>
       <c r="G2093" t="inlineStr"/>
-      <c r="H2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -67545,10 +67311,8 @@
       </c>
       <c r="F2094" t="inlineStr"/>
       <c r="G2094" t="inlineStr"/>
-      <c r="H2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -67575,10 +67339,8 @@
       </c>
       <c r="F2095" t="inlineStr"/>
       <c r="G2095" t="inlineStr"/>
-      <c r="H2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -67605,10 +67367,8 @@
       </c>
       <c r="F2096" t="inlineStr"/>
       <c r="G2096" t="inlineStr"/>
-      <c r="H2096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2097">
@@ -67639,10 +67399,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2098">
@@ -67673,10 +67431,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -67703,10 +67459,8 @@
       </c>
       <c r="F2099" t="inlineStr"/>
       <c r="G2099" t="inlineStr"/>
-      <c r="H2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
@@ -67741,10 +67495,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2101">
@@ -67767,10 +67519,8 @@
       <c r="E2101" t="inlineStr"/>
       <c r="F2101" t="inlineStr"/>
       <c r="G2101" t="inlineStr"/>
-      <c r="H2101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2102">
@@ -67801,10 +67551,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2103">
@@ -67831,10 +67579,8 @@
       </c>
       <c r="F2103" t="inlineStr"/>
       <c r="G2103" t="inlineStr"/>
-      <c r="H2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2104">
@@ -67861,10 +67607,8 @@
       </c>
       <c r="F2104" t="inlineStr"/>
       <c r="G2104" t="inlineStr"/>
-      <c r="H2104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2105">
@@ -67895,10 +67639,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -67921,10 +67663,8 @@
       <c r="E2106" t="inlineStr"/>
       <c r="F2106" t="inlineStr"/>
       <c r="G2106" t="inlineStr"/>
-      <c r="H2106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2107">
@@ -67955,10 +67695,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2108">
@@ -67993,10 +67731,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2109">
@@ -68019,10 +67755,8 @@
       <c r="E2109" t="inlineStr"/>
       <c r="F2109" t="inlineStr"/>
       <c r="G2109" t="inlineStr"/>
-      <c r="H2109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2109" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2110">
@@ -68067,10 +67801,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2111" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2112">
@@ -68097,10 +67829,8 @@
       </c>
       <c r="F2112" t="inlineStr"/>
       <c r="G2112" t="inlineStr"/>
-      <c r="H2112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2113">
@@ -68131,10 +67861,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2114">
@@ -68157,10 +67885,8 @@
       <c r="E2114" t="inlineStr"/>
       <c r="F2114" t="inlineStr"/>
       <c r="G2114" t="inlineStr"/>
-      <c r="H2114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2115">
@@ -68195,10 +67921,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2115" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2116">
@@ -68229,10 +67953,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2116" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2116" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2117">
@@ -68267,10 +67989,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -68305,10 +68025,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -68339,10 +68057,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -68373,10 +68089,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2121">
@@ -68407,10 +68121,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2122">
@@ -68445,10 +68157,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2123">
@@ -68479,10 +68189,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -68513,10 +68221,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2125">
@@ -68547,10 +68253,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2126">
@@ -68585,10 +68289,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2127">
@@ -68623,10 +68325,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2128">
@@ -68661,10 +68361,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2129">
@@ -68695,10 +68393,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2130">
@@ -68729,10 +68425,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2131">
@@ -68763,10 +68457,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2132">
@@ -68797,10 +68489,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2133">
@@ -68835,10 +68525,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2134">
@@ -68869,10 +68557,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2134" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2135">
@@ -68907,10 +68593,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2136">
@@ -68945,10 +68629,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2137">
@@ -68983,10 +68665,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2138">
@@ -69021,10 +68701,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2138" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2138" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2139">
@@ -69055,10 +68733,8 @@
         </is>
       </c>
       <c r="G2139" t="inlineStr"/>
-      <c r="H2139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2139" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2140">
@@ -69093,10 +68769,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2140" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2140" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2141">
@@ -69131,10 +68805,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2142">
@@ -69165,10 +68837,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2143">
@@ -69199,10 +68869,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2144">
@@ -69233,10 +68901,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2145">
@@ -69267,10 +68933,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2146">
@@ -69305,10 +68969,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2146" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2147">
@@ -69331,10 +68993,8 @@
       <c r="E2147" t="inlineStr"/>
       <c r="F2147" t="inlineStr"/>
       <c r="G2147" t="inlineStr"/>
-      <c r="H2147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2148">
@@ -69365,10 +69025,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2149">
@@ -69399,10 +69057,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2149" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2150">
@@ -69433,10 +69089,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2150" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2151">
@@ -69459,10 +69113,8 @@
       <c r="E2151" t="inlineStr"/>
       <c r="F2151" t="inlineStr"/>
       <c r="G2151" t="inlineStr"/>
-      <c r="H2151" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2151" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2152">
@@ -69489,10 +69141,8 @@
       </c>
       <c r="F2152" t="inlineStr"/>
       <c r="G2152" t="inlineStr"/>
-      <c r="H2152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2152" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2153">
@@ -69523,10 +69173,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2153" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2154">
@@ -69557,10 +69205,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2154" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2155">
@@ -69591,10 +69237,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2155" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2156">
@@ -69625,10 +69269,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2156" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2157">
@@ -69663,10 +69305,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2157" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2158">
@@ -69697,10 +69337,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2158" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2159">
@@ -69735,10 +69373,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2159" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2160">
@@ -69773,10 +69409,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2160" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2161">
@@ -69807,10 +69441,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2161" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2162">
@@ -69841,10 +69473,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2163">
@@ -69879,10 +69509,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2163" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2164">
@@ -69917,10 +69545,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2164" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2165">
@@ -69955,10 +69581,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2165" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2165" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2166">
@@ -69989,10 +69613,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2166" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2167">
@@ -70023,10 +69645,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2167" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2168">
@@ -70057,10 +69677,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2169">
@@ -70091,10 +69709,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2170">
@@ -70125,10 +69741,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2170" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2171">
@@ -70159,10 +69773,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2172">
@@ -70185,10 +69797,8 @@
       <c r="E2172" t="inlineStr"/>
       <c r="F2172" t="inlineStr"/>
       <c r="G2172" t="inlineStr"/>
-      <c r="H2172" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2173">
@@ -70223,10 +69833,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2174">
@@ -70257,10 +69865,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2175">
@@ -70287,10 +69893,8 @@
       </c>
       <c r="F2175" t="inlineStr"/>
       <c r="G2175" t="inlineStr"/>
-      <c r="H2175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2176">
@@ -70317,10 +69921,8 @@
       </c>
       <c r="F2176" t="inlineStr"/>
       <c r="G2176" t="inlineStr"/>
-      <c r="H2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2177">
@@ -70347,10 +69949,8 @@
       </c>
       <c r="F2177" t="inlineStr"/>
       <c r="G2177" t="inlineStr"/>
-      <c r="H2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2178">
@@ -70377,10 +69977,8 @@
       </c>
       <c r="F2178" t="inlineStr"/>
       <c r="G2178" t="inlineStr"/>
-      <c r="H2178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2179">
@@ -70407,10 +70005,8 @@
       </c>
       <c r="F2179" t="inlineStr"/>
       <c r="G2179" t="inlineStr"/>
-      <c r="H2179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2180">
@@ -70437,10 +70033,8 @@
       </c>
       <c r="F2180" t="inlineStr"/>
       <c r="G2180" t="inlineStr"/>
-      <c r="H2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2181">
@@ -70475,10 +70069,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H2181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2182">
@@ -70513,10 +70105,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H2182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2183">
@@ -70551,10 +70141,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2184">
@@ -70585,10 +70173,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2185">
@@ -70619,10 +70205,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2186">
@@ -70657,10 +70241,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2187">
@@ -70695,10 +70277,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2188">
@@ -70729,10 +70309,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2189">
@@ -70763,10 +70341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2190">
@@ -70797,10 +70373,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2191">
@@ -70835,10 +70409,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -70869,10 +70441,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2193">
@@ -70903,10 +70473,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2194">
@@ -70937,10 +70505,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2195">
@@ -70971,10 +70537,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2196">
@@ -71001,10 +70565,8 @@
       </c>
       <c r="F2196" t="inlineStr"/>
       <c r="G2196" t="inlineStr"/>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2197">
@@ -71031,10 +70593,8 @@
       </c>
       <c r="F2197" t="inlineStr"/>
       <c r="G2197" t="inlineStr"/>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2198">
@@ -71061,10 +70621,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2199">
@@ -71091,10 +70649,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2200">
@@ -71121,10 +70677,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2201">
@@ -71147,10 +70701,8 @@
       </c>
       <c r="F2201" t="inlineStr"/>
       <c r="G2201" t="inlineStr"/>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2202">
@@ -71173,10 +70725,8 @@
       </c>
       <c r="F2202" t="inlineStr"/>
       <c r="G2202" t="inlineStr"/>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2203">
@@ -71203,10 +70753,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
@@ -71233,10 +70781,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -71263,164 +70809,170 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2206" t="inlineStr"/>
-      <c r="C2206" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>Tourist Arrivals YoYDEC</t>
+        </is>
+      </c>
       <c r="D2206" t="inlineStr"/>
-      <c r="E2206" t="inlineStr"/>
+      <c r="E2206" t="inlineStr">
+        <is>
+          <t>8.25%</t>
+        </is>
+      </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr"/>
+      <c r="H2206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2207" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2207" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2207" t="inlineStr"/>
       <c r="E2207" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2207" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="G2207" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H2207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2208" t="inlineStr"/>
       <c r="E2208" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2209" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2209" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2209" t="inlineStr"/>
       <c r="E2209" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F2209" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2209" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G2209" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2210" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2210" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2210" t="inlineStr"/>
-      <c r="E2210" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2210" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2210" t="inlineStr"/>
+      <c r="F2210" t="inlineStr"/>
+      <c r="G2210" t="inlineStr"/>
       <c r="H2210" t="inlineStr">
         <is>
           <t>2</t>
@@ -71430,7 +70982,7 @@
     <row r="2211">
       <c r="A2211" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2211" t="inlineStr">
@@ -71440,93 +70992,77 @@
       </c>
       <c r="C2211" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2211" t="inlineStr"/>
       <c r="E2211" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2211" t="inlineStr"/>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2211" t="inlineStr"/>
       <c r="H2211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2212" t="inlineStr"/>
       <c r="E2212" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2212" t="inlineStr"/>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2212" t="inlineStr"/>
       <c r="H2212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2213" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2213" t="inlineStr"/>
       <c r="E2213" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2213" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2213" t="inlineStr"/>
+      <c r="G2213" t="inlineStr"/>
       <c r="H2213" t="inlineStr">
         <is>
           <t>3</t>
@@ -71536,31 +71072,27 @@
     <row r="2214">
       <c r="A2214" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2214" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2214" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2214" t="inlineStr"/>
       <c r="E2214" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2214" t="inlineStr"/>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2214" t="inlineStr"/>
       <c r="H2214" t="inlineStr">
         <is>
           <t>3</t>
@@ -71570,31 +71102,27 @@
     <row r="2215">
       <c r="A2215" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2215" t="inlineStr"/>
       <c r="E2215" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2215" t="inlineStr"/>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2215" t="inlineStr"/>
       <c r="H2215" t="inlineStr">
         <is>
           <t>3</t>
@@ -71604,171 +71132,147 @@
     <row r="2216">
       <c r="A2216" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2216" t="inlineStr"/>
       <c r="E2216" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2216" t="inlineStr"/>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2216" t="inlineStr"/>
       <c r="H2216" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2217" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2217" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2217" t="inlineStr"/>
       <c r="E2217" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2217" t="inlineStr"/>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2217" t="inlineStr"/>
       <c r="H2217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2218" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2218" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2218" t="inlineStr"/>
       <c r="E2218" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2218" t="inlineStr"/>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2218" t="inlineStr"/>
       <c r="H2218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2219">
       <c r="A2219" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2219" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2219" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2219" t="inlineStr"/>
       <c r="E2219" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2219" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2219" t="inlineStr"/>
+      <c r="G2219" t="inlineStr"/>
       <c r="H2219" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2220" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2220" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2220" t="inlineStr"/>
       <c r="E2220" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2220" t="inlineStr"/>
       <c r="H2220" t="inlineStr">
         <is>
           <t>3</t>
@@ -71778,31 +71282,27 @@
     <row r="2221">
       <c r="A2221" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2221" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2221" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2221" t="inlineStr"/>
       <c r="E2221" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2221" t="inlineStr"/>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G2221" t="inlineStr"/>
       <c r="H2221" t="inlineStr">
         <is>
           <t>3</t>
@@ -71812,17 +71312,17 @@
     <row r="2222">
       <c r="A2222" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2222" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2222" t="inlineStr"/>
@@ -71832,11 +71332,7 @@
         </is>
       </c>
       <c r="F2222" t="inlineStr"/>
-      <c r="G2222" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2222" t="inlineStr"/>
       <c r="H2222" t="inlineStr">
         <is>
           <t>3</t>
@@ -71846,29 +71342,29 @@
     <row r="2223">
       <c r="A2223" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2223" t="inlineStr"/>
       <c r="E2223" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2223" t="inlineStr"/>
       <c r="G2223" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2223" t="inlineStr">
@@ -71880,23 +71376,23 @@
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2224" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2224" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2224" t="inlineStr"/>
       <c r="E2224" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2224" t="inlineStr"/>
@@ -71914,23 +71410,23 @@
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2225" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2225" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2225" t="inlineStr"/>
       <c r="E2225" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2225" t="inlineStr"/>
@@ -71948,27 +71444,31 @@
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2226" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2226" t="inlineStr"/>
       <c r="E2226" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2226" t="inlineStr"/>
-      <c r="G2226" t="inlineStr"/>
+      <c r="G2226" t="inlineStr">
+        <is>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
       <c r="H2226" t="inlineStr">
         <is>
           <t>3</t>
@@ -71978,159 +71478,151 @@
     <row r="2227">
       <c r="A2227" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2227" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2227" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2227" t="inlineStr"/>
       <c r="E2227" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2227" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>77.7%</t>
+        </is>
+      </c>
+      <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2228" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2228" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2228" t="inlineStr"/>
       <c r="E2228" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2229" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2229" t="inlineStr"/>
       <c r="E2229" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2229" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2229" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2229" t="inlineStr"/>
+      <c r="G2229" t="inlineStr"/>
       <c r="H2229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2230" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2230" t="inlineStr"/>
-      <c r="E2230" t="inlineStr"/>
+      <c r="E2230" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
       <c r="H2230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2231" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2231" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2231" t="inlineStr"/>
       <c r="E2231" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2231" t="inlineStr"/>
@@ -72144,27 +71636,31 @@
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2232" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2232" t="inlineStr"/>
       <c r="E2232" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2232" t="inlineStr"/>
-      <c r="G2232" t="inlineStr"/>
+      <c r="G2232" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2232" t="inlineStr">
         <is>
           <t>3</t>
@@ -72174,67 +71670,75 @@
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2233" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2233" t="inlineStr"/>
       <c r="E2233" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2233" t="inlineStr"/>
-      <c r="G2233" t="inlineStr"/>
+      <c r="G2233" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2234" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2234" t="inlineStr"/>
       <c r="E2234" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2234" t="inlineStr"/>
-      <c r="G2234" t="inlineStr"/>
+      <c r="G2234" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2234" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
@@ -72244,27 +71748,35 @@
       </c>
       <c r="C2235" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2235" t="inlineStr"/>
       <c r="E2235" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2235" t="inlineStr"/>
-      <c r="G2235" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2235" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2235" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2235" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
@@ -72274,27 +71786,35 @@
       </c>
       <c r="C2236" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2236" t="inlineStr"/>
       <c r="E2236" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2236" t="inlineStr"/>
-      <c r="G2236" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2236" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2236" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2237">
       <c r="A2237" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2237" t="inlineStr">
@@ -72304,17 +71824,21 @@
       </c>
       <c r="C2237" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2237" t="inlineStr"/>
       <c r="E2237" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2237" t="inlineStr"/>
-      <c r="G2237" t="inlineStr"/>
+      <c r="G2237" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2237" t="inlineStr">
         <is>
           <t>3</t>
@@ -72324,7 +71848,7 @@
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2238" t="inlineStr">
@@ -72334,17 +71858,25 @@
       </c>
       <c r="C2238" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2238" t="inlineStr"/>
       <c r="E2238" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2238" t="inlineStr"/>
-      <c r="G2238" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2238" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2238" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2238" t="inlineStr">
         <is>
           <t>3</t>
@@ -72354,381 +71886,417 @@
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2239" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2239" t="inlineStr"/>
       <c r="E2239" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2239" t="inlineStr"/>
-      <c r="G2239" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2239" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2239" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2239" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2240" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2240" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2240" t="inlineStr"/>
       <c r="E2240" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2240" t="inlineStr"/>
-      <c r="G2240" t="inlineStr"/>
+      <c r="G2240" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2241">
       <c r="A2241" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2241" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2241" t="inlineStr"/>
       <c r="E2241" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2241" t="inlineStr"/>
-      <c r="G2241" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2241" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2241" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2241" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2242" t="inlineStr"/>
       <c r="E2242" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2242" t="inlineStr"/>
-      <c r="G2242" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2242" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2242" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2242" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2243" t="inlineStr"/>
       <c r="E2243" t="inlineStr">
         <is>
-          <t>€4.9B</t>
-        </is>
-      </c>
-      <c r="F2243" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2243" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2243" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2243" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2244" t="inlineStr"/>
       <c r="E2244" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2244" t="inlineStr"/>
       <c r="G2244" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2244" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2245" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2245" t="inlineStr"/>
       <c r="E2245" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2246" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2246" t="inlineStr"/>
       <c r="E2246" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
-      <c r="F2246" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2246" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2246" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2247" t="inlineStr"/>
-      <c r="E2247" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>77.9%</t>
-        </is>
-      </c>
+      <c r="G2247" t="inlineStr"/>
       <c r="H2247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2248" t="inlineStr"/>
       <c r="E2248" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2248" t="inlineStr"/>
       <c r="G2248" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2248" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2249" t="inlineStr"/>
       <c r="E2249" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2249" t="inlineStr"/>
-      <c r="G2249" t="inlineStr"/>
+      <c r="G2249" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2250" t="inlineStr"/>
       <c r="E2250" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2250" t="inlineStr"/>
-      <c r="G2250" t="inlineStr"/>
+      <c r="G2250" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2250" t="inlineStr">
         <is>
           <t>3</t>
@@ -72738,59 +72306,67 @@
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2251" t="inlineStr"/>
       <c r="E2251" t="inlineStr">
         <is>
-          <t>$623.98B</t>
-        </is>
-      </c>
-      <c r="F2251" t="inlineStr"/>
-      <c r="G2251" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2251" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2251" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2251" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2252" t="inlineStr"/>
       <c r="E2252" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2252" t="inlineStr">
@@ -72802,173 +72378,157 @@
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2253" t="inlineStr"/>
       <c r="E2253" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2253" t="inlineStr"/>
       <c r="H2253" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2254" t="inlineStr"/>
-      <c r="G2254" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
+      <c r="G2254" t="inlineStr"/>
       <c r="H2254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2255" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2255" t="inlineStr"/>
       <c r="G2255" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2255" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2256" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2256" t="inlineStr"/>
       <c r="G2256" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2256" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2257" t="inlineStr"/>
       <c r="E2257" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2257" t="inlineStr">
@@ -72978,35 +72538,27 @@
       </c>
     </row>
     <row r="2258">
-      <c r="A2258" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A2258" t="inlineStr"/>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2258" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2258" t="inlineStr">
@@ -73016,219 +72568,163 @@
       </c>
     </row>
     <row r="2259">
-      <c r="A2259" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2259" t="inlineStr"/>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2259" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2259" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2260">
-      <c r="A2260" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2260" t="inlineStr"/>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2260" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2261">
-      <c r="A2261" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2261" t="inlineStr"/>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2261" t="inlineStr"/>
       <c r="E2261" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2261" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2261" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2262">
-      <c r="A2262" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2262" t="inlineStr"/>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2262" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2263" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2263" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr"/>
+      <c r="C2263" t="inlineStr"/>
       <c r="D2263" t="inlineStr"/>
-      <c r="E2263" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2263" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E2263" t="inlineStr"/>
+      <c r="F2263" t="inlineStr"/>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr"/>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2264" t="inlineStr"/>
       <c r="H2264" t="inlineStr">
         <is>
           <t>2</t>
@@ -73238,129 +72734,125 @@
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
       <c r="G2265" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2265" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
       <c r="E2266" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2266" t="inlineStr"/>
+      <c r="G2266" t="inlineStr">
+        <is>
           <t>0.8%</t>
         </is>
       </c>
-      <c r="F2266" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
       <c r="H2266" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
-      <c r="E2267" t="inlineStr"/>
+      <c r="E2267" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr"/>
+      <c r="G2267" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2267" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2268" t="inlineStr"/>
       <c r="H2268" t="inlineStr">
         <is>
           <t>2</t>
@@ -73370,29 +72862,29 @@
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2269" t="inlineStr">
@@ -73404,103 +72896,91 @@
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2270" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr"/>
+      <c r="G2271" t="inlineStr"/>
       <c r="H2271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
+      <c r="G2272" t="inlineStr"/>
       <c r="H2272" t="inlineStr">
         <is>
           <t>3</t>
@@ -73510,27 +72990,31 @@
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr"/>
+      <c r="G2273" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="H2273" t="inlineStr">
         <is>
           <t>3</t>
@@ -73540,37 +73024,45 @@
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H2274" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
@@ -73580,19 +73072,19 @@
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2275" t="inlineStr">
@@ -73604,93 +73096,101 @@
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2276" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2276" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2277" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2278">
-      <c r="A2278" t="inlineStr"/>
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2278" t="inlineStr">
@@ -73700,27 +73200,31 @@
       </c>
     </row>
     <row r="2279">
-      <c r="A2279" t="inlineStr"/>
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
       <c r="E2279" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2279" t="inlineStr">
@@ -73730,27 +73234,31 @@
       </c>
     </row>
     <row r="2280">
-      <c r="A2280" t="inlineStr"/>
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2280" t="inlineStr"/>
       <c r="G2280" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2280" t="inlineStr">
@@ -73760,57 +73268,49 @@
       </c>
     </row>
     <row r="2281">
-      <c r="A2281" t="inlineStr"/>
-      <c r="B2281" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2281" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr"/>
+      <c r="C2281" t="inlineStr"/>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
+      <c r="E2281" t="inlineStr"/>
       <c r="F2281" t="inlineStr"/>
-      <c r="G2281" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr"/>
     </row>
     <row r="2282">
-      <c r="A2282" t="inlineStr"/>
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2282" t="inlineStr">
@@ -73822,21 +73322,37 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2283" t="inlineStr"/>
-      <c r="C2283" t="inlineStr"/>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>2-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D2283" t="inlineStr"/>
-      <c r="E2283" t="inlineStr"/>
+      <c r="E2283" t="inlineStr">
+        <is>
+          <t>2.670%</t>
+        </is>
+      </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
-      <c r="H2283" t="inlineStr"/>
+      <c r="H2283" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
@@ -73846,271 +73362,251 @@
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
       <c r="G2284" t="inlineStr"/>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2286" t="inlineStr"/>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr"/>
+      <c r="E2288" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2289" t="inlineStr"/>
-      <c r="G2289" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2290" t="inlineStr"/>
-      <c r="G2290" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
-      <c r="E2292" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
+      <c r="E2292" t="inlineStr"/>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr"/>
       <c r="H2292" t="inlineStr">
@@ -74122,69 +73618,57 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -74194,29 +73678,33 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
@@ -74228,67 +73716,71 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2296" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
@@ -74300,29 +73792,29 @@
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2298" t="inlineStr">
@@ -74334,143 +73826,143 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
-      <c r="E2300" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2300" t="inlineStr"/>
       <c r="F2300" t="inlineStr"/>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr"/>
-      <c r="C2301" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoY FlashJAN</t>
+        </is>
+      </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr"/>
+      <c r="E2301" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
-      <c r="H2301" t="inlineStr"/>
+      <c r="H2301" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
-      <c r="E2302" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2302" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2302" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="E2302" t="inlineStr"/>
+      <c r="F2302" t="inlineStr"/>
+      <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -74484,53 +73976,53 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
@@ -74544,87 +74036,91 @@
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr"/>
+      <c r="G2308" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74634,27 +74130,31 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr"/>
+      <c r="G2309" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74664,27 +74164,31 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr"/>
+      <c r="G2310" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74694,25 +74198,21 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2311" t="inlineStr"/>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
@@ -74724,17 +74224,17 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74750,95 +74250,79 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
-      <c r="E2313" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2313" t="inlineStr"/>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
-      <c r="E2314" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2314" t="inlineStr"/>
       <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2315" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
           <t>2</t>
@@ -74848,33 +74332,33 @@
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
@@ -74886,127 +74370,111 @@
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2317" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr"/>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2319" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2319" t="inlineStr"/>
       <c r="G2319" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
@@ -75015,54 +74483,50 @@
       <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2321" t="inlineStr"/>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr"/>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
@@ -75071,32 +74535,28 @@
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
@@ -75108,83 +74568,79 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
@@ -75198,23 +74654,23 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
@@ -75226,31 +74682,27 @@
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2328" t="inlineStr"/>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr">
         <is>
-          <t>$ 230B</t>
+          <t>43.0K</t>
         </is>
       </c>
       <c r="H2328" t="inlineStr">
@@ -75262,41 +74714,21 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2329" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr"/>
+      <c r="C2329" t="inlineStr"/>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr"/>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
@@ -75306,21 +74738,13 @@
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
           <t>3</t>
@@ -75330,17 +74754,17 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
@@ -75349,28 +74773,32 @@
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr"/>
       <c r="H2332" t="inlineStr">
@@ -75382,7 +74810,7 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
@@ -75392,11 +74820,15 @@
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr"/>
       <c r="H2333" t="inlineStr">
@@ -75408,21 +74840,25 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
@@ -75434,65 +74870,49 @@
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2335" t="inlineStr"/>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr"/>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2336" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2336" t="inlineStr"/>
+      <c r="F2336" t="inlineStr"/>
+      <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
           <t>2</t>
@@ -75500,57 +74920,41 @@
       </c>
     </row>
     <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2337" t="inlineStr"/>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="E2337" t="inlineStr"/>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr"/>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
-      <c r="A2338" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2338" t="inlineStr"/>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2338" t="inlineStr"/>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr"/>
       <c r="H2338" t="inlineStr">
@@ -75560,45 +74964,29 @@
       </c>
     </row>
     <row r="2339">
-      <c r="A2339" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2339" t="inlineStr"/>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2340" t="inlineStr"/>
       <c r="B2340" t="inlineStr">
         <is>
           <t>US</t>
@@ -75606,488 +74994,20 @@
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
+      <c r="E2340" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2340" t="inlineStr"/>
       <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2341" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2341" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
-      <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
-      <c r="H2341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2342" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2342" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr"/>
-      <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr"/>
-      <c r="H2342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr"/>
-      <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr"/>
-      <c r="H2343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr"/>
-      <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr"/>
-      <c r="H2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2345" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
-      <c r="H2345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>10-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>11:15 PM</t>
-        </is>
-      </c>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
-      <c r="H2347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr"/>
-      <c r="B2348" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2348" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2349">
-      <c r="A2349" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2349" t="inlineStr"/>
-      <c r="C2349" t="inlineStr"/>
-      <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
-      <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
-      <c r="H2349" t="inlineStr"/>
-    </row>
-    <row r="2350">
-      <c r="A2350" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2350" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2350" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr"/>
-      <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
-      <c r="H2350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2351">
-      <c r="A2351" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2351" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2351" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr"/>
-      <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
-      <c r="H2351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2352">
-      <c r="A2352" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2352" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2352" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2352" t="inlineStr"/>
-      <c r="G2352" t="inlineStr"/>
-      <c r="H2352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2353">
-      <c r="A2353" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B2353" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2353" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr"/>
-      <c r="G2353" t="inlineStr"/>
-      <c r="H2353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2354">
-      <c r="A2354" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2354" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2354" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr"/>
-      <c r="H2354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2355">
-      <c r="A2355" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2355" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2355" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr"/>
-      <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr"/>
-      <c r="H2355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2356">
-      <c r="A2356" t="inlineStr"/>
-      <c r="B2356" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2356" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr"/>
-      <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr"/>
-      <c r="H2356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2357">
-      <c r="A2357" t="inlineStr"/>
-      <c r="B2357" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2357" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr"/>
-      <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr"/>
-      <c r="H2357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2358">
-      <c r="A2358" t="inlineStr"/>
-      <c r="B2358" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2358" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr"/>
-      <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr"/>
-      <c r="H2358" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2340"/>
+  <dimension ref="A1:H2321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70837,10 +70837,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -70875,10 +70873,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -70909,10 +70905,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70947,10 +70941,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2210">
@@ -70973,10 +70965,8 @@
       <c r="E2210" t="inlineStr"/>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2211">
@@ -71003,10 +70993,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71033,10 +71021,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71063,10 +71049,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71093,10 +71077,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71123,10 +71105,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71153,10 +71133,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71183,10 +71161,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71213,10 +71189,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71243,10 +71217,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71273,10 +71245,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71303,10 +71273,8 @@
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71333,10 +71301,8 @@
       </c>
       <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr"/>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71367,10 +71333,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71401,10 +71365,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71435,10 +71397,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71469,10 +71429,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71503,10 +71461,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71537,10 +71493,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71567,10 +71521,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71597,10 +71549,8 @@
       </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71627,10 +71577,8 @@
       </c>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr"/>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -71661,10 +71609,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -71695,10 +71641,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -71729,10 +71673,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71767,10 +71709,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2236">
@@ -71805,10 +71745,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -71839,10 +71777,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -71877,10 +71813,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -71915,10 +71849,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
@@ -71949,10 +71881,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -71987,10 +71917,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72025,10 +71953,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -72063,10 +71989,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2244">
@@ -72097,10 +72021,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72131,10 +72053,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72169,10 +72089,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72195,10 +72113,8 @@
       <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
       <c r="G2247" t="inlineStr"/>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72229,10 +72145,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -72263,10 +72177,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72297,10 +72209,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72335,10 +72245,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2252">
@@ -72369,10 +72277,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72399,10 +72305,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -72429,10 +72333,8 @@
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr"/>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72463,10 +72365,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -72497,10 +72397,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72531,10 +72429,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72561,10 +72457,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72591,10 +72485,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72621,10 +72513,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72651,10 +72541,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -72681,10 +72569,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -72725,10 +72611,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2265">
@@ -72759,10 +72643,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72793,10 +72675,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -72827,10 +72707,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -72853,10 +72731,8 @@
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72887,10 +72763,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -72921,10 +72795,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -72951,10 +72823,8 @@
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -72981,10 +72851,8 @@
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73015,10 +72883,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -73053,10 +72919,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2275">
@@ -73087,10 +72951,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73125,10 +72987,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2277">
@@ -73159,10 +73019,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2278">
@@ -73193,10 +73051,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -73227,10 +73083,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -73261,114 +73115,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr"/>
-      <c r="C2281" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr"/>
+      <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
@@ -73382,117 +73242,129 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2288" t="inlineStr">
         <is>
           <t>3</t>
@@ -73502,55 +73374,47 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -73562,47 +73426,43 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
-      <c r="E2291" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2291" t="inlineStr"/>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
@@ -73618,23 +73478,23 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
@@ -73648,27 +73508,35 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73678,73 +73546,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr"/>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>2</t>
@@ -73754,69 +73606,57 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -73826,55 +73666,43 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
+      <c r="F2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73883,54 +73711,50 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
@@ -73939,30 +73763,30 @@
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -73976,87 +73800,87 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2306" t="inlineStr"/>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74066,61 +73890,37 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr"/>
+      <c r="C2307" t="inlineStr"/>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2307" t="inlineStr"/>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74130,31 +73930,23 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74164,31 +73956,27 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74198,47 +73986,55 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr"/>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
@@ -74250,17 +74046,17 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
@@ -74276,17 +74072,17 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
@@ -74295,130 +74091,122 @@
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
-      <c r="A2318" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2318" t="inlineStr"/>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
-      <c r="E2318" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
@@ -74428,53 +74216,37 @@
       </c>
     </row>
     <row r="2319">
-      <c r="A2319" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2319" t="inlineStr"/>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E2319" t="inlineStr"/>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2320">
-      <c r="A2320" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2320" t="inlineStr"/>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
@@ -74483,16 +74255,12 @@
       <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2321">
-      <c r="A2321" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2321" t="inlineStr"/>
       <c r="B2321" t="inlineStr">
         <is>
           <t>US</t>
@@ -74500,512 +74268,18 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr"/>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr"/>
       <c r="H2321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2322">
-      <c r="A2322" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2322" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2322" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
-      <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
-      <c r="H2322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2323">
-      <c r="A2323" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2323" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2323" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr"/>
-      <c r="F2323" t="inlineStr"/>
-      <c r="G2323" t="inlineStr"/>
-      <c r="H2323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2324">
-      <c r="A2324" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2324" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2324" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
-      <c r="F2324" t="inlineStr"/>
-      <c r="G2324" t="inlineStr"/>
-      <c r="H2324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2325">
-      <c r="A2325" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2325" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2325" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr"/>
-      <c r="H2325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2326">
-      <c r="A2326" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B2326" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2326" t="inlineStr">
-        <is>
-          <t>10-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
-      <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr"/>
-      <c r="H2326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2327">
-      <c r="A2327" t="inlineStr">
-        <is>
-          <t>11:15 PM</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2327" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2327" t="inlineStr"/>
-      <c r="G2327" t="inlineStr"/>
-      <c r="H2327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2328">
-      <c r="A2328" t="inlineStr"/>
-      <c r="B2328" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2328" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2329">
-      <c r="A2329" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr"/>
-      <c r="C2329" t="inlineStr"/>
-      <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
-      <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr"/>
-    </row>
-    <row r="2330">
-      <c r="A2330" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2330" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2330" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
-      <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
-      <c r="H2330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2331">
-      <c r="A2331" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2331" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2331" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr"/>
-      <c r="F2331" t="inlineStr"/>
-      <c r="G2331" t="inlineStr"/>
-      <c r="H2331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2332" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2332" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
-      <c r="H2332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B2333" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2333" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
-      <c r="H2333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2334" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2334" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
-      <c r="H2334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2335" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2335" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr"/>
-      <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
-      <c r="H2335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2336" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2336" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
-      <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr"/>
-      <c r="H2336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2337">
-      <c r="A2337" t="inlineStr"/>
-      <c r="B2337" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2337" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr"/>
-      <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
-      <c r="H2337" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" t="inlineStr"/>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2338" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr"/>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
-      <c r="H2338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" t="inlineStr"/>
-      <c r="B2339" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2339" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
-      <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
-      <c r="H2339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr"/>
-      <c r="B2340" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2340" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
-      <c r="H2340" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2361"/>
+  <dimension ref="A1:H2342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63805,10 +63805,8 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H1979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1980">
@@ -63835,10 +63833,8 @@
       </c>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr"/>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1981">
@@ -63865,10 +63861,8 @@
       </c>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr"/>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1982">
@@ -63895,10 +63889,8 @@
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr"/>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1983">
@@ -63929,10 +63921,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1984">
@@ -63963,10 +63953,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1985">
@@ -64001,10 +63989,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1985" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1986">
@@ -64039,10 +64025,8 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1987">
@@ -64077,10 +64061,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1988">
@@ -64107,10 +64089,8 @@
       </c>
       <c r="F1988" t="inlineStr"/>
       <c r="G1988" t="inlineStr"/>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -64137,10 +64117,8 @@
       </c>
       <c r="F1989" t="inlineStr"/>
       <c r="G1989" t="inlineStr"/>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1990">
@@ -64171,10 +64149,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1991">
@@ -64205,10 +64181,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1991" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1992">
@@ -64239,10 +64213,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1993">
@@ -64273,10 +64245,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1994">
@@ -64307,10 +64277,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1994" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1995">
@@ -64341,10 +64309,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1996">
@@ -64375,10 +64341,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1997">
@@ -64405,10 +64369,8 @@
       </c>
       <c r="F1997" t="inlineStr"/>
       <c r="G1997" t="inlineStr"/>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1998">
@@ -64435,10 +64397,8 @@
       </c>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr"/>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1999">
@@ -64465,10 +64425,8 @@
       </c>
       <c r="F1999" t="inlineStr"/>
       <c r="G1999" t="inlineStr"/>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2000">
@@ -64503,10 +64461,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2000" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2001">
@@ -64537,10 +64493,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2002">
@@ -64571,10 +64525,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2003">
@@ -64597,10 +64549,8 @@
       <c r="E2003" t="inlineStr"/>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr"/>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2003" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2004">
@@ -64627,10 +64577,8 @@
       </c>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr"/>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2005">
@@ -64657,10 +64605,8 @@
       </c>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr"/>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2006">
@@ -64687,10 +64633,8 @@
       </c>
       <c r="F2006" t="inlineStr"/>
       <c r="G2006" t="inlineStr"/>
-      <c r="H2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2007">
@@ -64717,10 +64661,8 @@
       </c>
       <c r="F2007" t="inlineStr"/>
       <c r="G2007" t="inlineStr"/>
-      <c r="H2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2008">
@@ -64751,10 +64693,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2008" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2009">
@@ -64785,10 +64725,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2009" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2010">
@@ -64815,10 +64753,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2010" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2011">
@@ -64837,10 +64773,8 @@
       <c r="E2011" t="inlineStr"/>
       <c r="F2011" t="inlineStr"/>
       <c r="G2011" t="inlineStr"/>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2011" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2012">
@@ -64871,10 +64805,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2012" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2013">
@@ -64905,10 +64837,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2013" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2014">
@@ -64935,10 +64865,8 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2014" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2015">
@@ -64979,10 +64907,8 @@
       </c>
       <c r="F2016" t="inlineStr"/>
       <c r="G2016" t="inlineStr"/>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2017">
@@ -65013,10 +64939,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2018">
@@ -65047,10 +64971,8 @@
           <t>-4.1%</t>
         </is>
       </c>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2019">
@@ -65081,10 +65003,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2020">
@@ -65115,10 +65035,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2021">
@@ -65153,10 +65071,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2021" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2022">
@@ -65191,10 +65107,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2022" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2023">
@@ -65221,10 +65135,8 @@
       </c>
       <c r="F2023" t="inlineStr"/>
       <c r="G2023" t="inlineStr"/>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2024">
@@ -65251,10 +65163,8 @@
       </c>
       <c r="F2024" t="inlineStr"/>
       <c r="G2024" t="inlineStr"/>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2025">
@@ -65281,10 +65191,8 @@
       </c>
       <c r="F2025" t="inlineStr"/>
       <c r="G2025" t="inlineStr"/>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2026">
@@ -65311,10 +65219,8 @@
       </c>
       <c r="F2026" t="inlineStr"/>
       <c r="G2026" t="inlineStr"/>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2027">
@@ -65341,10 +65247,8 @@
       </c>
       <c r="F2027" t="inlineStr"/>
       <c r="G2027" t="inlineStr"/>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2028">
@@ -65379,10 +65283,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2028" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2029">
@@ -65417,10 +65319,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2030">
@@ -65451,10 +65351,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2031">
@@ -65485,10 +65383,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2032">
@@ -65515,10 +65411,8 @@
       </c>
       <c r="F2032" t="inlineStr"/>
       <c r="G2032" t="inlineStr"/>
-      <c r="H2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2033">
@@ -65553,10 +65447,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2034">
@@ -65587,10 +65479,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2035">
@@ -65625,10 +65515,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2036">
@@ -65659,10 +65547,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2036" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2037">
@@ -65693,10 +65579,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2038">
@@ -65719,10 +65603,8 @@
       <c r="E2038" t="inlineStr"/>
       <c r="F2038" t="inlineStr"/>
       <c r="G2038" t="inlineStr"/>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2039">
@@ -65757,10 +65639,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2040">
@@ -65795,10 +65675,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2041">
@@ -65829,10 +65707,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2042">
@@ -65863,10 +65739,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2043">
@@ -65897,10 +65771,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2044">
@@ -65931,10 +65803,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2045">
@@ -65961,10 +65831,8 @@
       </c>
       <c r="F2045" t="inlineStr"/>
       <c r="G2045" t="inlineStr"/>
-      <c r="H2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2046">
@@ -65991,10 +65859,8 @@
       </c>
       <c r="F2046" t="inlineStr"/>
       <c r="G2046" t="inlineStr"/>
-      <c r="H2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2047">
@@ -66017,10 +65883,8 @@
       <c r="E2047" t="inlineStr"/>
       <c r="F2047" t="inlineStr"/>
       <c r="G2047" t="inlineStr"/>
-      <c r="H2047" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2047" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2048">
@@ -66047,10 +65911,8 @@
       </c>
       <c r="F2048" t="inlineStr"/>
       <c r="G2048" t="inlineStr"/>
-      <c r="H2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2049">
@@ -66077,10 +65939,8 @@
       </c>
       <c r="F2049" t="inlineStr"/>
       <c r="G2049" t="inlineStr"/>
-      <c r="H2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2050">
@@ -66107,10 +65967,8 @@
       </c>
       <c r="F2050" t="inlineStr"/>
       <c r="G2050" t="inlineStr"/>
-      <c r="H2050" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2050" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2051">
@@ -66133,10 +65991,8 @@
       <c r="E2051" t="inlineStr"/>
       <c r="F2051" t="inlineStr"/>
       <c r="G2051" t="inlineStr"/>
-      <c r="H2051" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2051" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2052">
@@ -66171,10 +66027,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2052" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2052" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2053">
@@ -66209,10 +66063,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2054">
@@ -66247,10 +66099,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2054" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2055">
@@ -66285,10 +66135,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2056">
@@ -66323,10 +66171,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2057">
@@ -66357,10 +66203,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2058">
@@ -66395,10 +66239,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2059">
@@ -66433,10 +66275,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2060">
@@ -66463,10 +66303,8 @@
       </c>
       <c r="F2060" t="inlineStr"/>
       <c r="G2060" t="inlineStr"/>
-      <c r="H2060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2061">
@@ -66515,10 +66353,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2063">
@@ -66553,10 +66389,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2064">
@@ -66591,10 +66425,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2064" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2064" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2065">
@@ -66625,10 +66457,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2065" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2065" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2066">
@@ -66659,10 +66489,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2067">
@@ -66697,10 +66525,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2068">
@@ -66735,10 +66561,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2069">
@@ -66769,10 +66593,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2069" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2070">
@@ -66803,10 +66625,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2071">
@@ -66833,10 +66653,8 @@
       </c>
       <c r="F2071" t="inlineStr"/>
       <c r="G2071" t="inlineStr"/>
-      <c r="H2071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2072">
@@ -66863,10 +66681,8 @@
       </c>
       <c r="F2072" t="inlineStr"/>
       <c r="G2072" t="inlineStr"/>
-      <c r="H2072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2073">
@@ -66893,10 +66709,8 @@
       </c>
       <c r="F2073" t="inlineStr"/>
       <c r="G2073" t="inlineStr"/>
-      <c r="H2073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2074">
@@ -66927,10 +66741,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2075">
@@ -66957,10 +66769,8 @@
       </c>
       <c r="F2075" t="inlineStr"/>
       <c r="G2075" t="inlineStr"/>
-      <c r="H2075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2076">
@@ -66987,10 +66797,8 @@
       </c>
       <c r="F2076" t="inlineStr"/>
       <c r="G2076" t="inlineStr"/>
-      <c r="H2076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2077">
@@ -67017,10 +66825,8 @@
       </c>
       <c r="F2077" t="inlineStr"/>
       <c r="G2077" t="inlineStr"/>
-      <c r="H2077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2078">
@@ -67047,10 +66853,8 @@
       </c>
       <c r="F2078" t="inlineStr"/>
       <c r="G2078" t="inlineStr"/>
-      <c r="H2078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2079">
@@ -67077,10 +66881,8 @@
       </c>
       <c r="F2079" t="inlineStr"/>
       <c r="G2079" t="inlineStr"/>
-      <c r="H2079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2080">
@@ -67115,10 +66917,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2080" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2081">
@@ -67149,10 +66949,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2082">
@@ -67187,10 +66985,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2083">
@@ -67225,10 +67021,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2083" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2083" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2084">
@@ -67251,10 +67045,8 @@
       <c r="E2084" t="inlineStr"/>
       <c r="F2084" t="inlineStr"/>
       <c r="G2084" t="inlineStr"/>
-      <c r="H2084" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2084" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2085">
@@ -67277,10 +67069,8 @@
       <c r="E2085" t="inlineStr"/>
       <c r="F2085" t="inlineStr"/>
       <c r="G2085" t="inlineStr"/>
-      <c r="H2085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2086">
@@ -67307,10 +67097,8 @@
       </c>
       <c r="F2086" t="inlineStr"/>
       <c r="G2086" t="inlineStr"/>
-      <c r="H2086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2087">
@@ -67337,10 +67125,8 @@
       </c>
       <c r="F2087" t="inlineStr"/>
       <c r="G2087" t="inlineStr"/>
-      <c r="H2087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2088">
@@ -67367,10 +67153,8 @@
       </c>
       <c r="F2088" t="inlineStr"/>
       <c r="G2088" t="inlineStr"/>
-      <c r="H2088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2089">
@@ -67397,10 +67181,8 @@
       </c>
       <c r="F2089" t="inlineStr"/>
       <c r="G2089" t="inlineStr"/>
-      <c r="H2089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2090">
@@ -67427,10 +67209,8 @@
       </c>
       <c r="F2090" t="inlineStr"/>
       <c r="G2090" t="inlineStr"/>
-      <c r="H2090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2091">
@@ -67457,10 +67237,8 @@
       </c>
       <c r="F2091" t="inlineStr"/>
       <c r="G2091" t="inlineStr"/>
-      <c r="H2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -67487,10 +67265,8 @@
       </c>
       <c r="F2092" t="inlineStr"/>
       <c r="G2092" t="inlineStr"/>
-      <c r="H2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -67517,10 +67293,8 @@
       </c>
       <c r="F2093" t="inlineStr"/>
       <c r="G2093" t="inlineStr"/>
-      <c r="H2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -67547,10 +67321,8 @@
       </c>
       <c r="F2094" t="inlineStr"/>
       <c r="G2094" t="inlineStr"/>
-      <c r="H2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -67581,10 +67353,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -67615,10 +67385,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2097">
@@ -67645,10 +67413,8 @@
       </c>
       <c r="F2097" t="inlineStr"/>
       <c r="G2097" t="inlineStr"/>
-      <c r="H2097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2098">
@@ -67683,10 +67449,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2098" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2098" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2099">
@@ -67709,10 +67473,8 @@
       <c r="E2099" t="inlineStr"/>
       <c r="F2099" t="inlineStr"/>
       <c r="G2099" t="inlineStr"/>
-      <c r="H2099" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2099" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2100">
@@ -67743,10 +67505,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2101">
@@ -67773,10 +67533,8 @@
       </c>
       <c r="F2101" t="inlineStr"/>
       <c r="G2101" t="inlineStr"/>
-      <c r="H2101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2102">
@@ -67803,10 +67561,8 @@
       </c>
       <c r="F2102" t="inlineStr"/>
       <c r="G2102" t="inlineStr"/>
-      <c r="H2102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2103">
@@ -67837,10 +67593,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2104">
@@ -67863,10 +67617,8 @@
       <c r="E2104" t="inlineStr"/>
       <c r="F2104" t="inlineStr"/>
       <c r="G2104" t="inlineStr"/>
-      <c r="H2104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2104" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2105">
@@ -67897,10 +67649,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -67935,10 +67685,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2107">
@@ -67961,10 +67709,8 @@
       <c r="E2107" t="inlineStr"/>
       <c r="F2107" t="inlineStr"/>
       <c r="G2107" t="inlineStr"/>
-      <c r="H2107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2107" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2108">
@@ -68009,10 +67755,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2109" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2110">
@@ -68039,10 +67783,8 @@
       </c>
       <c r="F2110" t="inlineStr"/>
       <c r="G2110" t="inlineStr"/>
-      <c r="H2110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2111">
@@ -68073,10 +67815,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2112">
@@ -68099,10 +67839,8 @@
       <c r="E2112" t="inlineStr"/>
       <c r="F2112" t="inlineStr"/>
       <c r="G2112" t="inlineStr"/>
-      <c r="H2112" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2112" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2113">
@@ -68137,10 +67875,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2114">
@@ -68171,10 +67907,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2115">
@@ -68209,10 +67943,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2116">
@@ -68247,10 +67979,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -68281,10 +68011,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -68315,10 +68043,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -68349,10 +68075,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2120">
@@ -68387,10 +68111,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2121">
@@ -68421,10 +68143,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2122">
@@ -68455,10 +68175,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
@@ -68489,10 +68207,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -68527,10 +68243,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2125">
@@ -68565,10 +68279,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2126">
@@ -68603,10 +68315,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2127">
@@ -68637,10 +68347,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2128">
@@ -68671,10 +68379,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2129">
@@ -68705,10 +68411,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2130">
@@ -68739,10 +68443,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2130" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2130" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2131">
@@ -68777,10 +68479,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2131" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2131" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2132">
@@ -68811,10 +68511,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2133">
@@ -68849,10 +68547,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2134">
@@ -68887,10 +68583,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2135">
@@ -68925,10 +68619,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2135" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2136">
@@ -68963,10 +68655,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2137">
@@ -68997,10 +68687,8 @@
         </is>
       </c>
       <c r="G2137" t="inlineStr"/>
-      <c r="H2137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2137" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2138">
@@ -69035,10 +68723,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2138" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2139">
@@ -69073,10 +68759,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2139" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2140">
@@ -69107,10 +68791,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2141">
@@ -69141,10 +68823,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2141" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2142">
@@ -69175,10 +68855,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2143">
@@ -69209,10 +68887,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2144">
@@ -69247,10 +68923,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2144" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2145">
@@ -69273,10 +68947,8 @@
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
       <c r="G2145" t="inlineStr"/>
-      <c r="H2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2146">
@@ -69307,10 +68979,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2147">
@@ -69341,10 +69011,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2148">
@@ -69375,10 +69043,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2149">
@@ -69401,10 +69067,8 @@
       <c r="E2149" t="inlineStr"/>
       <c r="F2149" t="inlineStr"/>
       <c r="G2149" t="inlineStr"/>
-      <c r="H2149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2149" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2150">
@@ -69431,10 +69095,8 @@
       </c>
       <c r="F2150" t="inlineStr"/>
       <c r="G2150" t="inlineStr"/>
-      <c r="H2150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2150" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2151">
@@ -69465,10 +69127,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2151" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2152">
@@ -69499,10 +69159,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2152" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2152" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2153">
@@ -69533,10 +69191,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2153" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2154">
@@ -69567,10 +69223,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2154" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2155">
@@ -69605,10 +69259,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2155" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2156">
@@ -69639,10 +69291,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2156" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2157">
@@ -69677,10 +69327,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2157" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2158">
@@ -69715,10 +69363,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2158" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2159">
@@ -69749,10 +69395,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2159" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2160">
@@ -69783,10 +69427,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2160" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2161">
@@ -69821,10 +69463,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2161" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2162">
@@ -69859,10 +69499,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2162" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2163">
@@ -69897,10 +69535,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2163" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2164">
@@ -69931,10 +69567,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2164" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2165">
@@ -69965,10 +69599,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2165" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2166">
@@ -69999,10 +69631,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2166" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2167">
@@ -70033,10 +69663,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2167" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2168">
@@ -70067,10 +69695,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2169">
@@ -70101,10 +69727,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2170">
@@ -70127,10 +69751,8 @@
       <c r="E2170" t="inlineStr"/>
       <c r="F2170" t="inlineStr"/>
       <c r="G2170" t="inlineStr"/>
-      <c r="H2170" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2170" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2171">
@@ -70165,10 +69787,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2172">
@@ -70199,10 +69819,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2173">
@@ -70229,10 +69847,8 @@
       </c>
       <c r="F2173" t="inlineStr"/>
       <c r="G2173" t="inlineStr"/>
-      <c r="H2173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2174">
@@ -70259,10 +69875,8 @@
       </c>
       <c r="F2174" t="inlineStr"/>
       <c r="G2174" t="inlineStr"/>
-      <c r="H2174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2175">
@@ -70289,10 +69903,8 @@
       </c>
       <c r="F2175" t="inlineStr"/>
       <c r="G2175" t="inlineStr"/>
-      <c r="H2175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2176">
@@ -70319,10 +69931,8 @@
       </c>
       <c r="F2176" t="inlineStr"/>
       <c r="G2176" t="inlineStr"/>
-      <c r="H2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2177">
@@ -70349,10 +69959,8 @@
       </c>
       <c r="F2177" t="inlineStr"/>
       <c r="G2177" t="inlineStr"/>
-      <c r="H2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2178">
@@ -70379,10 +69987,8 @@
       </c>
       <c r="F2178" t="inlineStr"/>
       <c r="G2178" t="inlineStr"/>
-      <c r="H2178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2179">
@@ -70417,10 +70023,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H2179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2180">
@@ -70455,10 +70059,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2181">
@@ -70493,10 +70095,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2182">
@@ -70527,10 +70127,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2183">
@@ -70561,10 +70159,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2184">
@@ -70599,10 +70195,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2185">
@@ -70637,10 +70231,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2186">
@@ -70671,10 +70263,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2187">
@@ -70705,10 +70295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2188">
@@ -70739,10 +70327,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2189">
@@ -70777,10 +70363,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2190">
@@ -70811,10 +70395,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2191">
@@ -70845,10 +70427,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -70879,10 +70459,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2193">
@@ -70913,10 +70491,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2194">
@@ -70943,10 +70519,8 @@
       </c>
       <c r="F2194" t="inlineStr"/>
       <c r="G2194" t="inlineStr"/>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2195">
@@ -70973,10 +70547,8 @@
       </c>
       <c r="F2195" t="inlineStr"/>
       <c r="G2195" t="inlineStr"/>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2196">
@@ -71003,10 +70575,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2197">
@@ -71033,10 +70603,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2198">
@@ -71063,10 +70631,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2199">
@@ -71089,10 +70655,8 @@
       </c>
       <c r="F2199" t="inlineStr"/>
       <c r="G2199" t="inlineStr"/>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2200">
@@ -71115,10 +70679,8 @@
       </c>
       <c r="F2200" t="inlineStr"/>
       <c r="G2200" t="inlineStr"/>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2201">
@@ -71145,10 +70707,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2202">
@@ -71175,10 +70735,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2203">
@@ -71205,164 +70763,170 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
       <c r="A2204" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2204" t="inlineStr"/>
-      <c r="C2204" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>Tourist Arrivals YoYDEC</t>
+        </is>
+      </c>
       <c r="D2204" t="inlineStr"/>
-      <c r="E2204" t="inlineStr"/>
+      <c r="E2204" t="inlineStr">
+        <is>
+          <t>8.25%</t>
+        </is>
+      </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr"/>
+      <c r="H2204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2205">
       <c r="A2205" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2205" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2205" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2205" t="inlineStr"/>
       <c r="E2205" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2205" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="G2205" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H2205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2206" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2206" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2206" t="inlineStr"/>
       <c r="E2206" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2207" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2207" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2207" t="inlineStr"/>
       <c r="E2207" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F2207" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2207" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G2207" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2208" t="inlineStr"/>
-      <c r="E2208" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2208" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2208" t="inlineStr"/>
+      <c r="F2208" t="inlineStr"/>
+      <c r="G2208" t="inlineStr"/>
       <c r="H2208" t="inlineStr">
         <is>
           <t>2</t>
@@ -71372,7 +70936,7 @@
     <row r="2209">
       <c r="A2209" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2209" t="inlineStr">
@@ -71382,93 +70946,77 @@
       </c>
       <c r="C2209" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2209" t="inlineStr"/>
       <c r="E2209" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2209" t="inlineStr"/>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2209" t="inlineStr"/>
       <c r="H2209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2210" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2210" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2210" t="inlineStr"/>
       <c r="E2210" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2210" t="inlineStr"/>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2210" t="inlineStr"/>
       <c r="H2210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2211">
       <c r="A2211" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2211" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2211" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2211" t="inlineStr"/>
       <c r="E2211" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2211" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2211" t="inlineStr"/>
+      <c r="G2211" t="inlineStr"/>
       <c r="H2211" t="inlineStr">
         <is>
           <t>3</t>
@@ -71478,31 +71026,27 @@
     <row r="2212">
       <c r="A2212" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2212" t="inlineStr"/>
       <c r="E2212" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2212" t="inlineStr"/>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2212" t="inlineStr"/>
       <c r="H2212" t="inlineStr">
         <is>
           <t>3</t>
@@ -71512,31 +71056,27 @@
     <row r="2213">
       <c r="A2213" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2213" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2213" t="inlineStr"/>
       <c r="E2213" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2213" t="inlineStr"/>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2213" t="inlineStr"/>
       <c r="H2213" t="inlineStr">
         <is>
           <t>3</t>
@@ -71546,171 +71086,147 @@
     <row r="2214">
       <c r="A2214" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2214" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2214" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2214" t="inlineStr"/>
       <c r="E2214" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2214" t="inlineStr"/>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2214" t="inlineStr"/>
       <c r="H2214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2215">
       <c r="A2215" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2215" t="inlineStr"/>
       <c r="E2215" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2215" t="inlineStr"/>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2215" t="inlineStr"/>
       <c r="H2215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2216">
       <c r="A2216" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2216" t="inlineStr"/>
       <c r="E2216" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2216" t="inlineStr"/>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2216" t="inlineStr"/>
       <c r="H2216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2217" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2217" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2217" t="inlineStr"/>
       <c r="E2217" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2217" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2217" t="inlineStr"/>
+      <c r="G2217" t="inlineStr"/>
       <c r="H2217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2218" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2218" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2218" t="inlineStr"/>
       <c r="E2218" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2218" t="inlineStr"/>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2218" t="inlineStr"/>
       <c r="H2218" t="inlineStr">
         <is>
           <t>3</t>
@@ -71720,31 +71236,27 @@
     <row r="2219">
       <c r="A2219" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2219" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2219" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2219" t="inlineStr"/>
       <c r="E2219" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2219" t="inlineStr"/>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G2219" t="inlineStr"/>
       <c r="H2219" t="inlineStr">
         <is>
           <t>3</t>
@@ -71754,17 +71266,17 @@
     <row r="2220">
       <c r="A2220" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2220" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2220" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2220" t="inlineStr"/>
@@ -71774,11 +71286,7 @@
         </is>
       </c>
       <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2220" t="inlineStr"/>
       <c r="H2220" t="inlineStr">
         <is>
           <t>3</t>
@@ -71788,29 +71296,29 @@
     <row r="2221">
       <c r="A2221" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2221" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2221" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2221" t="inlineStr"/>
       <c r="E2221" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2221" t="inlineStr">
@@ -71822,23 +71330,23 @@
     <row r="2222">
       <c r="A2222" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2222" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2222" t="inlineStr"/>
       <c r="E2222" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2222" t="inlineStr"/>
@@ -71856,23 +71364,23 @@
     <row r="2223">
       <c r="A2223" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2223" t="inlineStr"/>
       <c r="E2223" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2223" t="inlineStr"/>
@@ -71890,27 +71398,31 @@
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2224" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2224" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2224" t="inlineStr"/>
       <c r="E2224" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2224" t="inlineStr"/>
-      <c r="G2224" t="inlineStr"/>
+      <c r="G2224" t="inlineStr">
+        <is>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
       <c r="H2224" t="inlineStr">
         <is>
           <t>3</t>
@@ -71920,159 +71432,151 @@
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2225" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2225" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2225" t="inlineStr"/>
       <c r="E2225" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2225" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>77.7%</t>
+        </is>
+      </c>
+      <c r="F2225" t="inlineStr"/>
       <c r="G2225" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2225" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2226" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2226" t="inlineStr"/>
       <c r="E2226" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2226" t="inlineStr"/>
       <c r="G2226" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2227">
       <c r="A2227" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2227" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2227" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2227" t="inlineStr"/>
       <c r="E2227" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2227" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2227" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2227" t="inlineStr"/>
+      <c r="G2227" t="inlineStr"/>
       <c r="H2227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2228" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2228" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2228" t="inlineStr"/>
-      <c r="E2228" t="inlineStr"/>
+      <c r="E2228" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr"/>
       <c r="H2228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2229" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2229" t="inlineStr"/>
       <c r="E2229" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2229" t="inlineStr"/>
@@ -72086,27 +71590,31 @@
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2230" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2230" t="inlineStr"/>
       <c r="E2230" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2230" t="inlineStr"/>
-      <c r="G2230" t="inlineStr"/>
+      <c r="G2230" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2230" t="inlineStr">
         <is>
           <t>3</t>
@@ -72116,67 +71624,75 @@
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2231" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2231" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2231" t="inlineStr"/>
       <c r="E2231" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2231" t="inlineStr"/>
-      <c r="G2231" t="inlineStr"/>
+      <c r="G2231" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2231" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2232" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2232" t="inlineStr"/>
       <c r="E2232" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2232" t="inlineStr"/>
-      <c r="G2232" t="inlineStr"/>
+      <c r="G2232" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2232" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
@@ -72186,27 +71702,35 @@
       </c>
       <c r="C2233" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2233" t="inlineStr"/>
       <c r="E2233" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2233" t="inlineStr"/>
-      <c r="G2233" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2233" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2233" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
@@ -72216,27 +71740,35 @@
       </c>
       <c r="C2234" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2234" t="inlineStr"/>
       <c r="E2234" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2234" t="inlineStr"/>
-      <c r="G2234" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2234" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2234" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2234" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
@@ -72246,17 +71778,21 @@
       </c>
       <c r="C2235" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2235" t="inlineStr"/>
       <c r="E2235" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2235" t="inlineStr"/>
-      <c r="G2235" t="inlineStr"/>
+      <c r="G2235" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2235" t="inlineStr">
         <is>
           <t>3</t>
@@ -72266,7 +71802,7 @@
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
@@ -72276,17 +71812,25 @@
       </c>
       <c r="C2236" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2236" t="inlineStr"/>
       <c r="E2236" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2236" t="inlineStr"/>
-      <c r="G2236" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2236" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2236" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2236" t="inlineStr">
         <is>
           <t>3</t>
@@ -72296,381 +71840,417 @@
     <row r="2237">
       <c r="A2237" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2237" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2237" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2237" t="inlineStr"/>
       <c r="E2237" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2237" t="inlineStr"/>
-      <c r="G2237" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2237" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2237" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2238" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2238" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2238" t="inlineStr"/>
       <c r="E2238" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2238" t="inlineStr"/>
-      <c r="G2238" t="inlineStr"/>
+      <c r="G2238" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2238" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2239" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2239" t="inlineStr"/>
       <c r="E2239" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2239" t="inlineStr"/>
-      <c r="G2239" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2239" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2239" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2239" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2240" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2240" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2240" t="inlineStr"/>
       <c r="E2240" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2240" t="inlineStr"/>
-      <c r="G2240" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2240" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2240" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2241">
       <c r="A2241" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2241" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2241" t="inlineStr"/>
       <c r="E2241" t="inlineStr">
         <is>
-          <t>€4.9B</t>
-        </is>
-      </c>
-      <c r="F2241" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2241" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2241" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2241" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2242" t="inlineStr"/>
       <c r="E2242" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2242" t="inlineStr"/>
       <c r="G2242" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2242" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2243" t="inlineStr"/>
       <c r="E2243" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2243" t="inlineStr"/>
       <c r="G2243" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2243" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2244" t="inlineStr"/>
       <c r="E2244" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
-      <c r="F2244" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2244" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2244" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2244" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2245" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2245" t="inlineStr"/>
-      <c r="E2245" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="E2245" t="inlineStr"/>
       <c r="F2245" t="inlineStr"/>
-      <c r="G2245" t="inlineStr">
-        <is>
-          <t>77.9%</t>
-        </is>
-      </c>
+      <c r="G2245" t="inlineStr"/>
       <c r="H2245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2246" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2246" t="inlineStr"/>
       <c r="E2246" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2246" t="inlineStr"/>
       <c r="G2246" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2247" t="inlineStr"/>
       <c r="E2247" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2247" t="inlineStr"/>
-      <c r="G2247" t="inlineStr"/>
+      <c r="G2247" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2248" t="inlineStr"/>
       <c r="E2248" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2248" t="inlineStr"/>
-      <c r="G2248" t="inlineStr"/>
+      <c r="G2248" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2248" t="inlineStr">
         <is>
           <t>3</t>
@@ -72680,59 +72260,67 @@
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2249" t="inlineStr"/>
       <c r="E2249" t="inlineStr">
         <is>
-          <t>$623.98B</t>
-        </is>
-      </c>
-      <c r="F2249" t="inlineStr"/>
-      <c r="G2249" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2249" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2249" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2250" t="inlineStr"/>
       <c r="E2250" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2250" t="inlineStr"/>
       <c r="G2250" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2250" t="inlineStr">
@@ -72744,173 +72332,157 @@
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2251" t="inlineStr"/>
       <c r="E2251" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2251" t="inlineStr"/>
-      <c r="G2251" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2251" t="inlineStr"/>
       <c r="H2251" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2252" t="inlineStr"/>
       <c r="E2252" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2252" t="inlineStr"/>
-      <c r="G2252" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
+      <c r="G2252" t="inlineStr"/>
       <c r="H2252" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2253" t="inlineStr"/>
       <c r="E2253" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2253" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2253" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2254" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2255" t="inlineStr"/>
       <c r="G2255" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2255" t="inlineStr">
@@ -72920,35 +72492,27 @@
       </c>
     </row>
     <row r="2256">
-      <c r="A2256" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A2256" t="inlineStr"/>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2256" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2256" t="inlineStr"/>
       <c r="G2256" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2256" t="inlineStr">
@@ -72958,219 +72522,163 @@
       </c>
     </row>
     <row r="2257">
-      <c r="A2257" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2257" t="inlineStr"/>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2257" t="inlineStr"/>
       <c r="E2257" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2257" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2257" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2258">
-      <c r="A2258" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2258" t="inlineStr"/>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2258" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2259">
-      <c r="A2259" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2259" t="inlineStr"/>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2259" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2260">
-      <c r="A2260" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2260" t="inlineStr"/>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2260" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2260" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2261" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2261" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr"/>
+      <c r="C2261" t="inlineStr"/>
       <c r="D2261" t="inlineStr"/>
-      <c r="E2261" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2261" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2261" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E2261" t="inlineStr"/>
+      <c r="F2261" t="inlineStr"/>
+      <c r="G2261" t="inlineStr"/>
+      <c r="H2261" t="inlineStr"/>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2262" t="inlineStr"/>
       <c r="H2262" t="inlineStr">
         <is>
           <t>2</t>
@@ -73180,129 +72688,125 @@
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
       <c r="G2263" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2263" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2264" t="inlineStr"/>
+      <c r="G2264" t="inlineStr">
+        <is>
           <t>0.8%</t>
         </is>
       </c>
-      <c r="F2264" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
       <c r="H2264" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
-      <c r="E2265" t="inlineStr"/>
+      <c r="E2265" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr"/>
+      <c r="G2265" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2265" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
-      <c r="E2266" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2266" t="inlineStr"/>
       <c r="H2266" t="inlineStr">
         <is>
           <t>2</t>
@@ -73312,29 +72816,29 @@
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
       <c r="G2267" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2267" t="inlineStr">
@@ -73346,103 +72850,91 @@
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2269" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2269" t="inlineStr"/>
+      <c r="G2269" t="inlineStr"/>
       <c r="H2269" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
+      <c r="G2270" t="inlineStr"/>
       <c r="H2270" t="inlineStr">
         <is>
           <t>3</t>
@@ -73452,27 +72944,31 @@
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2271" t="inlineStr"/>
-      <c r="G2271" t="inlineStr"/>
+      <c r="G2271" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="H2271" t="inlineStr">
         <is>
           <t>3</t>
@@ -73482,37 +72978,45 @@
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2272" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G2272" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H2272" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
@@ -73522,19 +73026,19 @@
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2273" t="inlineStr"/>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2273" t="inlineStr">
@@ -73546,93 +73050,101 @@
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2274" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2275" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2276">
-      <c r="A2276" t="inlineStr"/>
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2276" t="inlineStr"/>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2276" t="inlineStr">
@@ -73642,27 +73154,31 @@
       </c>
     </row>
     <row r="2277">
-      <c r="A2277" t="inlineStr"/>
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2277" t="inlineStr">
@@ -73672,27 +73188,31 @@
       </c>
     </row>
     <row r="2278">
-      <c r="A2278" t="inlineStr"/>
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2278" t="inlineStr">
@@ -73702,57 +73222,49 @@
       </c>
     </row>
     <row r="2279">
-      <c r="A2279" t="inlineStr"/>
-      <c r="B2279" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2279" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr"/>
+      <c r="C2279" t="inlineStr"/>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
+      <c r="E2279" t="inlineStr"/>
       <c r="F2279" t="inlineStr"/>
-      <c r="G2279" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2279" t="inlineStr"/>
+      <c r="H2279" t="inlineStr"/>
     </row>
     <row r="2280">
-      <c r="A2280" t="inlineStr"/>
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2280" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2280" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2280" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2280" t="inlineStr">
@@ -73764,21 +73276,37 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr"/>
-      <c r="C2281" t="inlineStr"/>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>2-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>2.670%</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
@@ -73788,271 +73316,251 @@
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
-      <c r="G2283" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2284" t="inlineStr"/>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
-      <c r="E2286" t="inlineStr"/>
+      <c r="E2286" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="F2286" t="inlineStr"/>
       <c r="G2286" t="inlineStr"/>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -74064,69 +73572,57 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
-      <c r="G2291" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2292" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="G2292" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2292" t="inlineStr"/>
+      <c r="G2292" t="inlineStr"/>
       <c r="H2292" t="inlineStr">
         <is>
           <t>2</t>
@@ -74136,29 +73632,33 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2293" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2293" t="inlineStr">
@@ -74170,67 +73670,71 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2294" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2294" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2294" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
@@ -74242,29 +73746,29 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2296" t="inlineStr">
@@ -74276,143 +73780,143 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2299" t="inlineStr"/>
-      <c r="C2299" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoY FlashJAN</t>
+        </is>
+      </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr"/>
+      <c r="E2299" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
-      <c r="H2299" t="inlineStr"/>
+      <c r="H2299" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
-      <c r="E2300" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2300" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="E2300" t="inlineStr"/>
+      <c r="F2300" t="inlineStr"/>
+      <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
@@ -74426,53 +73930,53 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -74486,87 +73990,91 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74576,27 +74084,31 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr"/>
+      <c r="G2307" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2307" t="inlineStr">
         <is>
           <t>3</t>
@@ -74606,27 +74118,31 @@
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr"/>
+      <c r="G2308" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74636,25 +74152,21 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
@@ -74666,17 +74178,17 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
@@ -74692,95 +74204,79 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2311" t="inlineStr"/>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2312" t="inlineStr"/>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2313" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2313" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2313" t="inlineStr"/>
+      <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
         <is>
           <t>2</t>
@@ -74790,33 +74286,33 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
@@ -74828,127 +74324,111 @@
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2315" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2317" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
@@ -74957,54 +74437,50 @@
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2319" t="inlineStr"/>
       <c r="F2319" t="inlineStr"/>
       <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
@@ -75013,32 +74489,28 @@
       <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2321" t="inlineStr"/>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr"/>
       <c r="H2321" t="inlineStr">
@@ -75050,83 +74522,79 @@
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2322" t="inlineStr"/>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr"/>
@@ -75140,23 +74608,23 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
@@ -75168,31 +74636,27 @@
       </c>
     </row>
     <row r="2326">
-      <c r="A2326" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2326" t="inlineStr"/>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr">
         <is>
-          <t>$ 230B</t>
+          <t>43.0K</t>
         </is>
       </c>
       <c r="H2326" t="inlineStr">
@@ -75204,41 +74668,21 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2327" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr"/>
+      <c r="C2327" t="inlineStr"/>
       <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
-      <c r="G2327" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2327" t="inlineStr"/>
+      <c r="H2327" t="inlineStr"/>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
@@ -75248,21 +74692,13 @@
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
           <t>3</t>
@@ -75272,17 +74708,17 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
@@ -75291,28 +74727,32 @@
       <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
@@ -75324,7 +74764,7 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
@@ -75334,11 +74774,15 @@
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
@@ -75350,21 +74794,25 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr"/>
       <c r="H2332" t="inlineStr">
@@ -75376,65 +74824,49 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2333" t="inlineStr"/>
       <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr"/>
       <c r="H2333" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2334" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2334" t="inlineStr"/>
+      <c r="F2334" t="inlineStr"/>
+      <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
         <is>
           <t>2</t>
@@ -75444,101 +74876,105 @@
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr"/>
+      <c r="G2336" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2337" t="inlineStr"/>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
@@ -75548,7 +74984,7 @@
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
@@ -75562,19 +74998,15 @@
       </c>
     </row>
     <row r="2339">
-      <c r="A2339" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2339" t="inlineStr"/>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
@@ -75588,19 +75020,15 @@
       </c>
     </row>
     <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
+      <c r="A2340" t="inlineStr"/>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
@@ -75614,19 +75042,15 @@
       </c>
     </row>
     <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
+      <c r="A2341" t="inlineStr"/>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
@@ -75640,11 +75064,7 @@
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
           <t>US</t>
@@ -75652,534 +75072,20 @@
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr"/>
+      <c r="E2342" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2342" t="inlineStr"/>
       <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr"/>
-      <c r="H2343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>10-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
-      <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr"/>
-      <c r="H2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>11:15 PM</t>
-        </is>
-      </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2345" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
-      <c r="H2345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr"/>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2347" t="inlineStr"/>
-      <c r="C2347" t="inlineStr"/>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
-      <c r="H2347" t="inlineStr"/>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2348" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2348" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
-      <c r="H2348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2349">
-      <c r="A2349" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2349" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2349" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
-      <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
-      <c r="H2349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2350">
-      <c r="A2350" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2350" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2350" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
-      <c r="H2350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2351">
-      <c r="A2351" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B2351" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2351" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
-      <c r="H2351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2352">
-      <c r="A2352" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2352" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2352" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2352" t="inlineStr"/>
-      <c r="G2352" t="inlineStr"/>
-      <c r="H2352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2353">
-      <c r="A2353" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2353" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2353" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr"/>
-      <c r="F2353" t="inlineStr"/>
-      <c r="G2353" t="inlineStr"/>
-      <c r="H2353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2354">
-      <c r="A2354" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2354" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2354" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr"/>
-      <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr"/>
-      <c r="H2354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2355">
-      <c r="A2355" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2355" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2355" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2356">
-      <c r="A2356" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2356" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2356" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2357">
-      <c r="A2357" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2357" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2357" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr"/>
-      <c r="H2357" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2358">
-      <c r="A2358" t="inlineStr"/>
-      <c r="B2358" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2358" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr"/>
-      <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr"/>
-      <c r="H2358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2359">
-      <c r="A2359" t="inlineStr"/>
-      <c r="B2359" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2359" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr"/>
-      <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr"/>
-      <c r="H2359" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2360">
-      <c r="A2360" t="inlineStr"/>
-      <c r="B2360" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2360" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr"/>
-      <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr"/>
-      <c r="H2360" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2361">
-      <c r="A2361" t="inlineStr"/>
-      <c r="B2361" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2361" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr"/>
-      <c r="H2361" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2342"/>
+  <dimension ref="A1:H2325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70791,10 +70791,8 @@
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -70829,10 +70827,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2206">
@@ -70863,10 +70859,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2207">
@@ -70901,10 +70895,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2208">
@@ -70927,10 +70919,8 @@
       <c r="E2208" t="inlineStr"/>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70957,10 +70947,8 @@
       </c>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr"/>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -70987,10 +70975,8 @@
       </c>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71017,10 +71003,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71047,10 +71031,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71077,10 +71059,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71107,10 +71087,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71137,10 +71115,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71167,10 +71143,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71197,10 +71171,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71227,10 +71199,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71257,10 +71227,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71287,10 +71255,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71321,10 +71287,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71355,10 +71319,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71389,10 +71351,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71423,10 +71383,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71457,10 +71415,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71491,10 +71447,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71521,10 +71475,8 @@
       </c>
       <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr"/>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71551,10 +71503,8 @@
       </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr"/>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71581,10 +71531,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71615,10 +71563,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71649,10 +71595,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2232">
@@ -71683,10 +71627,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -71721,10 +71663,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2234">
@@ -71759,10 +71699,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71793,10 +71731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -71831,10 +71767,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -71869,10 +71803,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2238">
@@ -71903,10 +71835,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2239">
@@ -71941,10 +71871,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2240">
@@ -71979,10 +71907,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -72017,10 +71943,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72051,10 +71975,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -72085,10 +72007,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -72123,10 +72043,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72149,10 +72067,8 @@
       <c r="E2245" t="inlineStr"/>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr"/>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72183,10 +72099,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72217,10 +72131,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72251,10 +72163,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -72289,10 +72199,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72323,10 +72231,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72353,10 +72259,8 @@
       </c>
       <c r="F2251" t="inlineStr"/>
       <c r="G2251" t="inlineStr"/>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -72383,10 +72287,8 @@
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72417,10 +72319,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2254">
@@ -72451,10 +72351,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72485,10 +72383,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -72515,10 +72411,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72545,10 +72439,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72575,10 +72467,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72605,10 +72495,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72635,10 +72523,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72679,10 +72565,8 @@
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2263">
@@ -72713,10 +72597,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -72747,10 +72629,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -72781,10 +72661,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72807,10 +72685,8 @@
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -72841,10 +72717,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -72875,10 +72749,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72905,10 +72777,8 @@
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -72935,10 +72805,8 @@
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -72969,10 +72837,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73007,10 +72873,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2273">
@@ -73041,10 +72905,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
@@ -73079,10 +72941,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2275">
@@ -73113,10 +72973,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73147,10 +73005,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
@@ -73181,10 +73037,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -73215,114 +73069,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2279" t="inlineStr"/>
-      <c r="C2279" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr"/>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr"/>
-      <c r="H2279" t="inlineStr"/>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2280" t="inlineStr"/>
+      <c r="G2280" t="inlineStr"/>
       <c r="H2280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
       <c r="H2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
@@ -73336,117 +73196,129 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr"/>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr"/>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
           <t>3</t>
@@ -73456,55 +73328,47 @@
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2287" t="inlineStr"/>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2288" t="inlineStr"/>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
@@ -73516,47 +73380,43 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
@@ -73572,23 +73432,23 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
@@ -73602,27 +73462,35 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2292" t="inlineStr">
         <is>
           <t>2</t>
@@ -73632,73 +73500,57 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr"/>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73708,69 +73560,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2296" t="inlineStr"/>
       <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -73780,55 +73620,43 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
-      <c r="E2297" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2297" t="inlineStr"/>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
@@ -73837,54 +73665,50 @@
       <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73893,30 +73717,30 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
@@ -73930,87 +73754,87 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2304">
-      <c r="A2304" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2304" t="inlineStr"/>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2304" t="inlineStr">
         <is>
           <t>3</t>
@@ -74020,61 +73844,37 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr"/>
+      <c r="C2305" t="inlineStr"/>
       <c r="D2305" t="inlineStr"/>
-      <c r="E2305" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
-      <c r="H2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2305" t="inlineStr"/>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
-      <c r="E2306" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2306" t="inlineStr"/>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74084,31 +73884,23 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
           <t>3</t>
@@ -74118,31 +73910,27 @@
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74152,47 +73940,55 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr"/>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
-      <c r="E2310" t="inlineStr"/>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
@@ -74204,17 +74000,17 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
@@ -74230,17 +74026,17 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74249,112 +74045,112 @@
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr"/>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2314" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
@@ -74364,20 +74160,16 @@
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
-      <c r="E2316" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2316" t="inlineStr"/>
       <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74389,26 +74181,22 @@
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
           <t>3</t>
@@ -74428,16 +74216,20 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74454,23 +74246,31 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr"/>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr"/>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
@@ -74480,13 +74280,21 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
           <t>3</t>
@@ -74496,7 +74304,7 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
@@ -74506,7 +74314,7 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
@@ -74520,19 +74328,15 @@
       </c>
     </row>
     <row r="2322">
-      <c r="A2322" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A2322" t="inlineStr"/>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
@@ -74546,27 +74350,19 @@
       </c>
     </row>
     <row r="2323">
-      <c r="A2323" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2323" t="inlineStr"/>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
@@ -74576,27 +74372,19 @@
       </c>
     </row>
     <row r="2324">
-      <c r="A2324" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
+      <c r="A2324" t="inlineStr"/>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74606,484 +74394,26 @@
       </c>
     </row>
     <row r="2325">
-      <c r="A2325" t="inlineStr">
-        <is>
-          <t>11:15 PM</t>
-        </is>
-      </c>
+      <c r="A2325" t="inlineStr"/>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2326">
-      <c r="A2326" t="inlineStr"/>
-      <c r="B2326" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2326" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2327">
-      <c r="A2327" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr"/>
-      <c r="C2327" t="inlineStr"/>
-      <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr"/>
-      <c r="F2327" t="inlineStr"/>
-      <c r="G2327" t="inlineStr"/>
-      <c r="H2327" t="inlineStr"/>
-    </row>
-    <row r="2328">
-      <c r="A2328" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2328" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2328" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr"/>
-      <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr"/>
-      <c r="H2328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2329">
-      <c r="A2329" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2329" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
-      <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2330">
-      <c r="A2330" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2330" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2330" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
-      <c r="H2330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2331">
-      <c r="A2331" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B2331" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2331" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2331" t="inlineStr"/>
-      <c r="G2331" t="inlineStr"/>
-      <c r="H2331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2332" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2332" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
-      <c r="H2332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2333" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2333" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
-      <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
-      <c r="H2333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2334" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2334" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
-      <c r="H2334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2335" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2335" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2336" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2336" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2337" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2337" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
-      <c r="H2337" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2338" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/01</t>
-        </is>
-      </c>
-      <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr"/>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
-      <c r="H2338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" t="inlineStr"/>
-      <c r="B2339" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2339" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
-      <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
-      <c r="H2339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr"/>
-      <c r="B2340" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2340" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
-      <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
-      <c r="H2340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr"/>
-      <c r="B2341" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2341" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
-      <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
-      <c r="H2341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2342">
-      <c r="A2342" t="inlineStr"/>
-      <c r="B2342" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2342" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr"/>
-      <c r="H2342" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2325"/>
+  <dimension ref="A1:H2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72530,123 +72530,137 @@
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2261" t="inlineStr"/>
-      <c r="C2261" t="inlineStr"/>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
       <c r="D2261" t="inlineStr"/>
-      <c r="E2261" t="inlineStr"/>
+      <c r="E2261" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr"/>
-      <c r="H2261" t="inlineStr"/>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="n">
-        <v>2</v>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2263" t="n">
-        <v>3</v>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2264" t="n">
-        <v>3</v>
+      <c r="G2264" t="inlineStr"/>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
@@ -72656,421 +72670,425 @@
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2265" t="n">
-        <v>3</v>
+      <c r="G2265" t="inlineStr"/>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
-      <c r="E2266" t="inlineStr"/>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="n">
-        <v>2</v>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2267" t="n">
-        <v>2</v>
+      <c r="G2267" t="inlineStr"/>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2268" t="n">
-        <v>2</v>
+      <c r="G2268" t="inlineStr"/>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="n">
-        <v>3</v>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="n">
-        <v>3</v>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2271" t="n">
-        <v>3</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2272" t="inlineStr">
         <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="H2272" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2273" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H2273" t="n">
-        <v>2</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2274" t="n">
-        <v>1</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2275" t="n">
-        <v>2</v>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
-      <c r="E2276" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E2276" t="inlineStr"/>
       <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2276" t="n">
-        <v>3</v>
+      <c r="G2276" t="inlineStr"/>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2277" t="n">
-        <v>3</v>
+      <c r="G2277" t="inlineStr"/>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
-      <c r="E2278" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="H2278" t="n">
-        <v>3</v>
+      <c r="G2278" t="inlineStr"/>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2279">
@@ -74328,19 +74346,27 @@
       </c>
     </row>
     <row r="2322">
-      <c r="A2322" t="inlineStr"/>
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>10:10 AM</t>
+        </is>
+      </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
@@ -74358,7 +74384,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
@@ -74380,7 +74406,7 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
@@ -74397,23 +74423,45 @@
       <c r="A2325" t="inlineStr"/>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr"/>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexJAN</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr"/>
+      <c r="E2326" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
+      <c r="F2326" t="inlineStr"/>
+      <c r="G2326" t="inlineStr"/>
+      <c r="H2326" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2370"/>
+  <dimension ref="A1:H2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63645,10 +63645,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1974" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1974" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1975">
@@ -63679,10 +63677,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H1975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1975" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1976">
@@ -63713,10 +63709,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1977">
@@ -63751,10 +63745,8 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H1977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1978">
@@ -63777,10 +63769,8 @@
       </c>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr"/>
-      <c r="H1978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1979">
@@ -63825,10 +63815,8 @@
           <t>115.3</t>
         </is>
       </c>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1981">
@@ -63863,10 +63851,8 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1982">
@@ -63893,10 +63879,8 @@
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr"/>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1983">
@@ -63923,10 +63907,8 @@
       </c>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr"/>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1984">
@@ -63953,10 +63935,8 @@
       </c>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr"/>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1985">
@@ -63987,10 +63967,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1985" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1986">
@@ -64021,10 +63999,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1987">
@@ -64059,10 +64035,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1987" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1988">
@@ -64097,10 +64071,8 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -64135,10 +64107,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1990">
@@ -64165,10 +64135,8 @@
       </c>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr"/>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1991">
@@ -64195,10 +64163,8 @@
       </c>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr"/>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1992">
@@ -64229,10 +64195,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1993">
@@ -64263,10 +64227,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1994">
@@ -64297,10 +64259,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1995">
@@ -64331,10 +64291,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1996">
@@ -64365,10 +64323,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1997">
@@ -64399,10 +64355,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1998">
@@ -64433,10 +64387,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1999">
@@ -64463,10 +64415,8 @@
       </c>
       <c r="F1999" t="inlineStr"/>
       <c r="G1999" t="inlineStr"/>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2000">
@@ -64493,10 +64443,8 @@
       </c>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr"/>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2001">
@@ -64523,10 +64471,8 @@
       </c>
       <c r="F2001" t="inlineStr"/>
       <c r="G2001" t="inlineStr"/>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2002">
@@ -64561,10 +64507,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2003">
@@ -64595,10 +64539,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2003" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2004">
@@ -64629,10 +64571,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2004" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2005">
@@ -64655,10 +64595,8 @@
       <c r="E2005" t="inlineStr"/>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr"/>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2005" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2006">
@@ -64685,10 +64623,8 @@
       </c>
       <c r="F2006" t="inlineStr"/>
       <c r="G2006" t="inlineStr"/>
-      <c r="H2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2007">
@@ -64715,10 +64651,8 @@
       </c>
       <c r="F2007" t="inlineStr"/>
       <c r="G2007" t="inlineStr"/>
-      <c r="H2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2008">
@@ -64745,10 +64679,8 @@
       </c>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr"/>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2009">
@@ -64775,10 +64707,8 @@
       </c>
       <c r="F2009" t="inlineStr"/>
       <c r="G2009" t="inlineStr"/>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2009" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2010">
@@ -64809,10 +64739,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2011">
@@ -64843,10 +64771,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2011" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2012">
@@ -64873,10 +64799,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2012" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2013">
@@ -64895,10 +64819,8 @@
       <c r="E2013" t="inlineStr"/>
       <c r="F2013" t="inlineStr"/>
       <c r="G2013" t="inlineStr"/>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2013" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2014">
@@ -64929,10 +64851,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2014" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2015">
@@ -64963,10 +64883,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2016">
@@ -64993,10 +64911,8 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2017">
@@ -65037,10 +64953,8 @@
       </c>
       <c r="F2018" t="inlineStr"/>
       <c r="G2018" t="inlineStr"/>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2019">
@@ -65071,10 +64985,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2020">
@@ -65105,10 +65017,8 @@
           <t>-4.1%</t>
         </is>
       </c>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2021">
@@ -65139,10 +65049,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2022">
@@ -65173,10 +65081,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2023">
@@ -65211,10 +65117,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2023" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2024">
@@ -65249,10 +65153,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2025">
@@ -65279,10 +65181,8 @@
       </c>
       <c r="F2025" t="inlineStr"/>
       <c r="G2025" t="inlineStr"/>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2026">
@@ -65309,10 +65209,8 @@
       </c>
       <c r="F2026" t="inlineStr"/>
       <c r="G2026" t="inlineStr"/>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2027">
@@ -65339,10 +65237,8 @@
       </c>
       <c r="F2027" t="inlineStr"/>
       <c r="G2027" t="inlineStr"/>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2028">
@@ -65369,10 +65265,8 @@
       </c>
       <c r="F2028" t="inlineStr"/>
       <c r="G2028" t="inlineStr"/>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2028" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2029">
@@ -65399,10 +65293,8 @@
       </c>
       <c r="F2029" t="inlineStr"/>
       <c r="G2029" t="inlineStr"/>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2030">
@@ -65437,10 +65329,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2030" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2030" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2031">
@@ -65475,10 +65365,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2032">
@@ -65509,10 +65397,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2033">
@@ -65543,10 +65429,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2033" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2034">
@@ -65573,10 +65457,8 @@
       </c>
       <c r="F2034" t="inlineStr"/>
       <c r="G2034" t="inlineStr"/>
-      <c r="H2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2035">
@@ -65611,10 +65493,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2035" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2035" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2036">
@@ -65645,10 +65525,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2036" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2037">
@@ -65683,10 +65561,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2038">
@@ -65717,10 +65593,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2039">
@@ -65751,10 +65625,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2039" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2040">
@@ -65777,10 +65649,8 @@
       <c r="E2040" t="inlineStr"/>
       <c r="F2040" t="inlineStr"/>
       <c r="G2040" t="inlineStr"/>
-      <c r="H2040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2041">
@@ -65815,10 +65685,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2042">
@@ -65853,10 +65721,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2043">
@@ -65887,10 +65753,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2044">
@@ -65921,10 +65785,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2045">
@@ -65955,10 +65817,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2046">
@@ -65989,10 +65849,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2047">
@@ -66019,10 +65877,8 @@
       </c>
       <c r="F2047" t="inlineStr"/>
       <c r="G2047" t="inlineStr"/>
-      <c r="H2047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2048">
@@ -66049,10 +65905,8 @@
       </c>
       <c r="F2048" t="inlineStr"/>
       <c r="G2048" t="inlineStr"/>
-      <c r="H2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2049">
@@ -66075,10 +65929,8 @@
       <c r="E2049" t="inlineStr"/>
       <c r="F2049" t="inlineStr"/>
       <c r="G2049" t="inlineStr"/>
-      <c r="H2049" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2049" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2050">
@@ -66105,10 +65957,8 @@
       </c>
       <c r="F2050" t="inlineStr"/>
       <c r="G2050" t="inlineStr"/>
-      <c r="H2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2051">
@@ -66135,10 +65985,8 @@
       </c>
       <c r="F2051" t="inlineStr"/>
       <c r="G2051" t="inlineStr"/>
-      <c r="H2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2052">
@@ -66165,10 +66013,8 @@
       </c>
       <c r="F2052" t="inlineStr"/>
       <c r="G2052" t="inlineStr"/>
-      <c r="H2052" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2052" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2053">
@@ -66191,10 +66037,8 @@
       <c r="E2053" t="inlineStr"/>
       <c r="F2053" t="inlineStr"/>
       <c r="G2053" t="inlineStr"/>
-      <c r="H2053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2054">
@@ -66229,10 +66073,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2054" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2054" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2055">
@@ -66267,10 +66109,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2056">
@@ -66305,10 +66145,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2057">
@@ -66343,10 +66181,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2057" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2058">
@@ -66381,10 +66217,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2059">
@@ -66415,10 +66249,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2060">
@@ -66453,10 +66285,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2061">
@@ -66491,10 +66321,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2062">
@@ -66521,10 +66349,8 @@
       </c>
       <c r="F2062" t="inlineStr"/>
       <c r="G2062" t="inlineStr"/>
-      <c r="H2062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2062" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2063">
@@ -66573,10 +66399,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2064" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2064" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2065">
@@ -66611,10 +66435,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2065" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2065" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2066">
@@ -66649,10 +66471,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2066" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2066" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2067">
@@ -66683,10 +66503,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2067" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2067" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2068">
@@ -66717,10 +66535,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2069">
@@ -66755,10 +66571,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2070">
@@ -66793,10 +66607,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2071">
@@ -66827,10 +66639,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2072">
@@ -66861,10 +66671,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2073">
@@ -66891,10 +66699,8 @@
       </c>
       <c r="F2073" t="inlineStr"/>
       <c r="G2073" t="inlineStr"/>
-      <c r="H2073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2074">
@@ -66921,10 +66727,8 @@
       </c>
       <c r="F2074" t="inlineStr"/>
       <c r="G2074" t="inlineStr"/>
-      <c r="H2074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2075">
@@ -66951,10 +66755,8 @@
       </c>
       <c r="F2075" t="inlineStr"/>
       <c r="G2075" t="inlineStr"/>
-      <c r="H2075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2076">
@@ -66985,10 +66787,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2076" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2076" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2077">
@@ -67015,10 +66815,8 @@
       </c>
       <c r="F2077" t="inlineStr"/>
       <c r="G2077" t="inlineStr"/>
-      <c r="H2077" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2077" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2078">
@@ -67045,10 +66843,8 @@
       </c>
       <c r="F2078" t="inlineStr"/>
       <c r="G2078" t="inlineStr"/>
-      <c r="H2078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2079">
@@ -67075,10 +66871,8 @@
       </c>
       <c r="F2079" t="inlineStr"/>
       <c r="G2079" t="inlineStr"/>
-      <c r="H2079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2080">
@@ -67105,10 +66899,8 @@
       </c>
       <c r="F2080" t="inlineStr"/>
       <c r="G2080" t="inlineStr"/>
-      <c r="H2080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2081">
@@ -67135,10 +66927,8 @@
       </c>
       <c r="F2081" t="inlineStr"/>
       <c r="G2081" t="inlineStr"/>
-      <c r="H2081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2082">
@@ -67173,10 +66963,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2083">
@@ -67207,10 +66995,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2083" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2084">
@@ -67245,10 +67031,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2085">
@@ -67283,10 +67067,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2086">
@@ -67309,10 +67091,8 @@
       <c r="E2086" t="inlineStr"/>
       <c r="F2086" t="inlineStr"/>
       <c r="G2086" t="inlineStr"/>
-      <c r="H2086" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2086" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2087">
@@ -67335,10 +67115,8 @@
       <c r="E2087" t="inlineStr"/>
       <c r="F2087" t="inlineStr"/>
       <c r="G2087" t="inlineStr"/>
-      <c r="H2087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2088">
@@ -67365,10 +67143,8 @@
       </c>
       <c r="F2088" t="inlineStr"/>
       <c r="G2088" t="inlineStr"/>
-      <c r="H2088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2089">
@@ -67395,10 +67171,8 @@
       </c>
       <c r="F2089" t="inlineStr"/>
       <c r="G2089" t="inlineStr"/>
-      <c r="H2089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2090">
@@ -67425,10 +67199,8 @@
       </c>
       <c r="F2090" t="inlineStr"/>
       <c r="G2090" t="inlineStr"/>
-      <c r="H2090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2091">
@@ -67455,10 +67227,8 @@
       </c>
       <c r="F2091" t="inlineStr"/>
       <c r="G2091" t="inlineStr"/>
-      <c r="H2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -67485,10 +67255,8 @@
       </c>
       <c r="F2092" t="inlineStr"/>
       <c r="G2092" t="inlineStr"/>
-      <c r="H2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -67515,10 +67283,8 @@
       </c>
       <c r="F2093" t="inlineStr"/>
       <c r="G2093" t="inlineStr"/>
-      <c r="H2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -67545,10 +67311,8 @@
       </c>
       <c r="F2094" t="inlineStr"/>
       <c r="G2094" t="inlineStr"/>
-      <c r="H2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -67575,10 +67339,8 @@
       </c>
       <c r="F2095" t="inlineStr"/>
       <c r="G2095" t="inlineStr"/>
-      <c r="H2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -67605,10 +67367,8 @@
       </c>
       <c r="F2096" t="inlineStr"/>
       <c r="G2096" t="inlineStr"/>
-      <c r="H2096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2097">
@@ -67639,10 +67399,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2098">
@@ -67673,10 +67431,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -67703,10 +67459,8 @@
       </c>
       <c r="F2099" t="inlineStr"/>
       <c r="G2099" t="inlineStr"/>
-      <c r="H2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
@@ -67741,10 +67495,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2101">
@@ -67767,10 +67519,8 @@
       <c r="E2101" t="inlineStr"/>
       <c r="F2101" t="inlineStr"/>
       <c r="G2101" t="inlineStr"/>
-      <c r="H2101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2102">
@@ -67801,10 +67551,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2103">
@@ -67831,10 +67579,8 @@
       </c>
       <c r="F2103" t="inlineStr"/>
       <c r="G2103" t="inlineStr"/>
-      <c r="H2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2104">
@@ -67861,10 +67607,8 @@
       </c>
       <c r="F2104" t="inlineStr"/>
       <c r="G2104" t="inlineStr"/>
-      <c r="H2104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2105">
@@ -67895,10 +67639,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -67921,10 +67663,8 @@
       <c r="E2106" t="inlineStr"/>
       <c r="F2106" t="inlineStr"/>
       <c r="G2106" t="inlineStr"/>
-      <c r="H2106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2107">
@@ -67955,10 +67695,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2108">
@@ -67993,10 +67731,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2109">
@@ -68019,10 +67755,8 @@
       <c r="E2109" t="inlineStr"/>
       <c r="F2109" t="inlineStr"/>
       <c r="G2109" t="inlineStr"/>
-      <c r="H2109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2109" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2110">
@@ -68067,10 +67801,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2111" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2112">
@@ -68097,10 +67829,8 @@
       </c>
       <c r="F2112" t="inlineStr"/>
       <c r="G2112" t="inlineStr"/>
-      <c r="H2112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2113">
@@ -68131,10 +67861,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2114">
@@ -68157,10 +67885,8 @@
       <c r="E2114" t="inlineStr"/>
       <c r="F2114" t="inlineStr"/>
       <c r="G2114" t="inlineStr"/>
-      <c r="H2114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2115">
@@ -68195,10 +67921,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2115" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2116">
@@ -68229,10 +67953,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2116" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2116" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2117">
@@ -68267,10 +67989,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -68305,10 +68025,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -68339,10 +68057,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -68373,10 +68089,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2121">
@@ -68407,10 +68121,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2122">
@@ -68445,10 +68157,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2123">
@@ -68479,10 +68189,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -68513,10 +68221,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2125">
@@ -68547,10 +68253,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2126">
@@ -68585,10 +68289,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2127">
@@ -68623,10 +68325,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2128">
@@ -68661,10 +68361,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2129">
@@ -68695,10 +68393,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2130">
@@ -68729,10 +68425,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2131">
@@ -68763,10 +68457,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2132">
@@ -68797,10 +68489,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2133">
@@ -68835,10 +68525,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2134">
@@ -68869,10 +68557,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2134" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2135">
@@ -68907,10 +68593,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2136">
@@ -68945,10 +68629,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2137">
@@ -68983,10 +68665,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2138">
@@ -69021,10 +68701,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2138" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2138" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2139">
@@ -69055,10 +68733,8 @@
         </is>
       </c>
       <c r="G2139" t="inlineStr"/>
-      <c r="H2139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2139" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2140">
@@ -69093,10 +68769,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2140" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2140" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2141">
@@ -69131,10 +68805,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2142">
@@ -69165,10 +68837,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2143">
@@ -69199,10 +68869,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2144">
@@ -69233,10 +68901,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2145">
@@ -69267,10 +68933,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2146">
@@ -69305,10 +68969,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2146" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2147">
@@ -69331,10 +68993,8 @@
       <c r="E2147" t="inlineStr"/>
       <c r="F2147" t="inlineStr"/>
       <c r="G2147" t="inlineStr"/>
-      <c r="H2147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2148">
@@ -69365,10 +69025,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2149">
@@ -69399,10 +69057,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2149" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2150">
@@ -69433,10 +69089,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2150" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2151">
@@ -69459,10 +69113,8 @@
       <c r="E2151" t="inlineStr"/>
       <c r="F2151" t="inlineStr"/>
       <c r="G2151" t="inlineStr"/>
-      <c r="H2151" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2151" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2152">
@@ -69489,10 +69141,8 @@
       </c>
       <c r="F2152" t="inlineStr"/>
       <c r="G2152" t="inlineStr"/>
-      <c r="H2152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2152" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2153">
@@ -69523,10 +69173,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2153" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2154">
@@ -69557,10 +69205,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2154" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2155">
@@ -69591,10 +69237,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2155" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2156">
@@ -69625,10 +69269,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2156" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2157">
@@ -69663,10 +69305,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2157" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2158">
@@ -69697,10 +69337,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2158" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2159">
@@ -69735,10 +69373,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2159" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2160">
@@ -69773,10 +69409,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2160" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2161">
@@ -69807,10 +69441,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2161" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2162">
@@ -69841,10 +69473,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2163">
@@ -69879,10 +69509,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2163" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2164">
@@ -69917,10 +69545,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2164" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2165">
@@ -69955,10 +69581,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2165" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2165" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2166">
@@ -69989,10 +69613,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2166" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2167">
@@ -70023,10 +69645,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2167" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2168">
@@ -70057,10 +69677,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2169">
@@ -70091,10 +69709,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2170">
@@ -70125,10 +69741,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2170" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2171">
@@ -70159,10 +69773,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2172">
@@ -70185,10 +69797,8 @@
       <c r="E2172" t="inlineStr"/>
       <c r="F2172" t="inlineStr"/>
       <c r="G2172" t="inlineStr"/>
-      <c r="H2172" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2173">
@@ -70223,10 +69833,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2174">
@@ -70257,10 +69865,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2175">
@@ -70287,10 +69893,8 @@
       </c>
       <c r="F2175" t="inlineStr"/>
       <c r="G2175" t="inlineStr"/>
-      <c r="H2175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2176">
@@ -70317,10 +69921,8 @@
       </c>
       <c r="F2176" t="inlineStr"/>
       <c r="G2176" t="inlineStr"/>
-      <c r="H2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2177">
@@ -70347,10 +69949,8 @@
       </c>
       <c r="F2177" t="inlineStr"/>
       <c r="G2177" t="inlineStr"/>
-      <c r="H2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2178">
@@ -70377,10 +69977,8 @@
       </c>
       <c r="F2178" t="inlineStr"/>
       <c r="G2178" t="inlineStr"/>
-      <c r="H2178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2179">
@@ -70407,10 +70005,8 @@
       </c>
       <c r="F2179" t="inlineStr"/>
       <c r="G2179" t="inlineStr"/>
-      <c r="H2179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2180">
@@ -70437,10 +70033,8 @@
       </c>
       <c r="F2180" t="inlineStr"/>
       <c r="G2180" t="inlineStr"/>
-      <c r="H2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2181">
@@ -70475,10 +70069,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H2181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2182">
@@ -70513,10 +70105,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H2182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2183">
@@ -70551,10 +70141,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2184">
@@ -70585,10 +70173,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2185">
@@ -70619,10 +70205,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2186">
@@ -70657,10 +70241,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2187">
@@ -70695,10 +70277,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2188">
@@ -70729,10 +70309,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2189">
@@ -70763,10 +70341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2190">
@@ -70797,10 +70373,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2191">
@@ -70835,10 +70409,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -70869,10 +70441,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2193">
@@ -70903,10 +70473,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2194">
@@ -70937,10 +70505,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2195">
@@ -70971,10 +70537,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2196">
@@ -71001,10 +70565,8 @@
       </c>
       <c r="F2196" t="inlineStr"/>
       <c r="G2196" t="inlineStr"/>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2197">
@@ -71031,10 +70593,8 @@
       </c>
       <c r="F2197" t="inlineStr"/>
       <c r="G2197" t="inlineStr"/>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2198">
@@ -71061,10 +70621,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2199">
@@ -71091,10 +70649,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2200">
@@ -71121,10 +70677,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2201">
@@ -71147,10 +70701,8 @@
       </c>
       <c r="F2201" t="inlineStr"/>
       <c r="G2201" t="inlineStr"/>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2202">
@@ -71173,10 +70725,8 @@
       </c>
       <c r="F2202" t="inlineStr"/>
       <c r="G2202" t="inlineStr"/>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2203">
@@ -71203,10 +70753,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
@@ -71233,10 +70781,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -71263,164 +70809,170 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2206" t="inlineStr"/>
-      <c r="C2206" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>Tourist Arrivals YoYDEC</t>
+        </is>
+      </c>
       <c r="D2206" t="inlineStr"/>
-      <c r="E2206" t="inlineStr"/>
+      <c r="E2206" t="inlineStr">
+        <is>
+          <t>8.25%</t>
+        </is>
+      </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr"/>
+      <c r="H2206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2207" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2207" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2207" t="inlineStr"/>
       <c r="E2207" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2207" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="G2207" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H2207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2208" t="inlineStr"/>
       <c r="E2208" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2209" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2209" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2209" t="inlineStr"/>
       <c r="E2209" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F2209" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2209" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G2209" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2210" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2210" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2210" t="inlineStr"/>
-      <c r="E2210" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2210" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2210" t="inlineStr"/>
+      <c r="F2210" t="inlineStr"/>
+      <c r="G2210" t="inlineStr"/>
       <c r="H2210" t="inlineStr">
         <is>
           <t>2</t>
@@ -71430,7 +70982,7 @@
     <row r="2211">
       <c r="A2211" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2211" t="inlineStr">
@@ -71440,93 +70992,77 @@
       </c>
       <c r="C2211" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2211" t="inlineStr"/>
       <c r="E2211" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2211" t="inlineStr"/>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2211" t="inlineStr"/>
       <c r="H2211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2212" t="inlineStr"/>
       <c r="E2212" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2212" t="inlineStr"/>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2212" t="inlineStr"/>
       <c r="H2212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2213" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2213" t="inlineStr"/>
       <c r="E2213" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2213" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2213" t="inlineStr"/>
+      <c r="G2213" t="inlineStr"/>
       <c r="H2213" t="inlineStr">
         <is>
           <t>3</t>
@@ -71536,31 +71072,27 @@
     <row r="2214">
       <c r="A2214" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2214" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2214" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2214" t="inlineStr"/>
       <c r="E2214" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2214" t="inlineStr"/>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2214" t="inlineStr"/>
       <c r="H2214" t="inlineStr">
         <is>
           <t>3</t>
@@ -71570,31 +71102,27 @@
     <row r="2215">
       <c r="A2215" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2215" t="inlineStr"/>
       <c r="E2215" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2215" t="inlineStr"/>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2215" t="inlineStr"/>
       <c r="H2215" t="inlineStr">
         <is>
           <t>3</t>
@@ -71604,171 +71132,147 @@
     <row r="2216">
       <c r="A2216" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2216" t="inlineStr"/>
       <c r="E2216" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2216" t="inlineStr"/>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2216" t="inlineStr"/>
       <c r="H2216" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2217" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2217" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2217" t="inlineStr"/>
       <c r="E2217" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2217" t="inlineStr"/>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2217" t="inlineStr"/>
       <c r="H2217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2218" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2218" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2218" t="inlineStr"/>
       <c r="E2218" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2218" t="inlineStr"/>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2218" t="inlineStr"/>
       <c r="H2218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2219">
       <c r="A2219" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2219" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2219" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2219" t="inlineStr"/>
       <c r="E2219" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2219" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2219" t="inlineStr"/>
+      <c r="G2219" t="inlineStr"/>
       <c r="H2219" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2220" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2220" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2220" t="inlineStr"/>
       <c r="E2220" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2220" t="inlineStr"/>
       <c r="H2220" t="inlineStr">
         <is>
           <t>3</t>
@@ -71778,31 +71282,27 @@
     <row r="2221">
       <c r="A2221" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2221" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2221" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2221" t="inlineStr"/>
       <c r="E2221" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2221" t="inlineStr"/>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G2221" t="inlineStr"/>
       <c r="H2221" t="inlineStr">
         <is>
           <t>3</t>
@@ -71812,17 +71312,17 @@
     <row r="2222">
       <c r="A2222" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2222" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2222" t="inlineStr"/>
@@ -71832,11 +71332,7 @@
         </is>
       </c>
       <c r="F2222" t="inlineStr"/>
-      <c r="G2222" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2222" t="inlineStr"/>
       <c r="H2222" t="inlineStr">
         <is>
           <t>3</t>
@@ -71846,29 +71342,29 @@
     <row r="2223">
       <c r="A2223" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2223" t="inlineStr"/>
       <c r="E2223" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2223" t="inlineStr"/>
       <c r="G2223" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2223" t="inlineStr">
@@ -71880,23 +71376,23 @@
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2224" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2224" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2224" t="inlineStr"/>
       <c r="E2224" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2224" t="inlineStr"/>
@@ -71914,23 +71410,23 @@
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2225" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2225" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2225" t="inlineStr"/>
       <c r="E2225" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2225" t="inlineStr"/>
@@ -71948,27 +71444,31 @@
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2226" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2226" t="inlineStr"/>
       <c r="E2226" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2226" t="inlineStr"/>
-      <c r="G2226" t="inlineStr"/>
+      <c r="G2226" t="inlineStr">
+        <is>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
       <c r="H2226" t="inlineStr">
         <is>
           <t>3</t>
@@ -71978,159 +71478,151 @@
     <row r="2227">
       <c r="A2227" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2227" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2227" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2227" t="inlineStr"/>
       <c r="E2227" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2227" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>77.7%</t>
+        </is>
+      </c>
+      <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2228" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2228" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2228" t="inlineStr"/>
       <c r="E2228" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2229" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2229" t="inlineStr"/>
       <c r="E2229" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2229" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2229" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2229" t="inlineStr"/>
+      <c r="G2229" t="inlineStr"/>
       <c r="H2229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2230" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2230" t="inlineStr"/>
-      <c r="E2230" t="inlineStr"/>
+      <c r="E2230" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
       <c r="H2230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2231" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2231" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2231" t="inlineStr"/>
       <c r="E2231" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2231" t="inlineStr"/>
@@ -72144,27 +71636,31 @@
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2232" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2232" t="inlineStr"/>
       <c r="E2232" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2232" t="inlineStr"/>
-      <c r="G2232" t="inlineStr"/>
+      <c r="G2232" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2232" t="inlineStr">
         <is>
           <t>3</t>
@@ -72174,67 +71670,75 @@
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2233" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2233" t="inlineStr"/>
       <c r="E2233" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2233" t="inlineStr"/>
-      <c r="G2233" t="inlineStr"/>
+      <c r="G2233" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2234" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2234" t="inlineStr"/>
       <c r="E2234" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2234" t="inlineStr"/>
-      <c r="G2234" t="inlineStr"/>
+      <c r="G2234" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2234" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
@@ -72244,27 +71748,35 @@
       </c>
       <c r="C2235" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2235" t="inlineStr"/>
       <c r="E2235" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2235" t="inlineStr"/>
-      <c r="G2235" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2235" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2235" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2235" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
@@ -72274,27 +71786,35 @@
       </c>
       <c r="C2236" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2236" t="inlineStr"/>
       <c r="E2236" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2236" t="inlineStr"/>
-      <c r="G2236" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2236" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2236" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2237">
       <c r="A2237" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2237" t="inlineStr">
@@ -72304,17 +71824,21 @@
       </c>
       <c r="C2237" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2237" t="inlineStr"/>
       <c r="E2237" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2237" t="inlineStr"/>
-      <c r="G2237" t="inlineStr"/>
+      <c r="G2237" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2237" t="inlineStr">
         <is>
           <t>3</t>
@@ -72324,7 +71848,7 @@
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2238" t="inlineStr">
@@ -72334,17 +71858,25 @@
       </c>
       <c r="C2238" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2238" t="inlineStr"/>
       <c r="E2238" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2238" t="inlineStr"/>
-      <c r="G2238" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2238" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2238" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2238" t="inlineStr">
         <is>
           <t>3</t>
@@ -72354,381 +71886,417 @@
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2239" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2239" t="inlineStr"/>
       <c r="E2239" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2239" t="inlineStr"/>
-      <c r="G2239" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2239" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2239" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2239" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2240" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2240" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2240" t="inlineStr"/>
       <c r="E2240" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2240" t="inlineStr"/>
-      <c r="G2240" t="inlineStr"/>
+      <c r="G2240" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2241">
       <c r="A2241" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2241" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2241" t="inlineStr"/>
       <c r="E2241" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2241" t="inlineStr"/>
-      <c r="G2241" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2241" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2241" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2241" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2242" t="inlineStr"/>
       <c r="E2242" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2242" t="inlineStr"/>
-      <c r="G2242" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2242" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2242" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2242" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2243" t="inlineStr"/>
       <c r="E2243" t="inlineStr">
         <is>
-          <t>€4.9B</t>
-        </is>
-      </c>
-      <c r="F2243" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2243" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2243" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2243" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2244" t="inlineStr"/>
       <c r="E2244" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2244" t="inlineStr"/>
       <c r="G2244" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2244" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2245" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2245" t="inlineStr"/>
       <c r="E2245" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2246" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2246" t="inlineStr"/>
       <c r="E2246" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
-      <c r="F2246" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2246" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2246" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2247" t="inlineStr"/>
-      <c r="E2247" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>77.9%</t>
-        </is>
-      </c>
+      <c r="G2247" t="inlineStr"/>
       <c r="H2247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2248" t="inlineStr"/>
       <c r="E2248" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2248" t="inlineStr"/>
       <c r="G2248" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2248" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2249" t="inlineStr"/>
       <c r="E2249" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2249" t="inlineStr"/>
-      <c r="G2249" t="inlineStr"/>
+      <c r="G2249" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2250" t="inlineStr"/>
       <c r="E2250" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2250" t="inlineStr"/>
-      <c r="G2250" t="inlineStr"/>
+      <c r="G2250" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2250" t="inlineStr">
         <is>
           <t>3</t>
@@ -72738,59 +72306,67 @@
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2251" t="inlineStr"/>
       <c r="E2251" t="inlineStr">
         <is>
-          <t>$623.98B</t>
-        </is>
-      </c>
-      <c r="F2251" t="inlineStr"/>
-      <c r="G2251" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2251" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2251" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2251" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2252" t="inlineStr"/>
       <c r="E2252" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2252" t="inlineStr">
@@ -72802,173 +72378,157 @@
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2253" t="inlineStr"/>
       <c r="E2253" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2253" t="inlineStr"/>
       <c r="H2253" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2254" t="inlineStr"/>
-      <c r="G2254" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
+      <c r="G2254" t="inlineStr"/>
       <c r="H2254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2255" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2255" t="inlineStr"/>
       <c r="G2255" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2255" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2256" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2256" t="inlineStr"/>
       <c r="G2256" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2256" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2257" t="inlineStr"/>
       <c r="E2257" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2257" t="inlineStr">
@@ -72978,35 +72538,27 @@
       </c>
     </row>
     <row r="2258">
-      <c r="A2258" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A2258" t="inlineStr"/>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2258" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2258" t="inlineStr">
@@ -73016,219 +72568,163 @@
       </c>
     </row>
     <row r="2259">
-      <c r="A2259" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2259" t="inlineStr"/>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2259" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2259" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2260">
-      <c r="A2260" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2260" t="inlineStr"/>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2260" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2261">
-      <c r="A2261" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2261" t="inlineStr"/>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2261" t="inlineStr"/>
       <c r="E2261" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2261" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2261" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2262">
-      <c r="A2262" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2262" t="inlineStr"/>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2262" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2263" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2263" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr"/>
+      <c r="C2263" t="inlineStr"/>
       <c r="D2263" t="inlineStr"/>
-      <c r="E2263" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2263" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E2263" t="inlineStr"/>
+      <c r="F2263" t="inlineStr"/>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr"/>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2264" t="inlineStr"/>
       <c r="H2264" t="inlineStr">
         <is>
           <t>2</t>
@@ -73238,129 +72734,125 @@
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
       <c r="G2265" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2265" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
       <c r="E2266" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2266" t="inlineStr"/>
+      <c r="G2266" t="inlineStr">
+        <is>
           <t>0.8%</t>
         </is>
       </c>
-      <c r="F2266" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
       <c r="H2266" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
-      <c r="E2267" t="inlineStr"/>
+      <c r="E2267" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr"/>
+      <c r="G2267" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2267" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2268" t="inlineStr"/>
       <c r="H2268" t="inlineStr">
         <is>
           <t>2</t>
@@ -73370,29 +72862,29 @@
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2269" t="inlineStr">
@@ -73404,103 +72896,91 @@
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2270" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr"/>
+      <c r="G2271" t="inlineStr"/>
       <c r="H2271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
+      <c r="G2272" t="inlineStr"/>
       <c r="H2272" t="inlineStr">
         <is>
           <t>3</t>
@@ -73510,27 +72990,31 @@
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr"/>
+      <c r="G2273" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="H2273" t="inlineStr">
         <is>
           <t>3</t>
@@ -73540,37 +73024,45 @@
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H2274" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
@@ -73580,19 +73072,19 @@
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2275" t="inlineStr">
@@ -73604,93 +73096,101 @@
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2276" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2276" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2277" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2278">
-      <c r="A2278" t="inlineStr"/>
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2278" t="inlineStr">
@@ -73700,27 +73200,31 @@
       </c>
     </row>
     <row r="2279">
-      <c r="A2279" t="inlineStr"/>
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
       <c r="E2279" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2279" t="inlineStr">
@@ -73730,27 +73234,31 @@
       </c>
     </row>
     <row r="2280">
-      <c r="A2280" t="inlineStr"/>
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2280" t="inlineStr"/>
       <c r="G2280" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2280" t="inlineStr">
@@ -73760,57 +73268,49 @@
       </c>
     </row>
     <row r="2281">
-      <c r="A2281" t="inlineStr"/>
-      <c r="B2281" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2281" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr"/>
+      <c r="C2281" t="inlineStr"/>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
+      <c r="E2281" t="inlineStr"/>
       <c r="F2281" t="inlineStr"/>
-      <c r="G2281" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr"/>
     </row>
     <row r="2282">
-      <c r="A2282" t="inlineStr"/>
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2282" t="inlineStr">
@@ -73822,21 +73322,37 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2283" t="inlineStr"/>
-      <c r="C2283" t="inlineStr"/>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>2-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D2283" t="inlineStr"/>
-      <c r="E2283" t="inlineStr"/>
+      <c r="E2283" t="inlineStr">
+        <is>
+          <t>2.670%</t>
+        </is>
+      </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
-      <c r="H2283" t="inlineStr"/>
+      <c r="H2283" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
@@ -73846,271 +73362,251 @@
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
       <c r="G2284" t="inlineStr"/>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2286" t="inlineStr"/>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr"/>
+      <c r="E2288" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2289" t="inlineStr"/>
-      <c r="G2289" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2290" t="inlineStr"/>
-      <c r="G2290" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
-      <c r="E2292" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
+      <c r="E2292" t="inlineStr"/>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr"/>
       <c r="H2292" t="inlineStr">
@@ -74122,69 +73618,57 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -74194,29 +73678,33 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
@@ -74228,67 +73716,71 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2296" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
@@ -74300,29 +73792,29 @@
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2298" t="inlineStr">
@@ -74334,143 +73826,143 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
-      <c r="E2300" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2300" t="inlineStr"/>
       <c r="F2300" t="inlineStr"/>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr"/>
-      <c r="C2301" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoY FlashJAN</t>
+        </is>
+      </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr"/>
+      <c r="E2301" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
-      <c r="H2301" t="inlineStr"/>
+      <c r="H2301" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
-      <c r="E2302" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2302" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2302" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="E2302" t="inlineStr"/>
+      <c r="F2302" t="inlineStr"/>
+      <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -74484,53 +73976,53 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
@@ -74544,87 +74036,91 @@
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr"/>
+      <c r="G2308" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74634,27 +74130,31 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr"/>
+      <c r="G2309" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74664,27 +74164,31 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr"/>
+      <c r="G2310" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74694,25 +74198,21 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2311" t="inlineStr"/>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
@@ -74724,17 +74224,17 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74750,95 +74250,79 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
-      <c r="E2313" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2313" t="inlineStr"/>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
-      <c r="E2314" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2314" t="inlineStr"/>
       <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2315" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
           <t>2</t>
@@ -74848,33 +74332,33 @@
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
@@ -74886,127 +74370,111 @@
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2317" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr"/>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2319" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2319" t="inlineStr"/>
       <c r="G2319" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
@@ -75015,54 +74483,50 @@
       <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2321" t="inlineStr"/>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr"/>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
@@ -75071,32 +74535,28 @@
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
@@ -75108,83 +74568,79 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
@@ -75198,23 +74654,23 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
@@ -75226,31 +74682,27 @@
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2328" t="inlineStr"/>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr">
         <is>
-          <t>$ 230B</t>
+          <t>43.0K</t>
         </is>
       </c>
       <c r="H2328" t="inlineStr">
@@ -75262,41 +74714,21 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2329" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr"/>
+      <c r="C2329" t="inlineStr"/>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr"/>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
@@ -75306,21 +74738,13 @@
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
           <t>3</t>
@@ -75330,17 +74754,17 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
@@ -75349,28 +74773,32 @@
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr"/>
       <c r="H2332" t="inlineStr">
@@ -75382,7 +74810,7 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
@@ -75392,11 +74820,15 @@
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr"/>
       <c r="H2333" t="inlineStr">
@@ -75408,21 +74840,25 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
@@ -75434,65 +74870,49 @@
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2335" t="inlineStr"/>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr"/>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2336" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2336" t="inlineStr"/>
+      <c r="F2336" t="inlineStr"/>
+      <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
           <t>2</t>
@@ -75502,101 +74922,105 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
@@ -75606,7 +75030,7 @@
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
@@ -75627,16 +75051,20 @@
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
+      <c r="E2341" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
@@ -75648,7 +75076,7 @@
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
@@ -75658,23 +75086,27 @@
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr"/>
+      <c r="G2342" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
@@ -75684,23 +75116,31 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr"/>
+      <c r="G2343" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
@@ -75710,13 +75150,21 @@
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr"/>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr"/>
+      <c r="G2344" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -75726,25 +75174,21 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2345" t="inlineStr"/>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
@@ -75756,23 +75200,23 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
@@ -75784,27 +75228,19 @@
       </c>
     </row>
     <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>11:15 PM</t>
-        </is>
-      </c>
+      <c r="A2347" t="inlineStr"/>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2347" t="inlineStr"/>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
@@ -75817,26 +75253,18 @@
       <c r="A2348" t="inlineStr"/>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2348" t="inlineStr"/>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2348" t="inlineStr"/>
       <c r="H2348" t="inlineStr">
         <is>
           <t>3</t>
@@ -75844,608 +75272,48 @@
       </c>
     </row>
     <row r="2349">
-      <c r="A2349" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2349" t="inlineStr"/>
-      <c r="C2349" t="inlineStr"/>
+      <c r="A2349" t="inlineStr"/>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>Imports PrelJAN</t>
+        </is>
+      </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr"/>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr"/>
-      <c r="H2349" t="inlineStr"/>
+      <c r="H2349" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2350">
-      <c r="A2350" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2350" t="inlineStr"/>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr"/>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2351">
-      <c r="A2351" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2351" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2351" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr"/>
-      <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
-      <c r="H2351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2352">
-      <c r="A2352" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2352" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2352" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2352" t="inlineStr"/>
-      <c r="G2352" t="inlineStr"/>
-      <c r="H2352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2353">
-      <c r="A2353" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B2353" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2353" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr"/>
-      <c r="G2353" t="inlineStr"/>
-      <c r="H2353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2354">
-      <c r="A2354" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2354" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2354" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr"/>
-      <c r="H2354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2355">
-      <c r="A2355" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2355" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2355" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr"/>
-      <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr"/>
-      <c r="H2355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2356">
-      <c r="A2356" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2356" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2356" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr"/>
-      <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr"/>
-      <c r="H2356" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2357">
-      <c r="A2357" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2357" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2357" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2358">
-      <c r="A2358" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2358" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2358" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2359">
-      <c r="A2359" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2359" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2359" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr"/>
-      <c r="H2359" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2360">
-      <c r="A2360" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B2360" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2360" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/01</t>
-        </is>
-      </c>
-      <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr"/>
-      <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr"/>
-      <c r="H2360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2361">
-      <c r="A2361" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2361" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2361" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr"/>
-      <c r="H2361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2362">
-      <c r="A2362" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2362" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2362" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsDEC</t>
-        </is>
-      </c>
-      <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="H2362" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2363">
-      <c r="A2363" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2365" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2365" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr"/>
-      <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr">
-        <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2366" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2366" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2367">
-      <c r="A2367" t="inlineStr"/>
-      <c r="B2367" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2367" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2367" t="inlineStr"/>
-      <c r="E2367" t="inlineStr"/>
-      <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
-      <c r="H2367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2368">
-      <c r="A2368" t="inlineStr"/>
-      <c r="B2368" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2368" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
-      <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
-      <c r="H2368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2369">
-      <c r="A2369" t="inlineStr"/>
-      <c r="B2369" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2369" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2369" t="inlineStr"/>
-      <c r="E2369" t="inlineStr"/>
-      <c r="F2369" t="inlineStr"/>
-      <c r="G2369" t="inlineStr"/>
-      <c r="H2369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2370">
-      <c r="A2370" t="inlineStr"/>
-      <c r="B2370" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2370" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr"/>
-      <c r="H2370" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2350"/>
+  <dimension ref="A1:H2329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70837,10 +70837,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -70875,10 +70873,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -70909,10 +70905,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70947,10 +70941,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2210">
@@ -70973,10 +70965,8 @@
       <c r="E2210" t="inlineStr"/>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2211">
@@ -71003,10 +70993,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71033,10 +71021,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71063,10 +71049,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71093,10 +71077,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71123,10 +71105,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71153,10 +71133,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71183,10 +71161,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71213,10 +71189,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71243,10 +71217,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71273,10 +71245,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71303,10 +71273,8 @@
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71333,10 +71301,8 @@
       </c>
       <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr"/>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71367,10 +71333,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71401,10 +71365,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71435,10 +71397,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71469,10 +71429,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71503,10 +71461,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71537,10 +71493,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71567,10 +71521,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71597,10 +71549,8 @@
       </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71627,10 +71577,8 @@
       </c>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr"/>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -71661,10 +71609,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -71695,10 +71641,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -71729,10 +71673,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71767,10 +71709,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2236">
@@ -71805,10 +71745,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -71839,10 +71777,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -71877,10 +71813,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -71915,10 +71849,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
@@ -71949,10 +71881,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -71987,10 +71917,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72025,10 +71953,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -72063,10 +71989,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2244">
@@ -72097,10 +72021,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72131,10 +72053,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72169,10 +72089,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72195,10 +72113,8 @@
       <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
       <c r="G2247" t="inlineStr"/>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72229,10 +72145,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -72263,10 +72177,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72297,10 +72209,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72335,10 +72245,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2252">
@@ -72369,10 +72277,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72399,10 +72305,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -72429,10 +72333,8 @@
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr"/>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72463,10 +72365,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -72497,10 +72397,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72531,10 +72429,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72561,10 +72457,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72591,10 +72485,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72621,10 +72513,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72651,10 +72541,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -72681,10 +72569,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -72725,10 +72611,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2265">
@@ -72759,10 +72643,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72793,10 +72675,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -72827,10 +72707,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -72853,10 +72731,8 @@
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72887,10 +72763,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -72921,10 +72795,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -72951,10 +72823,8 @@
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -72981,10 +72851,8 @@
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73015,10 +72883,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -73053,10 +72919,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2275">
@@ -73087,10 +72951,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73125,10 +72987,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2277">
@@ -73159,10 +73019,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2278">
@@ -73193,10 +73051,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -73227,10 +73083,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -73261,114 +73115,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr"/>
-      <c r="C2281" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr"/>
+      <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
@@ -73382,117 +73242,129 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2288" t="inlineStr">
         <is>
           <t>3</t>
@@ -73502,55 +73374,47 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -73562,47 +73426,43 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
-      <c r="E2291" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2291" t="inlineStr"/>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
@@ -73618,23 +73478,23 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
@@ -73648,27 +73508,35 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73678,73 +73546,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr"/>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>2</t>
@@ -73754,69 +73606,57 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -73826,55 +73666,43 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
+      <c r="F2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73883,54 +73711,50 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
@@ -73939,30 +73763,30 @@
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -73976,87 +73800,87 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2306" t="inlineStr"/>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74066,61 +73890,37 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr"/>
+      <c r="C2307" t="inlineStr"/>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2307" t="inlineStr"/>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74130,31 +73930,23 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74164,31 +73956,27 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74198,47 +73986,55 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr"/>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
@@ -74250,17 +74046,17 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
@@ -74276,17 +74072,17 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
@@ -74295,112 +74091,112 @@
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
@@ -74410,20 +74206,16 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
-      <c r="E2318" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74435,26 +74227,22 @@
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -74474,16 +74262,20 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr"/>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74500,23 +74292,31 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr"/>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74526,13 +74326,21 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -74542,7 +74350,7 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
@@ -74552,7 +74360,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
@@ -74568,7 +74376,7 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
@@ -74578,11 +74386,15 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74594,90 +74406,70 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
-      <c r="A2326" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
+      <c r="A2326" t="inlineStr"/>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2327">
-      <c r="A2327" t="inlineStr">
-        <is>
-          <t>11:15 PM</t>
-        </is>
-      </c>
+      <c r="A2327" t="inlineStr"/>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -74685,637 +74477,47 @@
       <c r="A2328" t="inlineStr"/>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
-      <c r="A2329" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr"/>
-      <c r="C2329" t="inlineStr"/>
+      <c r="A2329" t="inlineStr"/>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexJAN</t>
+        </is>
+      </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr"/>
-    </row>
-    <row r="2330">
-      <c r="A2330" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2330" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2330" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
-      <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
-      <c r="H2330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2331">
-      <c r="A2331" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2331" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2331" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr"/>
-      <c r="F2331" t="inlineStr"/>
-      <c r="G2331" t="inlineStr"/>
-      <c r="H2331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2332" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2332" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
-      <c r="H2332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B2333" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2333" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
-      <c r="H2333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2334" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2334" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
-      <c r="H2334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2335" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2335" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr"/>
-      <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
-      <c r="H2335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2336" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2336" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
-      <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr"/>
-      <c r="H2336" t="inlineStr">
+      <c r="H2329" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2337" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2337" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2338" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2339" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2339" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
-      <c r="H2339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B2340" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2340" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/01</t>
-        </is>
-      </c>
-      <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
-      <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
-      <c r="H2340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2341" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2341" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
-      <c r="H2341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2342" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2342" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsDEC</t>
-        </is>
-      </c>
-      <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr"/>
-      <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="H2342" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2345" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
-      <c r="H2345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr">
-        <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr"/>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
-      <c r="H2347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr"/>
-      <c r="B2348" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2348" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
-      <c r="H2348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2349">
-      <c r="A2349" t="inlineStr"/>
-      <c r="B2349" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2349" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
-      <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
-      <c r="H2349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2350">
-      <c r="A2350" t="inlineStr"/>
-      <c r="B2350" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2350" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
-      <c r="H2350" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2369"/>
+  <dimension ref="A1:H2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63805,10 +63805,8 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H1979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1980">
@@ -63835,10 +63833,8 @@
       </c>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr"/>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1981">
@@ -63865,10 +63861,8 @@
       </c>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr"/>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1982">
@@ -63895,10 +63889,8 @@
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr"/>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1983">
@@ -63929,10 +63921,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1984">
@@ -63963,10 +63953,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1985">
@@ -64001,10 +63989,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1985" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1986">
@@ -64039,10 +64025,8 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1987">
@@ -64077,10 +64061,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1988">
@@ -64107,10 +64089,8 @@
       </c>
       <c r="F1988" t="inlineStr"/>
       <c r="G1988" t="inlineStr"/>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -64137,10 +64117,8 @@
       </c>
       <c r="F1989" t="inlineStr"/>
       <c r="G1989" t="inlineStr"/>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1990">
@@ -64171,10 +64149,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1991">
@@ -64205,10 +64181,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1991" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1992">
@@ -64239,10 +64213,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1993">
@@ -64273,10 +64245,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1994">
@@ -64307,10 +64277,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1994" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1995">
@@ -64341,10 +64309,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1996">
@@ -64375,10 +64341,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1997">
@@ -64405,10 +64369,8 @@
       </c>
       <c r="F1997" t="inlineStr"/>
       <c r="G1997" t="inlineStr"/>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1998">
@@ -64435,10 +64397,8 @@
       </c>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr"/>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1999">
@@ -64465,10 +64425,8 @@
       </c>
       <c r="F1999" t="inlineStr"/>
       <c r="G1999" t="inlineStr"/>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2000">
@@ -64503,10 +64461,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2000" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2001">
@@ -64537,10 +64493,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2002">
@@ -64571,10 +64525,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2003">
@@ -64597,10 +64549,8 @@
       <c r="E2003" t="inlineStr"/>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr"/>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2003" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2004">
@@ -64627,10 +64577,8 @@
       </c>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr"/>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2005">
@@ -64657,10 +64605,8 @@
       </c>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr"/>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2006">
@@ -64687,10 +64633,8 @@
       </c>
       <c r="F2006" t="inlineStr"/>
       <c r="G2006" t="inlineStr"/>
-      <c r="H2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2007">
@@ -64717,10 +64661,8 @@
       </c>
       <c r="F2007" t="inlineStr"/>
       <c r="G2007" t="inlineStr"/>
-      <c r="H2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2008">
@@ -64751,10 +64693,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2008" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2009">
@@ -64785,10 +64725,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2009" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2010">
@@ -64815,10 +64753,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2010" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2011">
@@ -64837,10 +64773,8 @@
       <c r="E2011" t="inlineStr"/>
       <c r="F2011" t="inlineStr"/>
       <c r="G2011" t="inlineStr"/>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2011" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2012">
@@ -64871,10 +64805,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2012" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2013">
@@ -64905,10 +64837,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2013" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2014">
@@ -64935,10 +64865,8 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2014" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2015">
@@ -64979,10 +64907,8 @@
       </c>
       <c r="F2016" t="inlineStr"/>
       <c r="G2016" t="inlineStr"/>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2017">
@@ -65013,10 +64939,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2018">
@@ -65047,10 +64971,8 @@
           <t>-4.1%</t>
         </is>
       </c>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2019">
@@ -65081,10 +65003,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2020">
@@ -65115,10 +65035,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2021">
@@ -65153,10 +65071,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2021" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2022">
@@ -65191,10 +65107,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2022" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2023">
@@ -65221,10 +65135,8 @@
       </c>
       <c r="F2023" t="inlineStr"/>
       <c r="G2023" t="inlineStr"/>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2024">
@@ -65251,10 +65163,8 @@
       </c>
       <c r="F2024" t="inlineStr"/>
       <c r="G2024" t="inlineStr"/>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2025">
@@ -65281,10 +65191,8 @@
       </c>
       <c r="F2025" t="inlineStr"/>
       <c r="G2025" t="inlineStr"/>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2026">
@@ -65311,10 +65219,8 @@
       </c>
       <c r="F2026" t="inlineStr"/>
       <c r="G2026" t="inlineStr"/>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2027">
@@ -65341,10 +65247,8 @@
       </c>
       <c r="F2027" t="inlineStr"/>
       <c r="G2027" t="inlineStr"/>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2028">
@@ -65379,10 +65283,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2028" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2029">
@@ -65417,10 +65319,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2030">
@@ -65451,10 +65351,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2031">
@@ -65485,10 +65383,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2032">
@@ -65515,10 +65411,8 @@
       </c>
       <c r="F2032" t="inlineStr"/>
       <c r="G2032" t="inlineStr"/>
-      <c r="H2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2033">
@@ -65553,10 +65447,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2034">
@@ -65587,10 +65479,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2035">
@@ -65625,10 +65515,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2036">
@@ -65659,10 +65547,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2036" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2037">
@@ -65693,10 +65579,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2038">
@@ -65719,10 +65603,8 @@
       <c r="E2038" t="inlineStr"/>
       <c r="F2038" t="inlineStr"/>
       <c r="G2038" t="inlineStr"/>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2039">
@@ -65757,10 +65639,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2040">
@@ -65795,10 +65675,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2041">
@@ -65829,10 +65707,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2042">
@@ -65863,10 +65739,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2043">
@@ -65897,10 +65771,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2044">
@@ -65931,10 +65803,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2045">
@@ -65961,10 +65831,8 @@
       </c>
       <c r="F2045" t="inlineStr"/>
       <c r="G2045" t="inlineStr"/>
-      <c r="H2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2046">
@@ -65991,10 +65859,8 @@
       </c>
       <c r="F2046" t="inlineStr"/>
       <c r="G2046" t="inlineStr"/>
-      <c r="H2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2047">
@@ -66017,10 +65883,8 @@
       <c r="E2047" t="inlineStr"/>
       <c r="F2047" t="inlineStr"/>
       <c r="G2047" t="inlineStr"/>
-      <c r="H2047" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2047" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2048">
@@ -66047,10 +65911,8 @@
       </c>
       <c r="F2048" t="inlineStr"/>
       <c r="G2048" t="inlineStr"/>
-      <c r="H2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2049">
@@ -66077,10 +65939,8 @@
       </c>
       <c r="F2049" t="inlineStr"/>
       <c r="G2049" t="inlineStr"/>
-      <c r="H2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2050">
@@ -66107,10 +65967,8 @@
       </c>
       <c r="F2050" t="inlineStr"/>
       <c r="G2050" t="inlineStr"/>
-      <c r="H2050" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2050" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2051">
@@ -66133,10 +65991,8 @@
       <c r="E2051" t="inlineStr"/>
       <c r="F2051" t="inlineStr"/>
       <c r="G2051" t="inlineStr"/>
-      <c r="H2051" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2051" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2052">
@@ -66171,10 +66027,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2052" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2052" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2053">
@@ -66209,10 +66063,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2054">
@@ -66247,10 +66099,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2054" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2055">
@@ -66285,10 +66135,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2056">
@@ -66323,10 +66171,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2057">
@@ -66357,10 +66203,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2058">
@@ -66395,10 +66239,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2059">
@@ -66433,10 +66275,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2060">
@@ -66463,10 +66303,8 @@
       </c>
       <c r="F2060" t="inlineStr"/>
       <c r="G2060" t="inlineStr"/>
-      <c r="H2060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2061">
@@ -66515,10 +66353,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2063">
@@ -66553,10 +66389,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2064">
@@ -66591,10 +66425,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2064" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2064" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2065">
@@ -66625,10 +66457,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2065" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2065" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2066">
@@ -66659,10 +66489,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2067">
@@ -66697,10 +66525,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2068">
@@ -66735,10 +66561,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2069">
@@ -66769,10 +66593,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2069" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2070">
@@ -66803,10 +66625,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2071">
@@ -66833,10 +66653,8 @@
       </c>
       <c r="F2071" t="inlineStr"/>
       <c r="G2071" t="inlineStr"/>
-      <c r="H2071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2072">
@@ -66863,10 +66681,8 @@
       </c>
       <c r="F2072" t="inlineStr"/>
       <c r="G2072" t="inlineStr"/>
-      <c r="H2072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2073">
@@ -66893,10 +66709,8 @@
       </c>
       <c r="F2073" t="inlineStr"/>
       <c r="G2073" t="inlineStr"/>
-      <c r="H2073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2074">
@@ -66927,10 +66741,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2075">
@@ -66957,10 +66769,8 @@
       </c>
       <c r="F2075" t="inlineStr"/>
       <c r="G2075" t="inlineStr"/>
-      <c r="H2075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2076">
@@ -66987,10 +66797,8 @@
       </c>
       <c r="F2076" t="inlineStr"/>
       <c r="G2076" t="inlineStr"/>
-      <c r="H2076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2077">
@@ -67017,10 +66825,8 @@
       </c>
       <c r="F2077" t="inlineStr"/>
       <c r="G2077" t="inlineStr"/>
-      <c r="H2077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2078">
@@ -67047,10 +66853,8 @@
       </c>
       <c r="F2078" t="inlineStr"/>
       <c r="G2078" t="inlineStr"/>
-      <c r="H2078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2079">
@@ -67077,10 +66881,8 @@
       </c>
       <c r="F2079" t="inlineStr"/>
       <c r="G2079" t="inlineStr"/>
-      <c r="H2079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2080">
@@ -67115,10 +66917,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2080" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2081">
@@ -67149,10 +66949,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2082">
@@ -67187,10 +66985,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2083">
@@ -67225,10 +67021,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2083" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2083" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2084">
@@ -67251,10 +67045,8 @@
       <c r="E2084" t="inlineStr"/>
       <c r="F2084" t="inlineStr"/>
       <c r="G2084" t="inlineStr"/>
-      <c r="H2084" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2084" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2085">
@@ -67277,10 +67069,8 @@
       <c r="E2085" t="inlineStr"/>
       <c r="F2085" t="inlineStr"/>
       <c r="G2085" t="inlineStr"/>
-      <c r="H2085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2086">
@@ -67307,10 +67097,8 @@
       </c>
       <c r="F2086" t="inlineStr"/>
       <c r="G2086" t="inlineStr"/>
-      <c r="H2086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2087">
@@ -67337,10 +67125,8 @@
       </c>
       <c r="F2087" t="inlineStr"/>
       <c r="G2087" t="inlineStr"/>
-      <c r="H2087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2088">
@@ -67367,10 +67153,8 @@
       </c>
       <c r="F2088" t="inlineStr"/>
       <c r="G2088" t="inlineStr"/>
-      <c r="H2088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2089">
@@ -67397,10 +67181,8 @@
       </c>
       <c r="F2089" t="inlineStr"/>
       <c r="G2089" t="inlineStr"/>
-      <c r="H2089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2090">
@@ -67427,10 +67209,8 @@
       </c>
       <c r="F2090" t="inlineStr"/>
       <c r="G2090" t="inlineStr"/>
-      <c r="H2090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2091">
@@ -67457,10 +67237,8 @@
       </c>
       <c r="F2091" t="inlineStr"/>
       <c r="G2091" t="inlineStr"/>
-      <c r="H2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -67487,10 +67265,8 @@
       </c>
       <c r="F2092" t="inlineStr"/>
       <c r="G2092" t="inlineStr"/>
-      <c r="H2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -67517,10 +67293,8 @@
       </c>
       <c r="F2093" t="inlineStr"/>
       <c r="G2093" t="inlineStr"/>
-      <c r="H2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -67547,10 +67321,8 @@
       </c>
       <c r="F2094" t="inlineStr"/>
       <c r="G2094" t="inlineStr"/>
-      <c r="H2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -67581,10 +67353,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -67615,10 +67385,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2097">
@@ -67645,10 +67413,8 @@
       </c>
       <c r="F2097" t="inlineStr"/>
       <c r="G2097" t="inlineStr"/>
-      <c r="H2097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2098">
@@ -67683,10 +67449,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2098" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2098" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2099">
@@ -67709,10 +67473,8 @@
       <c r="E2099" t="inlineStr"/>
       <c r="F2099" t="inlineStr"/>
       <c r="G2099" t="inlineStr"/>
-      <c r="H2099" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2099" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2100">
@@ -67743,10 +67505,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2101">
@@ -67773,10 +67533,8 @@
       </c>
       <c r="F2101" t="inlineStr"/>
       <c r="G2101" t="inlineStr"/>
-      <c r="H2101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2102">
@@ -67803,10 +67561,8 @@
       </c>
       <c r="F2102" t="inlineStr"/>
       <c r="G2102" t="inlineStr"/>
-      <c r="H2102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2103">
@@ -67837,10 +67593,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2104">
@@ -67863,10 +67617,8 @@
       <c r="E2104" t="inlineStr"/>
       <c r="F2104" t="inlineStr"/>
       <c r="G2104" t="inlineStr"/>
-      <c r="H2104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2104" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2105">
@@ -67897,10 +67649,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -67935,10 +67685,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2107">
@@ -67961,10 +67709,8 @@
       <c r="E2107" t="inlineStr"/>
       <c r="F2107" t="inlineStr"/>
       <c r="G2107" t="inlineStr"/>
-      <c r="H2107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2107" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2108">
@@ -68009,10 +67755,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2109" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2110">
@@ -68039,10 +67783,8 @@
       </c>
       <c r="F2110" t="inlineStr"/>
       <c r="G2110" t="inlineStr"/>
-      <c r="H2110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2111">
@@ -68073,10 +67815,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2112">
@@ -68099,10 +67839,8 @@
       <c r="E2112" t="inlineStr"/>
       <c r="F2112" t="inlineStr"/>
       <c r="G2112" t="inlineStr"/>
-      <c r="H2112" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2112" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2113">
@@ -68137,10 +67875,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2114">
@@ -68171,10 +67907,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2115">
@@ -68209,10 +67943,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2116">
@@ -68247,10 +67979,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -68281,10 +68011,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -68315,10 +68043,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -68349,10 +68075,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2120">
@@ -68387,10 +68111,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2121">
@@ -68421,10 +68143,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2122">
@@ -68455,10 +68175,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
@@ -68489,10 +68207,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -68527,10 +68243,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2125">
@@ -68565,10 +68279,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2126">
@@ -68603,10 +68315,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2127">
@@ -68637,10 +68347,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2128">
@@ -68671,10 +68379,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2129">
@@ -68705,10 +68411,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2130">
@@ -68739,10 +68443,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2130" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2130" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2131">
@@ -68777,10 +68479,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2131" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2131" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2132">
@@ -68811,10 +68511,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2133">
@@ -68849,10 +68547,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2134">
@@ -68887,10 +68583,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2135">
@@ -68925,10 +68619,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2135" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2136">
@@ -68963,10 +68655,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2137">
@@ -68997,10 +68687,8 @@
         </is>
       </c>
       <c r="G2137" t="inlineStr"/>
-      <c r="H2137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2137" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2138">
@@ -69035,10 +68723,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2138" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2139">
@@ -69073,10 +68759,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2139" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2140">
@@ -69107,10 +68791,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2141">
@@ -69141,10 +68823,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2141" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2142">
@@ -69175,10 +68855,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2143">
@@ -69209,10 +68887,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2144">
@@ -69247,10 +68923,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2144" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2145">
@@ -69273,10 +68947,8 @@
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
       <c r="G2145" t="inlineStr"/>
-      <c r="H2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2146">
@@ -69307,10 +68979,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2147">
@@ -69341,10 +69011,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2148">
@@ -69375,10 +69043,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2149">
@@ -69401,10 +69067,8 @@
       <c r="E2149" t="inlineStr"/>
       <c r="F2149" t="inlineStr"/>
       <c r="G2149" t="inlineStr"/>
-      <c r="H2149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2149" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2150">
@@ -69431,10 +69095,8 @@
       </c>
       <c r="F2150" t="inlineStr"/>
       <c r="G2150" t="inlineStr"/>
-      <c r="H2150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2150" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2151">
@@ -69465,10 +69127,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2151" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2152">
@@ -69499,10 +69159,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2152" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2152" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2153">
@@ -69533,10 +69191,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2153" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2154">
@@ -69567,10 +69223,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2154" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2155">
@@ -69605,10 +69259,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2155" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2156">
@@ -69639,10 +69291,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2156" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2157">
@@ -69677,10 +69327,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2157" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2158">
@@ -69715,10 +69363,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2158" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2159">
@@ -69749,10 +69395,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2159" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2160">
@@ -69783,10 +69427,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2160" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2161">
@@ -69821,10 +69463,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2161" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2162">
@@ -69859,10 +69499,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2162" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2163">
@@ -69897,10 +69535,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2163" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2164">
@@ -69931,10 +69567,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2164" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2165">
@@ -69965,10 +69599,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2165" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2166">
@@ -69999,10 +69631,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2166" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2167">
@@ -70033,10 +69663,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2167" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2168">
@@ -70067,10 +69695,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2169">
@@ -70101,10 +69727,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2170">
@@ -70127,10 +69751,8 @@
       <c r="E2170" t="inlineStr"/>
       <c r="F2170" t="inlineStr"/>
       <c r="G2170" t="inlineStr"/>
-      <c r="H2170" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2170" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2171">
@@ -70165,10 +69787,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2172">
@@ -70199,10 +69819,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2173">
@@ -70229,10 +69847,8 @@
       </c>
       <c r="F2173" t="inlineStr"/>
       <c r="G2173" t="inlineStr"/>
-      <c r="H2173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2174">
@@ -70259,10 +69875,8 @@
       </c>
       <c r="F2174" t="inlineStr"/>
       <c r="G2174" t="inlineStr"/>
-      <c r="H2174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2175">
@@ -70289,10 +69903,8 @@
       </c>
       <c r="F2175" t="inlineStr"/>
       <c r="G2175" t="inlineStr"/>
-      <c r="H2175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2176">
@@ -70319,10 +69931,8 @@
       </c>
       <c r="F2176" t="inlineStr"/>
       <c r="G2176" t="inlineStr"/>
-      <c r="H2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2177">
@@ -70349,10 +69959,8 @@
       </c>
       <c r="F2177" t="inlineStr"/>
       <c r="G2177" t="inlineStr"/>
-      <c r="H2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2178">
@@ -70379,10 +69987,8 @@
       </c>
       <c r="F2178" t="inlineStr"/>
       <c r="G2178" t="inlineStr"/>
-      <c r="H2178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2179">
@@ -70417,10 +70023,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H2179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2180">
@@ -70455,10 +70059,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2181">
@@ -70493,10 +70095,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2182">
@@ -70527,10 +70127,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2183">
@@ -70561,10 +70159,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2184">
@@ -70599,10 +70195,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2185">
@@ -70637,10 +70231,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2186">
@@ -70671,10 +70263,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2187">
@@ -70705,10 +70295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2188">
@@ -70739,10 +70327,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2189">
@@ -70777,10 +70363,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2190">
@@ -70811,10 +70395,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2191">
@@ -70845,10 +70427,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -70879,10 +70459,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2193">
@@ -70913,10 +70491,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2194">
@@ -70943,10 +70519,8 @@
       </c>
       <c r="F2194" t="inlineStr"/>
       <c r="G2194" t="inlineStr"/>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2195">
@@ -70973,10 +70547,8 @@
       </c>
       <c r="F2195" t="inlineStr"/>
       <c r="G2195" t="inlineStr"/>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2196">
@@ -71003,10 +70575,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2197">
@@ -71033,10 +70603,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2198">
@@ -71063,10 +70631,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2199">
@@ -71089,10 +70655,8 @@
       </c>
       <c r="F2199" t="inlineStr"/>
       <c r="G2199" t="inlineStr"/>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2200">
@@ -71115,10 +70679,8 @@
       </c>
       <c r="F2200" t="inlineStr"/>
       <c r="G2200" t="inlineStr"/>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2201">
@@ -71145,10 +70707,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2202">
@@ -71175,10 +70735,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2203">
@@ -71205,164 +70763,170 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
       <c r="A2204" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2204" t="inlineStr"/>
-      <c r="C2204" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>Tourist Arrivals YoYDEC</t>
+        </is>
+      </c>
       <c r="D2204" t="inlineStr"/>
-      <c r="E2204" t="inlineStr"/>
+      <c r="E2204" t="inlineStr">
+        <is>
+          <t>8.25%</t>
+        </is>
+      </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr"/>
+      <c r="H2204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2205">
       <c r="A2205" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2205" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2205" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2205" t="inlineStr"/>
       <c r="E2205" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2205" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="G2205" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H2205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2206" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2206" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2206" t="inlineStr"/>
       <c r="E2206" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2207" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2207" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2207" t="inlineStr"/>
       <c r="E2207" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F2207" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2207" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G2207" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2208" t="inlineStr"/>
-      <c r="E2208" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2208" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2208" t="inlineStr"/>
+      <c r="F2208" t="inlineStr"/>
+      <c r="G2208" t="inlineStr"/>
       <c r="H2208" t="inlineStr">
         <is>
           <t>2</t>
@@ -71372,7 +70936,7 @@
     <row r="2209">
       <c r="A2209" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2209" t="inlineStr">
@@ -71382,93 +70946,77 @@
       </c>
       <c r="C2209" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2209" t="inlineStr"/>
       <c r="E2209" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2209" t="inlineStr"/>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2209" t="inlineStr"/>
       <c r="H2209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2210" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2210" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2210" t="inlineStr"/>
       <c r="E2210" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2210" t="inlineStr"/>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2210" t="inlineStr"/>
       <c r="H2210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2211">
       <c r="A2211" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2211" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2211" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2211" t="inlineStr"/>
       <c r="E2211" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2211" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2211" t="inlineStr"/>
+      <c r="G2211" t="inlineStr"/>
       <c r="H2211" t="inlineStr">
         <is>
           <t>3</t>
@@ -71478,31 +71026,27 @@
     <row r="2212">
       <c r="A2212" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2212" t="inlineStr"/>
       <c r="E2212" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2212" t="inlineStr"/>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2212" t="inlineStr"/>
       <c r="H2212" t="inlineStr">
         <is>
           <t>3</t>
@@ -71512,31 +71056,27 @@
     <row r="2213">
       <c r="A2213" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2213" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2213" t="inlineStr"/>
       <c r="E2213" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2213" t="inlineStr"/>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2213" t="inlineStr"/>
       <c r="H2213" t="inlineStr">
         <is>
           <t>3</t>
@@ -71546,171 +71086,147 @@
     <row r="2214">
       <c r="A2214" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2214" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2214" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2214" t="inlineStr"/>
       <c r="E2214" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2214" t="inlineStr"/>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2214" t="inlineStr"/>
       <c r="H2214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2215">
       <c r="A2215" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2215" t="inlineStr"/>
       <c r="E2215" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2215" t="inlineStr"/>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2215" t="inlineStr"/>
       <c r="H2215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2216">
       <c r="A2216" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2216" t="inlineStr"/>
       <c r="E2216" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2216" t="inlineStr"/>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2216" t="inlineStr"/>
       <c r="H2216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2217" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2217" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2217" t="inlineStr"/>
       <c r="E2217" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2217" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2217" t="inlineStr"/>
+      <c r="G2217" t="inlineStr"/>
       <c r="H2217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2218" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2218" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2218" t="inlineStr"/>
       <c r="E2218" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2218" t="inlineStr"/>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2218" t="inlineStr"/>
       <c r="H2218" t="inlineStr">
         <is>
           <t>3</t>
@@ -71720,31 +71236,27 @@
     <row r="2219">
       <c r="A2219" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2219" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2219" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2219" t="inlineStr"/>
       <c r="E2219" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2219" t="inlineStr"/>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G2219" t="inlineStr"/>
       <c r="H2219" t="inlineStr">
         <is>
           <t>3</t>
@@ -71754,17 +71266,17 @@
     <row r="2220">
       <c r="A2220" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2220" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2220" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2220" t="inlineStr"/>
@@ -71774,11 +71286,7 @@
         </is>
       </c>
       <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2220" t="inlineStr"/>
       <c r="H2220" t="inlineStr">
         <is>
           <t>3</t>
@@ -71788,29 +71296,29 @@
     <row r="2221">
       <c r="A2221" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2221" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2221" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2221" t="inlineStr"/>
       <c r="E2221" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2221" t="inlineStr">
@@ -71822,23 +71330,23 @@
     <row r="2222">
       <c r="A2222" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2222" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2222" t="inlineStr"/>
       <c r="E2222" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2222" t="inlineStr"/>
@@ -71856,23 +71364,23 @@
     <row r="2223">
       <c r="A2223" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2223" t="inlineStr"/>
       <c r="E2223" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2223" t="inlineStr"/>
@@ -71890,27 +71398,31 @@
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2224" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2224" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2224" t="inlineStr"/>
       <c r="E2224" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2224" t="inlineStr"/>
-      <c r="G2224" t="inlineStr"/>
+      <c r="G2224" t="inlineStr">
+        <is>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
       <c r="H2224" t="inlineStr">
         <is>
           <t>3</t>
@@ -71920,159 +71432,151 @@
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2225" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2225" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2225" t="inlineStr"/>
       <c r="E2225" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2225" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>77.7%</t>
+        </is>
+      </c>
+      <c r="F2225" t="inlineStr"/>
       <c r="G2225" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2225" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2226" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2226" t="inlineStr"/>
       <c r="E2226" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2226" t="inlineStr"/>
       <c r="G2226" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2227">
       <c r="A2227" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2227" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2227" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2227" t="inlineStr"/>
       <c r="E2227" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2227" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2227" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2227" t="inlineStr"/>
+      <c r="G2227" t="inlineStr"/>
       <c r="H2227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2228" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2228" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2228" t="inlineStr"/>
-      <c r="E2228" t="inlineStr"/>
+      <c r="E2228" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr"/>
       <c r="H2228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2229" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2229" t="inlineStr"/>
       <c r="E2229" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2229" t="inlineStr"/>
@@ -72086,27 +71590,31 @@
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2230" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2230" t="inlineStr"/>
       <c r="E2230" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2230" t="inlineStr"/>
-      <c r="G2230" t="inlineStr"/>
+      <c r="G2230" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2230" t="inlineStr">
         <is>
           <t>3</t>
@@ -72116,67 +71624,75 @@
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2231" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2231" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2231" t="inlineStr"/>
       <c r="E2231" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2231" t="inlineStr"/>
-      <c r="G2231" t="inlineStr"/>
+      <c r="G2231" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2231" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2232" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2232" t="inlineStr"/>
       <c r="E2232" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2232" t="inlineStr"/>
-      <c r="G2232" t="inlineStr"/>
+      <c r="G2232" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2232" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
@@ -72186,27 +71702,35 @@
       </c>
       <c r="C2233" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2233" t="inlineStr"/>
       <c r="E2233" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2233" t="inlineStr"/>
-      <c r="G2233" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2233" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2233" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
@@ -72216,27 +71740,35 @@
       </c>
       <c r="C2234" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2234" t="inlineStr"/>
       <c r="E2234" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2234" t="inlineStr"/>
-      <c r="G2234" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2234" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2234" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2234" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
@@ -72246,17 +71778,21 @@
       </c>
       <c r="C2235" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2235" t="inlineStr"/>
       <c r="E2235" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2235" t="inlineStr"/>
-      <c r="G2235" t="inlineStr"/>
+      <c r="G2235" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2235" t="inlineStr">
         <is>
           <t>3</t>
@@ -72266,7 +71802,7 @@
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
@@ -72276,17 +71812,25 @@
       </c>
       <c r="C2236" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2236" t="inlineStr"/>
       <c r="E2236" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2236" t="inlineStr"/>
-      <c r="G2236" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2236" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2236" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2236" t="inlineStr">
         <is>
           <t>3</t>
@@ -72296,381 +71840,417 @@
     <row r="2237">
       <c r="A2237" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2237" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2237" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2237" t="inlineStr"/>
       <c r="E2237" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2237" t="inlineStr"/>
-      <c r="G2237" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2237" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2237" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2238" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2238" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2238" t="inlineStr"/>
       <c r="E2238" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2238" t="inlineStr"/>
-      <c r="G2238" t="inlineStr"/>
+      <c r="G2238" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2238" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2239" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2239" t="inlineStr"/>
       <c r="E2239" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2239" t="inlineStr"/>
-      <c r="G2239" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2239" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2239" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2239" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2240" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2240" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2240" t="inlineStr"/>
       <c r="E2240" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2240" t="inlineStr"/>
-      <c r="G2240" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2240" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2240" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2241">
       <c r="A2241" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2241" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2241" t="inlineStr"/>
       <c r="E2241" t="inlineStr">
         <is>
-          <t>€4.9B</t>
-        </is>
-      </c>
-      <c r="F2241" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2241" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2241" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2241" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2242" t="inlineStr"/>
       <c r="E2242" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2242" t="inlineStr"/>
       <c r="G2242" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2242" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2243" t="inlineStr"/>
       <c r="E2243" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2243" t="inlineStr"/>
       <c r="G2243" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2243" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2244" t="inlineStr"/>
       <c r="E2244" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
-      <c r="F2244" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2244" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2244" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2244" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2245" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2245" t="inlineStr"/>
-      <c r="E2245" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="E2245" t="inlineStr"/>
       <c r="F2245" t="inlineStr"/>
-      <c r="G2245" t="inlineStr">
-        <is>
-          <t>77.9%</t>
-        </is>
-      </c>
+      <c r="G2245" t="inlineStr"/>
       <c r="H2245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2246" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2246" t="inlineStr"/>
       <c r="E2246" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2246" t="inlineStr"/>
       <c r="G2246" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2247" t="inlineStr"/>
       <c r="E2247" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2247" t="inlineStr"/>
-      <c r="G2247" t="inlineStr"/>
+      <c r="G2247" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2248" t="inlineStr"/>
       <c r="E2248" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2248" t="inlineStr"/>
-      <c r="G2248" t="inlineStr"/>
+      <c r="G2248" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2248" t="inlineStr">
         <is>
           <t>3</t>
@@ -72680,59 +72260,67 @@
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2249" t="inlineStr"/>
       <c r="E2249" t="inlineStr">
         <is>
-          <t>$623.98B</t>
-        </is>
-      </c>
-      <c r="F2249" t="inlineStr"/>
-      <c r="G2249" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2249" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2249" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2250" t="inlineStr"/>
       <c r="E2250" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2250" t="inlineStr"/>
       <c r="G2250" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2250" t="inlineStr">
@@ -72744,173 +72332,157 @@
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2251" t="inlineStr"/>
       <c r="E2251" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2251" t="inlineStr"/>
-      <c r="G2251" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2251" t="inlineStr"/>
       <c r="H2251" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2252" t="inlineStr"/>
       <c r="E2252" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2252" t="inlineStr"/>
-      <c r="G2252" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
+      <c r="G2252" t="inlineStr"/>
       <c r="H2252" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2253" t="inlineStr"/>
       <c r="E2253" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2253" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2253" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2254" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2255" t="inlineStr"/>
       <c r="G2255" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2255" t="inlineStr">
@@ -72920,35 +72492,27 @@
       </c>
     </row>
     <row r="2256">
-      <c r="A2256" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A2256" t="inlineStr"/>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2256" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2256" t="inlineStr"/>
       <c r="G2256" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2256" t="inlineStr">
@@ -72958,219 +72522,163 @@
       </c>
     </row>
     <row r="2257">
-      <c r="A2257" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2257" t="inlineStr"/>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2257" t="inlineStr"/>
       <c r="E2257" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2257" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2257" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2258">
-      <c r="A2258" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2258" t="inlineStr"/>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2258" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2259">
-      <c r="A2259" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2259" t="inlineStr"/>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2259" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2260">
-      <c r="A2260" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2260" t="inlineStr"/>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2260" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2260" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2261" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2261" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr"/>
+      <c r="C2261" t="inlineStr"/>
       <c r="D2261" t="inlineStr"/>
-      <c r="E2261" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2261" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2261" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E2261" t="inlineStr"/>
+      <c r="F2261" t="inlineStr"/>
+      <c r="G2261" t="inlineStr"/>
+      <c r="H2261" t="inlineStr"/>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2262" t="inlineStr"/>
       <c r="H2262" t="inlineStr">
         <is>
           <t>2</t>
@@ -73180,129 +72688,125 @@
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
       <c r="G2263" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2263" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2264" t="inlineStr"/>
+      <c r="G2264" t="inlineStr">
+        <is>
           <t>0.8%</t>
         </is>
       </c>
-      <c r="F2264" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
       <c r="H2264" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
-      <c r="E2265" t="inlineStr"/>
+      <c r="E2265" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr"/>
+      <c r="G2265" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2265" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
-      <c r="E2266" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2266" t="inlineStr"/>
       <c r="H2266" t="inlineStr">
         <is>
           <t>2</t>
@@ -73312,29 +72816,29 @@
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
       <c r="G2267" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2267" t="inlineStr">
@@ -73346,103 +72850,91 @@
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2269" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2269" t="inlineStr"/>
+      <c r="G2269" t="inlineStr"/>
       <c r="H2269" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
+      <c r="G2270" t="inlineStr"/>
       <c r="H2270" t="inlineStr">
         <is>
           <t>3</t>
@@ -73452,27 +72944,31 @@
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2271" t="inlineStr"/>
-      <c r="G2271" t="inlineStr"/>
+      <c r="G2271" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="H2271" t="inlineStr">
         <is>
           <t>3</t>
@@ -73482,37 +72978,45 @@
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2272" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G2272" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H2272" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
@@ -73522,19 +73026,19 @@
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2273" t="inlineStr"/>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2273" t="inlineStr">
@@ -73546,93 +73050,101 @@
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2274" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2275" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2276">
-      <c r="A2276" t="inlineStr"/>
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2276" t="inlineStr"/>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2276" t="inlineStr">
@@ -73642,27 +73154,31 @@
       </c>
     </row>
     <row r="2277">
-      <c r="A2277" t="inlineStr"/>
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2277" t="inlineStr">
@@ -73672,27 +73188,31 @@
       </c>
     </row>
     <row r="2278">
-      <c r="A2278" t="inlineStr"/>
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2278" t="inlineStr">
@@ -73702,57 +73222,49 @@
       </c>
     </row>
     <row r="2279">
-      <c r="A2279" t="inlineStr"/>
-      <c r="B2279" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2279" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr"/>
+      <c r="C2279" t="inlineStr"/>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
+      <c r="E2279" t="inlineStr"/>
       <c r="F2279" t="inlineStr"/>
-      <c r="G2279" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2279" t="inlineStr"/>
+      <c r="H2279" t="inlineStr"/>
     </row>
     <row r="2280">
-      <c r="A2280" t="inlineStr"/>
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2280" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2280" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2280" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2280" t="inlineStr">
@@ -73764,21 +73276,37 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr"/>
-      <c r="C2281" t="inlineStr"/>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>2-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>2.670%</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
@@ -73788,271 +73316,251 @@
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
-      <c r="G2283" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2284" t="inlineStr"/>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
-      <c r="E2286" t="inlineStr"/>
+      <c r="E2286" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="F2286" t="inlineStr"/>
       <c r="G2286" t="inlineStr"/>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -74064,69 +73572,57 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
-      <c r="G2291" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2292" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="G2292" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2292" t="inlineStr"/>
+      <c r="G2292" t="inlineStr"/>
       <c r="H2292" t="inlineStr">
         <is>
           <t>2</t>
@@ -74136,29 +73632,33 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2293" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2293" t="inlineStr">
@@ -74170,67 +73670,71 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2294" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2294" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2294" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
@@ -74242,29 +73746,29 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2296" t="inlineStr">
@@ -74276,143 +73780,143 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2299" t="inlineStr"/>
-      <c r="C2299" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoY FlashJAN</t>
+        </is>
+      </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr"/>
+      <c r="E2299" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
-      <c r="H2299" t="inlineStr"/>
+      <c r="H2299" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
-      <c r="E2300" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2300" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="E2300" t="inlineStr"/>
+      <c r="F2300" t="inlineStr"/>
+      <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
@@ -74426,53 +73930,53 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -74486,87 +73990,91 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74576,27 +74084,31 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr"/>
+      <c r="G2307" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2307" t="inlineStr">
         <is>
           <t>3</t>
@@ -74606,27 +74118,31 @@
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr"/>
+      <c r="G2308" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74636,25 +74152,21 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
@@ -74666,17 +74178,17 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
@@ -74692,95 +74204,79 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2311" t="inlineStr"/>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2312" t="inlineStr"/>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2313" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2313" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2313" t="inlineStr"/>
+      <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
         <is>
           <t>2</t>
@@ -74790,33 +74286,33 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
@@ -74828,127 +74324,111 @@
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2315" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2317" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
@@ -74957,54 +74437,50 @@
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2319" t="inlineStr"/>
       <c r="F2319" t="inlineStr"/>
       <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
@@ -75013,32 +74489,28 @@
       <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2321" t="inlineStr"/>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr"/>
       <c r="H2321" t="inlineStr">
@@ -75050,83 +74522,79 @@
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2322" t="inlineStr"/>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr"/>
@@ -75140,23 +74608,23 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
@@ -75168,31 +74636,27 @@
       </c>
     </row>
     <row r="2326">
-      <c r="A2326" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2326" t="inlineStr"/>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr">
         <is>
-          <t>$ 230B</t>
+          <t>43.0K</t>
         </is>
       </c>
       <c r="H2326" t="inlineStr">
@@ -75204,41 +74668,21 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2327" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr"/>
+      <c r="C2327" t="inlineStr"/>
       <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
-      <c r="G2327" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2327" t="inlineStr"/>
+      <c r="H2327" t="inlineStr"/>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
@@ -75248,21 +74692,13 @@
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
           <t>3</t>
@@ -75272,17 +74708,17 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
@@ -75291,28 +74727,32 @@
       <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
@@ -75324,7 +74764,7 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
@@ -75334,11 +74774,15 @@
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
@@ -75350,21 +74794,25 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr"/>
       <c r="H2332" t="inlineStr">
@@ -75376,65 +74824,49 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2333" t="inlineStr"/>
       <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr"/>
       <c r="H2333" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2334" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2334" t="inlineStr"/>
+      <c r="F2334" t="inlineStr"/>
+      <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
         <is>
           <t>2</t>
@@ -75444,101 +74876,105 @@
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr"/>
+      <c r="G2336" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2337" t="inlineStr"/>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
@@ -75548,7 +74984,7 @@
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
@@ -75569,16 +75005,20 @@
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
+      <c r="E2339" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2339" t="inlineStr"/>
       <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr">
@@ -75590,7 +75030,7 @@
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
@@ -75600,23 +75040,27 @@
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
@@ -75626,23 +75070,31 @@
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
+      <c r="E2341" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
@@ -75652,13 +75104,21 @@
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr"/>
+      <c r="E2342" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr"/>
+      <c r="G2342" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2342" t="inlineStr">
         <is>
           <t>3</t>
@@ -75668,25 +75128,21 @@
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2343" t="inlineStr"/>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
@@ -75698,23 +75154,23 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
@@ -75728,91 +75184,87 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2345" t="inlineStr"/>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr"/>
+      <c r="F2346" t="inlineStr"/>
+      <c r="G2346" t="inlineStr"/>
+      <c r="H2346" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr"/>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2347" t="inlineStr"/>
-      <c r="C2347" t="inlineStr"/>
+      <c r="A2347" t="inlineStr"/>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr"/>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr"/>
-      <c r="H2347" t="inlineStr"/>
+      <c r="H2347" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2348">
-      <c r="A2348" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2348" t="inlineStr"/>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
@@ -75826,19 +75278,15 @@
       </c>
     </row>
     <row r="2349">
-      <c r="A2349" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2349" t="inlineStr"/>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
@@ -75852,25 +75300,21 @@
       </c>
     </row>
     <row r="2350">
-      <c r="A2350" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2350" t="inlineStr"/>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>2.705%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
@@ -75878,544 +75322,6 @@
       <c r="H2350" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2351">
-      <c r="A2351" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B2351" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2351" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
-      <c r="H2351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2352">
-      <c r="A2352" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2352" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2352" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2352" t="inlineStr"/>
-      <c r="G2352" t="inlineStr"/>
-      <c r="H2352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2353">
-      <c r="A2353" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2353" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2353" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr"/>
-      <c r="F2353" t="inlineStr"/>
-      <c r="G2353" t="inlineStr"/>
-      <c r="H2353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2354">
-      <c r="A2354" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2354" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2354" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr"/>
-      <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr"/>
-      <c r="H2354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2355">
-      <c r="A2355" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2355" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2355" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2356">
-      <c r="A2356" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2356" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2356" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2357">
-      <c r="A2357" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2357" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2357" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr"/>
-      <c r="H2357" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2358">
-      <c r="A2358" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B2358" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2358" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/01</t>
-        </is>
-      </c>
-      <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr"/>
-      <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr"/>
-      <c r="H2358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2359">
-      <c r="A2359" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2359" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2359" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr"/>
-      <c r="H2359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2360">
-      <c r="A2360" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2360" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2360" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsDEC</t>
-        </is>
-      </c>
-      <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr"/>
-      <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="H2360" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2361">
-      <c r="A2361" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2361" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2361" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2361" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2362">
-      <c r="A2362" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2362" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2362" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2363">
-      <c r="A2363" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
-      <c r="H2363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr">
-        <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2365" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2365" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr"/>
-      <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr"/>
-      <c r="B2366" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2366" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2367">
-      <c r="A2367" t="inlineStr"/>
-      <c r="B2367" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2367" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2367" t="inlineStr"/>
-      <c r="E2367" t="inlineStr"/>
-      <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
-      <c r="H2367" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2368">
-      <c r="A2368" t="inlineStr"/>
-      <c r="B2368" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2368" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
-      <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
-      <c r="H2368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2369">
-      <c r="A2369" t="inlineStr"/>
-      <c r="B2369" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2369" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2369" t="inlineStr"/>
-      <c r="E2369" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2369" t="inlineStr"/>
-      <c r="G2369" t="inlineStr"/>
-      <c r="H2369" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2350"/>
+  <dimension ref="A1:H2331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70791,10 +70791,8 @@
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -70829,10 +70827,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2206">
@@ -70863,10 +70859,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2207">
@@ -70901,10 +70895,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2208">
@@ -70927,10 +70919,8 @@
       <c r="E2208" t="inlineStr"/>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70957,10 +70947,8 @@
       </c>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr"/>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -70987,10 +70975,8 @@
       </c>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71017,10 +71003,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71047,10 +71031,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71077,10 +71059,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71107,10 +71087,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71137,10 +71115,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71167,10 +71143,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71197,10 +71171,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71227,10 +71199,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71257,10 +71227,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71287,10 +71255,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71321,10 +71287,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71355,10 +71319,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71389,10 +71351,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71423,10 +71383,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71457,10 +71415,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71491,10 +71447,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71521,10 +71475,8 @@
       </c>
       <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr"/>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71551,10 +71503,8 @@
       </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr"/>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71581,10 +71531,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71615,10 +71563,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71649,10 +71595,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2232">
@@ -71683,10 +71627,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -71721,10 +71663,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2234">
@@ -71759,10 +71699,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71793,10 +71731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -71831,10 +71767,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -71869,10 +71803,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2238">
@@ -71903,10 +71835,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2239">
@@ -71941,10 +71871,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2240">
@@ -71979,10 +71907,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -72017,10 +71943,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72051,10 +71975,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -72085,10 +72007,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -72123,10 +72043,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72149,10 +72067,8 @@
       <c r="E2245" t="inlineStr"/>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr"/>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72183,10 +72099,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72217,10 +72131,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72251,10 +72163,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -72289,10 +72199,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72323,10 +72231,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72353,10 +72259,8 @@
       </c>
       <c r="F2251" t="inlineStr"/>
       <c r="G2251" t="inlineStr"/>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -72383,10 +72287,8 @@
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72417,10 +72319,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2254">
@@ -72451,10 +72351,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72485,10 +72383,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -72515,10 +72411,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72545,10 +72439,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72575,10 +72467,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72605,10 +72495,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72635,10 +72523,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72679,10 +72565,8 @@
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2263">
@@ -72713,10 +72597,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -72747,10 +72629,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -72781,10 +72661,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72807,10 +72685,8 @@
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -72841,10 +72717,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -72875,10 +72749,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72905,10 +72777,8 @@
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -72935,10 +72805,8 @@
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -72969,10 +72837,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73007,10 +72873,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2273">
@@ -73041,10 +72905,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
@@ -73079,10 +72941,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2275">
@@ -73113,10 +72973,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73147,10 +73005,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
@@ -73181,10 +73037,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -73215,114 +73069,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2279" t="inlineStr"/>
-      <c r="C2279" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr"/>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr"/>
-      <c r="H2279" t="inlineStr"/>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2280" t="inlineStr"/>
+      <c r="G2280" t="inlineStr"/>
       <c r="H2280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
       <c r="H2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
@@ -73336,117 +73196,129 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr"/>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr"/>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
           <t>3</t>
@@ -73456,55 +73328,47 @@
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2287" t="inlineStr"/>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2288" t="inlineStr"/>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
@@ -73516,47 +73380,43 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
@@ -73572,23 +73432,23 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
@@ -73602,27 +73462,35 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2292" t="inlineStr">
         <is>
           <t>2</t>
@@ -73632,73 +73500,57 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr"/>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73708,69 +73560,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2296" t="inlineStr"/>
       <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -73780,55 +73620,43 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
-      <c r="E2297" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2297" t="inlineStr"/>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
@@ -73837,54 +73665,50 @@
       <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73893,30 +73717,30 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
@@ -73930,87 +73754,87 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2304">
-      <c r="A2304" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2304" t="inlineStr"/>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2304" t="inlineStr">
         <is>
           <t>3</t>
@@ -74020,61 +73844,37 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr"/>
+      <c r="C2305" t="inlineStr"/>
       <c r="D2305" t="inlineStr"/>
-      <c r="E2305" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
-      <c r="H2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2305" t="inlineStr"/>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
-      <c r="E2306" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2306" t="inlineStr"/>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74084,31 +73884,23 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
           <t>3</t>
@@ -74118,31 +73910,27 @@
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74152,47 +73940,55 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr"/>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
-      <c r="E2310" t="inlineStr"/>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
@@ -74204,17 +74000,17 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
@@ -74230,17 +74026,17 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74249,112 +74045,112 @@
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr"/>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2314" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
@@ -74364,20 +74160,16 @@
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
-      <c r="E2316" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2316" t="inlineStr"/>
       <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74389,26 +74181,22 @@
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
           <t>3</t>
@@ -74428,16 +74216,20 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74454,23 +74246,31 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr"/>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr"/>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
@@ -74480,13 +74280,21 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
           <t>3</t>
@@ -74496,7 +74304,7 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
@@ -74506,7 +74314,7 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
@@ -74522,7 +74330,7 @@
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74532,11 +74340,15 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
@@ -74548,55 +74360,47 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74608,91 +74412,91 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
-      <c r="A2326" t="inlineStr"/>
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr"/>
-      <c r="C2327" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
-      <c r="H2327" t="inlineStr"/>
+      <c r="H2327" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2328" t="inlineStr"/>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
@@ -74706,19 +74510,15 @@
       </c>
     </row>
     <row r="2329">
-      <c r="A2329" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2329" t="inlineStr"/>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
@@ -74732,27 +74532,19 @@
       </c>
     </row>
     <row r="2330">
-      <c r="A2330" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2330" t="inlineStr"/>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
@@ -74762,564 +74554,26 @@
       </c>
     </row>
     <row r="2331">
-      <c r="A2331" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
+      <c r="A2331" t="inlineStr"/>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2332" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2332" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
-      <c r="H2332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2333" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2333" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
-      <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
-      <c r="H2333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2334" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2334" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
-      <c r="H2334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2335" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2335" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2336" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2336" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2337" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2337" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
-      <c r="H2337" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2338" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/01</t>
-        </is>
-      </c>
-      <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr"/>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
-      <c r="H2338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2339" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2339" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
-      <c r="H2339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2340" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2340" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsDEC</t>
-        </is>
-      </c>
-      <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
-      <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="H2340" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2341" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2341" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2341" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2342" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2342" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr"/>
-      <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr"/>
-      <c r="H2343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr"/>
-      <c r="H2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2345" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
-      <c r="H2345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr"/>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
-      <c r="H2347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr"/>
-      <c r="B2348" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2348" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
-      <c r="H2348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2349">
-      <c r="A2349" t="inlineStr"/>
-      <c r="B2349" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2349" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
-      <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
-      <c r="H2349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2350">
-      <c r="A2350" t="inlineStr"/>
-      <c r="B2350" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2350" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
-      <c r="H2350" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2331"/>
+  <dimension ref="A1:H2333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72530,123 +72530,137 @@
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2261" t="inlineStr"/>
-      <c r="C2261" t="inlineStr"/>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
       <c r="D2261" t="inlineStr"/>
-      <c r="E2261" t="inlineStr"/>
+      <c r="E2261" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr"/>
-      <c r="H2261" t="inlineStr"/>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="n">
-        <v>2</v>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2263" t="n">
-        <v>3</v>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2264" t="n">
-        <v>3</v>
+      <c r="G2264" t="inlineStr"/>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
@@ -72656,421 +72670,425 @@
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2265" t="n">
-        <v>3</v>
+      <c r="G2265" t="inlineStr"/>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
-      <c r="E2266" t="inlineStr"/>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="n">
-        <v>2</v>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2267" t="n">
-        <v>2</v>
+      <c r="G2267" t="inlineStr"/>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2268" t="n">
-        <v>2</v>
+      <c r="G2268" t="inlineStr"/>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="n">
-        <v>3</v>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="n">
-        <v>3</v>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2271" t="n">
-        <v>3</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2272" t="inlineStr">
         <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="H2272" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2273" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H2273" t="n">
-        <v>2</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2274" t="n">
-        <v>1</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2275" t="n">
-        <v>2</v>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
-      <c r="E2276" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E2276" t="inlineStr"/>
       <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2276" t="n">
-        <v>3</v>
+      <c r="G2276" t="inlineStr"/>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2277" t="n">
-        <v>3</v>
+      <c r="G2277" t="inlineStr"/>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
-      <c r="E2278" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="H2278" t="n">
-        <v>3</v>
+      <c r="G2278" t="inlineStr"/>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2279">
@@ -74488,41 +74506,57 @@
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr"/>
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr"/>
+      <c r="E2328" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
-      <c r="A2329" t="inlineStr"/>
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
@@ -74540,7 +74574,7 @@
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
@@ -74557,23 +74591,67 @@
       <c r="A2331" t="inlineStr"/>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
+      <c r="E2331" t="inlineStr"/>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr"/>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>Imports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr"/>
+      <c r="F2332" t="inlineStr"/>
+      <c r="G2332" t="inlineStr"/>
+      <c r="H2332" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr"/>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexJAN</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
+      <c r="F2333" t="inlineStr"/>
+      <c r="G2333" t="inlineStr"/>
+      <c r="H2333" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2382"/>
+  <dimension ref="A1:H2364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63645,10 +63645,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1974" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1974" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1975">
@@ -63679,10 +63677,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H1975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1975" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1976">
@@ -63713,10 +63709,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1977">
@@ -63751,10 +63745,8 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H1977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1978">
@@ -63777,10 +63769,8 @@
       </c>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr"/>
-      <c r="H1978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1979">
@@ -63825,10 +63815,8 @@
           <t>115.3</t>
         </is>
       </c>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1981">
@@ -63863,10 +63851,8 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1982">
@@ -63893,10 +63879,8 @@
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr"/>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1983">
@@ -63923,10 +63907,8 @@
       </c>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr"/>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1984">
@@ -63953,10 +63935,8 @@
       </c>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr"/>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1985">
@@ -63987,10 +63967,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1985" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1986">
@@ -64021,10 +63999,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1987">
@@ -64059,10 +64035,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1987" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1988">
@@ -64097,10 +64071,8 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -64135,10 +64107,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1990">
@@ -64165,10 +64135,8 @@
       </c>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr"/>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1991">
@@ -64195,10 +64163,8 @@
       </c>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr"/>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1992">
@@ -64229,10 +64195,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1993">
@@ -64263,10 +64227,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1994">
@@ -64297,10 +64259,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1995">
@@ -64331,10 +64291,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1996">
@@ -64365,10 +64323,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1997">
@@ -64399,10 +64355,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1998">
@@ -64433,10 +64387,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1999">
@@ -64463,10 +64415,8 @@
       </c>
       <c r="F1999" t="inlineStr"/>
       <c r="G1999" t="inlineStr"/>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2000">
@@ -64493,10 +64443,8 @@
       </c>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr"/>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2001">
@@ -64523,10 +64471,8 @@
       </c>
       <c r="F2001" t="inlineStr"/>
       <c r="G2001" t="inlineStr"/>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2002">
@@ -64561,10 +64507,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2003">
@@ -64595,10 +64539,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2003" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2004">
@@ -64629,10 +64571,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2004" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2005">
@@ -64655,10 +64595,8 @@
       <c r="E2005" t="inlineStr"/>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr"/>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2005" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2006">
@@ -64685,10 +64623,8 @@
       </c>
       <c r="F2006" t="inlineStr"/>
       <c r="G2006" t="inlineStr"/>
-      <c r="H2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2007">
@@ -64715,10 +64651,8 @@
       </c>
       <c r="F2007" t="inlineStr"/>
       <c r="G2007" t="inlineStr"/>
-      <c r="H2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2008">
@@ -64745,10 +64679,8 @@
       </c>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr"/>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2009">
@@ -64775,10 +64707,8 @@
       </c>
       <c r="F2009" t="inlineStr"/>
       <c r="G2009" t="inlineStr"/>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2009" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2010">
@@ -64809,10 +64739,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2011">
@@ -64843,10 +64771,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2011" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2012">
@@ -64873,10 +64799,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2012" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2013">
@@ -64895,10 +64819,8 @@
       <c r="E2013" t="inlineStr"/>
       <c r="F2013" t="inlineStr"/>
       <c r="G2013" t="inlineStr"/>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2013" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2014">
@@ -64929,10 +64851,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2014" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2015">
@@ -64963,10 +64883,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2016">
@@ -64993,10 +64911,8 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2017">
@@ -65037,10 +64953,8 @@
       </c>
       <c r="F2018" t="inlineStr"/>
       <c r="G2018" t="inlineStr"/>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2019">
@@ -65071,10 +64985,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2020">
@@ -65105,10 +65017,8 @@
           <t>-4.1%</t>
         </is>
       </c>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2021">
@@ -65139,10 +65049,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2022">
@@ -65173,10 +65081,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2023">
@@ -65211,10 +65117,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2023" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2024">
@@ -65249,10 +65153,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2025">
@@ -65279,10 +65181,8 @@
       </c>
       <c r="F2025" t="inlineStr"/>
       <c r="G2025" t="inlineStr"/>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2026">
@@ -65309,10 +65209,8 @@
       </c>
       <c r="F2026" t="inlineStr"/>
       <c r="G2026" t="inlineStr"/>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2027">
@@ -65339,10 +65237,8 @@
       </c>
       <c r="F2027" t="inlineStr"/>
       <c r="G2027" t="inlineStr"/>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2028">
@@ -65369,10 +65265,8 @@
       </c>
       <c r="F2028" t="inlineStr"/>
       <c r="G2028" t="inlineStr"/>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2028" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2029">
@@ -65399,10 +65293,8 @@
       </c>
       <c r="F2029" t="inlineStr"/>
       <c r="G2029" t="inlineStr"/>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2030">
@@ -65437,10 +65329,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2030" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2030" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2031">
@@ -65475,10 +65365,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2032">
@@ -65509,10 +65397,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2033">
@@ -65543,10 +65429,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2033" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2034">
@@ -65573,10 +65457,8 @@
       </c>
       <c r="F2034" t="inlineStr"/>
       <c r="G2034" t="inlineStr"/>
-      <c r="H2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2035">
@@ -65611,10 +65493,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2035" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2035" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2036">
@@ -65645,10 +65525,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2036" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2037">
@@ -65683,10 +65561,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2038">
@@ -65717,10 +65593,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2039">
@@ -65751,10 +65625,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2039" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2040">
@@ -65777,10 +65649,8 @@
       <c r="E2040" t="inlineStr"/>
       <c r="F2040" t="inlineStr"/>
       <c r="G2040" t="inlineStr"/>
-      <c r="H2040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2041">
@@ -65815,10 +65685,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2042">
@@ -65853,10 +65721,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2043">
@@ -65887,10 +65753,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2044">
@@ -65921,10 +65785,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2045">
@@ -65955,10 +65817,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2046">
@@ -65989,10 +65849,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2047">
@@ -66019,10 +65877,8 @@
       </c>
       <c r="F2047" t="inlineStr"/>
       <c r="G2047" t="inlineStr"/>
-      <c r="H2047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2048">
@@ -66049,10 +65905,8 @@
       </c>
       <c r="F2048" t="inlineStr"/>
       <c r="G2048" t="inlineStr"/>
-      <c r="H2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2049">
@@ -66075,10 +65929,8 @@
       <c r="E2049" t="inlineStr"/>
       <c r="F2049" t="inlineStr"/>
       <c r="G2049" t="inlineStr"/>
-      <c r="H2049" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2049" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2050">
@@ -66105,10 +65957,8 @@
       </c>
       <c r="F2050" t="inlineStr"/>
       <c r="G2050" t="inlineStr"/>
-      <c r="H2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2051">
@@ -66135,10 +65985,8 @@
       </c>
       <c r="F2051" t="inlineStr"/>
       <c r="G2051" t="inlineStr"/>
-      <c r="H2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2052">
@@ -66165,10 +66013,8 @@
       </c>
       <c r="F2052" t="inlineStr"/>
       <c r="G2052" t="inlineStr"/>
-      <c r="H2052" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2052" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2053">
@@ -66191,10 +66037,8 @@
       <c r="E2053" t="inlineStr"/>
       <c r="F2053" t="inlineStr"/>
       <c r="G2053" t="inlineStr"/>
-      <c r="H2053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2054">
@@ -66229,10 +66073,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2054" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2054" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2055">
@@ -66267,10 +66109,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2056">
@@ -66305,10 +66145,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2057">
@@ -66343,10 +66181,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2057" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2058">
@@ -66381,10 +66217,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2059">
@@ -66415,10 +66249,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2060">
@@ -66453,10 +66285,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2061">
@@ -66491,10 +66321,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2062">
@@ -66521,10 +66349,8 @@
       </c>
       <c r="F2062" t="inlineStr"/>
       <c r="G2062" t="inlineStr"/>
-      <c r="H2062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2062" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2063">
@@ -66573,10 +66399,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2064" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2064" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2065">
@@ -66611,10 +66435,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2065" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2065" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2066">
@@ -66649,10 +66471,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2066" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2066" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2067">
@@ -66683,10 +66503,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2067" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2067" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2068">
@@ -66717,10 +66535,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2069">
@@ -66755,10 +66571,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2070">
@@ -66793,10 +66607,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2071">
@@ -66827,10 +66639,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2072">
@@ -66861,10 +66671,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2073">
@@ -66891,10 +66699,8 @@
       </c>
       <c r="F2073" t="inlineStr"/>
       <c r="G2073" t="inlineStr"/>
-      <c r="H2073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2074">
@@ -66921,10 +66727,8 @@
       </c>
       <c r="F2074" t="inlineStr"/>
       <c r="G2074" t="inlineStr"/>
-      <c r="H2074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2075">
@@ -66951,10 +66755,8 @@
       </c>
       <c r="F2075" t="inlineStr"/>
       <c r="G2075" t="inlineStr"/>
-      <c r="H2075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2076">
@@ -66985,10 +66787,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2076" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2076" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2077">
@@ -67015,10 +66815,8 @@
       </c>
       <c r="F2077" t="inlineStr"/>
       <c r="G2077" t="inlineStr"/>
-      <c r="H2077" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2077" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2078">
@@ -67045,10 +66843,8 @@
       </c>
       <c r="F2078" t="inlineStr"/>
       <c r="G2078" t="inlineStr"/>
-      <c r="H2078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2079">
@@ -67075,10 +66871,8 @@
       </c>
       <c r="F2079" t="inlineStr"/>
       <c r="G2079" t="inlineStr"/>
-      <c r="H2079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2080">
@@ -67105,10 +66899,8 @@
       </c>
       <c r="F2080" t="inlineStr"/>
       <c r="G2080" t="inlineStr"/>
-      <c r="H2080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2081">
@@ -67135,10 +66927,8 @@
       </c>
       <c r="F2081" t="inlineStr"/>
       <c r="G2081" t="inlineStr"/>
-      <c r="H2081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2082">
@@ -67173,10 +66963,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2083">
@@ -67207,10 +66995,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2083" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2084">
@@ -67245,10 +67031,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2085">
@@ -67283,10 +67067,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2086">
@@ -67309,10 +67091,8 @@
       <c r="E2086" t="inlineStr"/>
       <c r="F2086" t="inlineStr"/>
       <c r="G2086" t="inlineStr"/>
-      <c r="H2086" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2086" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2087">
@@ -67335,10 +67115,8 @@
       <c r="E2087" t="inlineStr"/>
       <c r="F2087" t="inlineStr"/>
       <c r="G2087" t="inlineStr"/>
-      <c r="H2087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2088">
@@ -67365,10 +67143,8 @@
       </c>
       <c r="F2088" t="inlineStr"/>
       <c r="G2088" t="inlineStr"/>
-      <c r="H2088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2089">
@@ -67395,10 +67171,8 @@
       </c>
       <c r="F2089" t="inlineStr"/>
       <c r="G2089" t="inlineStr"/>
-      <c r="H2089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2090">
@@ -67425,10 +67199,8 @@
       </c>
       <c r="F2090" t="inlineStr"/>
       <c r="G2090" t="inlineStr"/>
-      <c r="H2090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2091">
@@ -67455,10 +67227,8 @@
       </c>
       <c r="F2091" t="inlineStr"/>
       <c r="G2091" t="inlineStr"/>
-      <c r="H2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -67485,10 +67255,8 @@
       </c>
       <c r="F2092" t="inlineStr"/>
       <c r="G2092" t="inlineStr"/>
-      <c r="H2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -67515,10 +67283,8 @@
       </c>
       <c r="F2093" t="inlineStr"/>
       <c r="G2093" t="inlineStr"/>
-      <c r="H2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -67545,10 +67311,8 @@
       </c>
       <c r="F2094" t="inlineStr"/>
       <c r="G2094" t="inlineStr"/>
-      <c r="H2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -67575,10 +67339,8 @@
       </c>
       <c r="F2095" t="inlineStr"/>
       <c r="G2095" t="inlineStr"/>
-      <c r="H2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -67605,10 +67367,8 @@
       </c>
       <c r="F2096" t="inlineStr"/>
       <c r="G2096" t="inlineStr"/>
-      <c r="H2096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2097">
@@ -67639,10 +67399,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2098">
@@ -67673,10 +67431,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -67703,10 +67459,8 @@
       </c>
       <c r="F2099" t="inlineStr"/>
       <c r="G2099" t="inlineStr"/>
-      <c r="H2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
@@ -67741,10 +67495,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2101">
@@ -67767,10 +67519,8 @@
       <c r="E2101" t="inlineStr"/>
       <c r="F2101" t="inlineStr"/>
       <c r="G2101" t="inlineStr"/>
-      <c r="H2101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2102">
@@ -67801,10 +67551,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2103">
@@ -67831,10 +67579,8 @@
       </c>
       <c r="F2103" t="inlineStr"/>
       <c r="G2103" t="inlineStr"/>
-      <c r="H2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2104">
@@ -67861,10 +67607,8 @@
       </c>
       <c r="F2104" t="inlineStr"/>
       <c r="G2104" t="inlineStr"/>
-      <c r="H2104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2105">
@@ -67895,10 +67639,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -67921,10 +67663,8 @@
       <c r="E2106" t="inlineStr"/>
       <c r="F2106" t="inlineStr"/>
       <c r="G2106" t="inlineStr"/>
-      <c r="H2106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2107">
@@ -67955,10 +67695,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2108">
@@ -67993,10 +67731,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2109">
@@ -68019,10 +67755,8 @@
       <c r="E2109" t="inlineStr"/>
       <c r="F2109" t="inlineStr"/>
       <c r="G2109" t="inlineStr"/>
-      <c r="H2109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2109" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2110">
@@ -68067,10 +67801,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2111" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2112">
@@ -68097,10 +67829,8 @@
       </c>
       <c r="F2112" t="inlineStr"/>
       <c r="G2112" t="inlineStr"/>
-      <c r="H2112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2113">
@@ -68131,10 +67861,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2114">
@@ -68157,10 +67885,8 @@
       <c r="E2114" t="inlineStr"/>
       <c r="F2114" t="inlineStr"/>
       <c r="G2114" t="inlineStr"/>
-      <c r="H2114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2115">
@@ -68195,10 +67921,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2115" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2116">
@@ -68229,10 +67953,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2116" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2116" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2117">
@@ -68267,10 +67989,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -68305,10 +68025,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -68339,10 +68057,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -68373,10 +68089,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2121">
@@ -68407,10 +68121,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2122">
@@ -68445,10 +68157,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2123">
@@ -68479,10 +68189,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -68513,10 +68221,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2125">
@@ -68547,10 +68253,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2126">
@@ -68585,10 +68289,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2127">
@@ -68623,10 +68325,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2128">
@@ -68661,10 +68361,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2129">
@@ -68695,10 +68393,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2130">
@@ -68729,10 +68425,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2131">
@@ -68763,10 +68457,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2132">
@@ -68797,10 +68489,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2133">
@@ -68835,10 +68525,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2134">
@@ -68869,10 +68557,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2134" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2135">
@@ -68907,10 +68593,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2136">
@@ -68945,10 +68629,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2137">
@@ -68983,10 +68665,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2138">
@@ -69021,10 +68701,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2138" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2138" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2139">
@@ -69055,10 +68733,8 @@
         </is>
       </c>
       <c r="G2139" t="inlineStr"/>
-      <c r="H2139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2139" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2140">
@@ -69093,10 +68769,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2140" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2140" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2141">
@@ -69131,10 +68805,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2142">
@@ -69165,10 +68837,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2143">
@@ -69199,10 +68869,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2144">
@@ -69233,10 +68901,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2145">
@@ -69267,10 +68933,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2146">
@@ -69305,10 +68969,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2146" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2147">
@@ -69331,10 +68993,8 @@
       <c r="E2147" t="inlineStr"/>
       <c r="F2147" t="inlineStr"/>
       <c r="G2147" t="inlineStr"/>
-      <c r="H2147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2148">
@@ -69365,10 +69025,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2149">
@@ -69399,10 +69057,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2149" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2150">
@@ -69433,10 +69089,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2150" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2151">
@@ -69459,10 +69113,8 @@
       <c r="E2151" t="inlineStr"/>
       <c r="F2151" t="inlineStr"/>
       <c r="G2151" t="inlineStr"/>
-      <c r="H2151" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2151" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2152">
@@ -69489,10 +69141,8 @@
       </c>
       <c r="F2152" t="inlineStr"/>
       <c r="G2152" t="inlineStr"/>
-      <c r="H2152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2152" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2153">
@@ -69523,10 +69173,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2153" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2154">
@@ -69557,10 +69205,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2154" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2155">
@@ -69591,10 +69237,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2155" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2156">
@@ -69625,10 +69269,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2156" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2157">
@@ -69663,10 +69305,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2157" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2158">
@@ -69697,10 +69337,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2158" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2159">
@@ -69735,10 +69373,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2159" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2160">
@@ -69773,10 +69409,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2160" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2161">
@@ -69807,10 +69441,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2161" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2162">
@@ -69841,10 +69473,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2163">
@@ -69879,10 +69509,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2163" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2164">
@@ -69917,10 +69545,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2164" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2165">
@@ -69955,10 +69581,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2165" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2165" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2166">
@@ -69989,10 +69613,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2166" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2167">
@@ -70023,10 +69645,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2167" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2168">
@@ -70057,10 +69677,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2169">
@@ -70091,10 +69709,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2170">
@@ -70125,10 +69741,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2170" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2171">
@@ -70159,10 +69773,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2172">
@@ -70185,10 +69797,8 @@
       <c r="E2172" t="inlineStr"/>
       <c r="F2172" t="inlineStr"/>
       <c r="G2172" t="inlineStr"/>
-      <c r="H2172" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2173">
@@ -70223,10 +69833,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2174">
@@ -70257,10 +69865,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2175">
@@ -70287,10 +69893,8 @@
       </c>
       <c r="F2175" t="inlineStr"/>
       <c r="G2175" t="inlineStr"/>
-      <c r="H2175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2176">
@@ -70317,10 +69921,8 @@
       </c>
       <c r="F2176" t="inlineStr"/>
       <c r="G2176" t="inlineStr"/>
-      <c r="H2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2177">
@@ -70347,10 +69949,8 @@
       </c>
       <c r="F2177" t="inlineStr"/>
       <c r="G2177" t="inlineStr"/>
-      <c r="H2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2178">
@@ -70377,10 +69977,8 @@
       </c>
       <c r="F2178" t="inlineStr"/>
       <c r="G2178" t="inlineStr"/>
-      <c r="H2178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2179">
@@ -70407,10 +70005,8 @@
       </c>
       <c r="F2179" t="inlineStr"/>
       <c r="G2179" t="inlineStr"/>
-      <c r="H2179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2180">
@@ -70437,10 +70033,8 @@
       </c>
       <c r="F2180" t="inlineStr"/>
       <c r="G2180" t="inlineStr"/>
-      <c r="H2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2181">
@@ -70475,10 +70069,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H2181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2182">
@@ -70513,10 +70105,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H2182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2183">
@@ -70551,10 +70141,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2184">
@@ -70585,10 +70173,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2185">
@@ -70619,10 +70205,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2186">
@@ -70657,10 +70241,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2187">
@@ -70695,10 +70277,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2188">
@@ -70729,10 +70309,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2189">
@@ -70763,10 +70341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2190">
@@ -70797,10 +70373,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2191">
@@ -70835,10 +70409,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -70869,10 +70441,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2193">
@@ -70903,10 +70473,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2194">
@@ -70937,10 +70505,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2195">
@@ -70971,10 +70537,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2196">
@@ -71001,10 +70565,8 @@
       </c>
       <c r="F2196" t="inlineStr"/>
       <c r="G2196" t="inlineStr"/>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2197">
@@ -71031,10 +70593,8 @@
       </c>
       <c r="F2197" t="inlineStr"/>
       <c r="G2197" t="inlineStr"/>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2198">
@@ -71061,10 +70621,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2199">
@@ -71091,10 +70649,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2200">
@@ -71121,10 +70677,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2201">
@@ -71147,10 +70701,8 @@
       </c>
       <c r="F2201" t="inlineStr"/>
       <c r="G2201" t="inlineStr"/>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2202">
@@ -71173,10 +70725,8 @@
       </c>
       <c r="F2202" t="inlineStr"/>
       <c r="G2202" t="inlineStr"/>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2203">
@@ -71203,10 +70753,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
@@ -71233,10 +70781,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -71263,164 +70809,170 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2206" t="inlineStr"/>
-      <c r="C2206" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>Tourist Arrivals YoYDEC</t>
+        </is>
+      </c>
       <c r="D2206" t="inlineStr"/>
-      <c r="E2206" t="inlineStr"/>
+      <c r="E2206" t="inlineStr">
+        <is>
+          <t>8.25%</t>
+        </is>
+      </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr"/>
+      <c r="H2206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2207" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2207" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2207" t="inlineStr"/>
       <c r="E2207" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2207" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="G2207" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H2207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2208" t="inlineStr"/>
       <c r="E2208" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2209" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2209" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2209" t="inlineStr"/>
       <c r="E2209" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F2209" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2209" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G2209" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2210" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2210" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2210" t="inlineStr"/>
-      <c r="E2210" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2210" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2210" t="inlineStr"/>
+      <c r="F2210" t="inlineStr"/>
+      <c r="G2210" t="inlineStr"/>
       <c r="H2210" t="inlineStr">
         <is>
           <t>2</t>
@@ -71430,7 +70982,7 @@
     <row r="2211">
       <c r="A2211" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2211" t="inlineStr">
@@ -71440,93 +70992,77 @@
       </c>
       <c r="C2211" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2211" t="inlineStr"/>
       <c r="E2211" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2211" t="inlineStr"/>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2211" t="inlineStr"/>
       <c r="H2211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2212" t="inlineStr"/>
       <c r="E2212" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2212" t="inlineStr"/>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2212" t="inlineStr"/>
       <c r="H2212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2213" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2213" t="inlineStr"/>
       <c r="E2213" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2213" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2213" t="inlineStr"/>
+      <c r="G2213" t="inlineStr"/>
       <c r="H2213" t="inlineStr">
         <is>
           <t>3</t>
@@ -71536,31 +71072,27 @@
     <row r="2214">
       <c r="A2214" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2214" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2214" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2214" t="inlineStr"/>
       <c r="E2214" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2214" t="inlineStr"/>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2214" t="inlineStr"/>
       <c r="H2214" t="inlineStr">
         <is>
           <t>3</t>
@@ -71570,31 +71102,27 @@
     <row r="2215">
       <c r="A2215" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2215" t="inlineStr"/>
       <c r="E2215" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2215" t="inlineStr"/>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2215" t="inlineStr"/>
       <c r="H2215" t="inlineStr">
         <is>
           <t>3</t>
@@ -71604,171 +71132,147 @@
     <row r="2216">
       <c r="A2216" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2216" t="inlineStr"/>
       <c r="E2216" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2216" t="inlineStr"/>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2216" t="inlineStr"/>
       <c r="H2216" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2217" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2217" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2217" t="inlineStr"/>
       <c r="E2217" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2217" t="inlineStr"/>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2217" t="inlineStr"/>
       <c r="H2217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2218" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2218" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2218" t="inlineStr"/>
       <c r="E2218" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2218" t="inlineStr"/>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2218" t="inlineStr"/>
       <c r="H2218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2219">
       <c r="A2219" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2219" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2219" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2219" t="inlineStr"/>
       <c r="E2219" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2219" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2219" t="inlineStr"/>
+      <c r="G2219" t="inlineStr"/>
       <c r="H2219" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2220" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2220" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2220" t="inlineStr"/>
       <c r="E2220" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2220" t="inlineStr"/>
       <c r="H2220" t="inlineStr">
         <is>
           <t>3</t>
@@ -71778,31 +71282,27 @@
     <row r="2221">
       <c r="A2221" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2221" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2221" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2221" t="inlineStr"/>
       <c r="E2221" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2221" t="inlineStr"/>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G2221" t="inlineStr"/>
       <c r="H2221" t="inlineStr">
         <is>
           <t>3</t>
@@ -71812,17 +71312,17 @@
     <row r="2222">
       <c r="A2222" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2222" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2222" t="inlineStr"/>
@@ -71832,11 +71332,7 @@
         </is>
       </c>
       <c r="F2222" t="inlineStr"/>
-      <c r="G2222" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2222" t="inlineStr"/>
       <c r="H2222" t="inlineStr">
         <is>
           <t>3</t>
@@ -71846,29 +71342,29 @@
     <row r="2223">
       <c r="A2223" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2223" t="inlineStr"/>
       <c r="E2223" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2223" t="inlineStr"/>
       <c r="G2223" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2223" t="inlineStr">
@@ -71880,23 +71376,23 @@
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2224" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2224" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2224" t="inlineStr"/>
       <c r="E2224" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2224" t="inlineStr"/>
@@ -71914,23 +71410,23 @@
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2225" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2225" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2225" t="inlineStr"/>
       <c r="E2225" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2225" t="inlineStr"/>
@@ -71948,27 +71444,31 @@
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2226" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2226" t="inlineStr"/>
       <c r="E2226" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2226" t="inlineStr"/>
-      <c r="G2226" t="inlineStr"/>
+      <c r="G2226" t="inlineStr">
+        <is>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
       <c r="H2226" t="inlineStr">
         <is>
           <t>3</t>
@@ -71978,159 +71478,151 @@
     <row r="2227">
       <c r="A2227" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2227" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2227" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2227" t="inlineStr"/>
       <c r="E2227" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2227" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>77.7%</t>
+        </is>
+      </c>
+      <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2228" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2228" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2228" t="inlineStr"/>
       <c r="E2228" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2229" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2229" t="inlineStr"/>
       <c r="E2229" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2229" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2229" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2229" t="inlineStr"/>
+      <c r="G2229" t="inlineStr"/>
       <c r="H2229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2230" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2230" t="inlineStr"/>
-      <c r="E2230" t="inlineStr"/>
+      <c r="E2230" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
       <c r="H2230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2231" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2231" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2231" t="inlineStr"/>
       <c r="E2231" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2231" t="inlineStr"/>
@@ -72144,27 +71636,31 @@
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2232" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2232" t="inlineStr"/>
       <c r="E2232" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2232" t="inlineStr"/>
-      <c r="G2232" t="inlineStr"/>
+      <c r="G2232" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2232" t="inlineStr">
         <is>
           <t>3</t>
@@ -72174,67 +71670,75 @@
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2233" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2233" t="inlineStr"/>
       <c r="E2233" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2233" t="inlineStr"/>
-      <c r="G2233" t="inlineStr"/>
+      <c r="G2233" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2234" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2234" t="inlineStr"/>
       <c r="E2234" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2234" t="inlineStr"/>
-      <c r="G2234" t="inlineStr"/>
+      <c r="G2234" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2234" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
@@ -72244,27 +71748,35 @@
       </c>
       <c r="C2235" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2235" t="inlineStr"/>
       <c r="E2235" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2235" t="inlineStr"/>
-      <c r="G2235" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2235" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2235" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2235" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
@@ -72274,27 +71786,35 @@
       </c>
       <c r="C2236" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2236" t="inlineStr"/>
       <c r="E2236" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2236" t="inlineStr"/>
-      <c r="G2236" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2236" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2236" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2237">
       <c r="A2237" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2237" t="inlineStr">
@@ -72304,17 +71824,21 @@
       </c>
       <c r="C2237" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2237" t="inlineStr"/>
       <c r="E2237" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2237" t="inlineStr"/>
-      <c r="G2237" t="inlineStr"/>
+      <c r="G2237" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2237" t="inlineStr">
         <is>
           <t>3</t>
@@ -72324,7 +71848,7 @@
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2238" t="inlineStr">
@@ -72334,17 +71858,25 @@
       </c>
       <c r="C2238" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2238" t="inlineStr"/>
       <c r="E2238" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2238" t="inlineStr"/>
-      <c r="G2238" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2238" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2238" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2238" t="inlineStr">
         <is>
           <t>3</t>
@@ -72354,381 +71886,417 @@
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2239" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2239" t="inlineStr"/>
       <c r="E2239" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2239" t="inlineStr"/>
-      <c r="G2239" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2239" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2239" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2239" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2240" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2240" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2240" t="inlineStr"/>
       <c r="E2240" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2240" t="inlineStr"/>
-      <c r="G2240" t="inlineStr"/>
+      <c r="G2240" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2241">
       <c r="A2241" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2241" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2241" t="inlineStr"/>
       <c r="E2241" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2241" t="inlineStr"/>
-      <c r="G2241" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2241" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2241" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2241" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2242" t="inlineStr"/>
       <c r="E2242" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2242" t="inlineStr"/>
-      <c r="G2242" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2242" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2242" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2242" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2243" t="inlineStr"/>
       <c r="E2243" t="inlineStr">
         <is>
-          <t>€4.9B</t>
-        </is>
-      </c>
-      <c r="F2243" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2243" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2243" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2243" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2244" t="inlineStr"/>
       <c r="E2244" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2244" t="inlineStr"/>
       <c r="G2244" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2244" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2245" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2245" t="inlineStr"/>
       <c r="E2245" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2246" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2246" t="inlineStr"/>
       <c r="E2246" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
-      <c r="F2246" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2246" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2246" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2247" t="inlineStr"/>
-      <c r="E2247" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>77.9%</t>
-        </is>
-      </c>
+      <c r="G2247" t="inlineStr"/>
       <c r="H2247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2248" t="inlineStr"/>
       <c r="E2248" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2248" t="inlineStr"/>
       <c r="G2248" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2248" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2249" t="inlineStr"/>
       <c r="E2249" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2249" t="inlineStr"/>
-      <c r="G2249" t="inlineStr"/>
+      <c r="G2249" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2250" t="inlineStr"/>
       <c r="E2250" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2250" t="inlineStr"/>
-      <c r="G2250" t="inlineStr"/>
+      <c r="G2250" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2250" t="inlineStr">
         <is>
           <t>3</t>
@@ -72738,59 +72306,67 @@
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2251" t="inlineStr"/>
       <c r="E2251" t="inlineStr">
         <is>
-          <t>$623.98B</t>
-        </is>
-      </c>
-      <c r="F2251" t="inlineStr"/>
-      <c r="G2251" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2251" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2251" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2251" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2252" t="inlineStr"/>
       <c r="E2252" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2252" t="inlineStr">
@@ -72802,173 +72378,157 @@
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2253" t="inlineStr"/>
       <c r="E2253" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2253" t="inlineStr"/>
       <c r="H2253" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2254" t="inlineStr"/>
-      <c r="G2254" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
+      <c r="G2254" t="inlineStr"/>
       <c r="H2254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2255" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2255" t="inlineStr"/>
       <c r="G2255" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2255" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2256" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2256" t="inlineStr"/>
       <c r="G2256" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2256" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2257" t="inlineStr"/>
       <c r="E2257" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2257" t="inlineStr">
@@ -72978,35 +72538,27 @@
       </c>
     </row>
     <row r="2258">
-      <c r="A2258" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A2258" t="inlineStr"/>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2258" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2258" t="inlineStr">
@@ -73016,219 +72568,163 @@
       </c>
     </row>
     <row r="2259">
-      <c r="A2259" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2259" t="inlineStr"/>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2259" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2259" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2260">
-      <c r="A2260" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2260" t="inlineStr"/>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2260" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2261">
-      <c r="A2261" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2261" t="inlineStr"/>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2261" t="inlineStr"/>
       <c r="E2261" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2261" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2261" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2262">
-      <c r="A2262" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2262" t="inlineStr"/>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2262" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2263" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2263" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr"/>
+      <c r="C2263" t="inlineStr"/>
       <c r="D2263" t="inlineStr"/>
-      <c r="E2263" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2263" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E2263" t="inlineStr"/>
+      <c r="F2263" t="inlineStr"/>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr"/>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2264" t="inlineStr"/>
       <c r="H2264" t="inlineStr">
         <is>
           <t>2</t>
@@ -73238,129 +72734,125 @@
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
       <c r="G2265" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2265" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
       <c r="E2266" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2266" t="inlineStr"/>
+      <c r="G2266" t="inlineStr">
+        <is>
           <t>0.8%</t>
         </is>
       </c>
-      <c r="F2266" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
       <c r="H2266" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
-      <c r="E2267" t="inlineStr"/>
+      <c r="E2267" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr"/>
+      <c r="G2267" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2267" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2268" t="inlineStr"/>
       <c r="H2268" t="inlineStr">
         <is>
           <t>2</t>
@@ -73370,29 +72862,29 @@
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2269" t="inlineStr">
@@ -73404,103 +72896,91 @@
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2270" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr"/>
+      <c r="G2271" t="inlineStr"/>
       <c r="H2271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
+      <c r="G2272" t="inlineStr"/>
       <c r="H2272" t="inlineStr">
         <is>
           <t>3</t>
@@ -73510,27 +72990,31 @@
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr"/>
+      <c r="G2273" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="H2273" t="inlineStr">
         <is>
           <t>3</t>
@@ -73540,37 +73024,45 @@
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H2274" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
@@ -73580,19 +73072,19 @@
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2275" t="inlineStr">
@@ -73604,93 +73096,101 @@
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2276" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2276" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2277" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2278">
-      <c r="A2278" t="inlineStr"/>
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2278" t="inlineStr">
@@ -73700,27 +73200,31 @@
       </c>
     </row>
     <row r="2279">
-      <c r="A2279" t="inlineStr"/>
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
       <c r="E2279" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2279" t="inlineStr">
@@ -73730,27 +73234,31 @@
       </c>
     </row>
     <row r="2280">
-      <c r="A2280" t="inlineStr"/>
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2280" t="inlineStr"/>
       <c r="G2280" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2280" t="inlineStr">
@@ -73760,57 +73268,49 @@
       </c>
     </row>
     <row r="2281">
-      <c r="A2281" t="inlineStr"/>
-      <c r="B2281" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2281" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr"/>
+      <c r="C2281" t="inlineStr"/>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
+      <c r="E2281" t="inlineStr"/>
       <c r="F2281" t="inlineStr"/>
-      <c r="G2281" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr"/>
     </row>
     <row r="2282">
-      <c r="A2282" t="inlineStr"/>
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2282" t="inlineStr">
@@ -73822,21 +73322,37 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2283" t="inlineStr"/>
-      <c r="C2283" t="inlineStr"/>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>2-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D2283" t="inlineStr"/>
-      <c r="E2283" t="inlineStr"/>
+      <c r="E2283" t="inlineStr">
+        <is>
+          <t>2.670%</t>
+        </is>
+      </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
-      <c r="H2283" t="inlineStr"/>
+      <c r="H2283" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
@@ -73846,271 +73362,251 @@
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
       <c r="G2284" t="inlineStr"/>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2286" t="inlineStr"/>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr"/>
+      <c r="E2288" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2289" t="inlineStr"/>
-      <c r="G2289" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2290" t="inlineStr"/>
-      <c r="G2290" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
-      <c r="E2292" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
+      <c r="E2292" t="inlineStr"/>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr"/>
       <c r="H2292" t="inlineStr">
@@ -74122,69 +73618,57 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -74194,29 +73678,33 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
@@ -74228,67 +73716,71 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2296" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
@@ -74300,29 +73792,29 @@
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2298" t="inlineStr">
@@ -74334,143 +73826,143 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
-      <c r="E2300" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2300" t="inlineStr"/>
       <c r="F2300" t="inlineStr"/>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr"/>
-      <c r="C2301" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoY FlashJAN</t>
+        </is>
+      </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr"/>
+      <c r="E2301" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
-      <c r="H2301" t="inlineStr"/>
+      <c r="H2301" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
-      <c r="E2302" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2302" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2302" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="E2302" t="inlineStr"/>
+      <c r="F2302" t="inlineStr"/>
+      <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -74484,53 +73976,53 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
@@ -74544,87 +74036,91 @@
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr"/>
+      <c r="G2308" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74634,27 +74130,31 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr"/>
+      <c r="G2309" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74664,27 +74164,31 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr"/>
+      <c r="G2310" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74694,25 +74198,21 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2311" t="inlineStr"/>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
@@ -74724,17 +74224,17 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74750,95 +74250,79 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
-      <c r="E2313" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2313" t="inlineStr"/>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
-      <c r="E2314" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2314" t="inlineStr"/>
       <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2315" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
           <t>2</t>
@@ -74848,33 +74332,33 @@
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
@@ -74886,127 +74370,111 @@
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2317" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr"/>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2319" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2319" t="inlineStr"/>
       <c r="G2319" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
@@ -75015,54 +74483,50 @@
       <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2321" t="inlineStr"/>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr"/>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
@@ -75071,32 +74535,28 @@
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
@@ -75108,83 +74568,79 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
@@ -75198,23 +74654,23 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
@@ -75226,31 +74682,27 @@
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2328" t="inlineStr"/>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr">
         <is>
-          <t>$ 230B</t>
+          <t>43.0K</t>
         </is>
       </c>
       <c r="H2328" t="inlineStr">
@@ -75262,41 +74714,21 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2329" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr"/>
+      <c r="C2329" t="inlineStr"/>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr"/>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
@@ -75306,21 +74738,13 @@
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
           <t>3</t>
@@ -75330,17 +74754,17 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
@@ -75349,28 +74773,32 @@
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr"/>
       <c r="H2332" t="inlineStr">
@@ -75382,7 +74810,7 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
@@ -75392,11 +74820,15 @@
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr"/>
       <c r="H2333" t="inlineStr">
@@ -75408,21 +74840,25 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
@@ -75434,65 +74870,49 @@
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2335" t="inlineStr"/>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr"/>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2336" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2336" t="inlineStr"/>
+      <c r="F2336" t="inlineStr"/>
+      <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
           <t>2</t>
@@ -75502,101 +74922,105 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
@@ -75606,7 +75030,7 @@
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
@@ -75627,16 +75051,20 @@
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
+      <c r="E2341" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
@@ -75648,7 +75076,7 @@
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
@@ -75658,23 +75086,27 @@
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr"/>
+      <c r="G2342" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
@@ -75684,23 +75116,31 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr"/>
+      <c r="G2343" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
@@ -75710,13 +75150,21 @@
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr"/>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr"/>
+      <c r="G2344" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -75726,25 +75174,21 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2345" t="inlineStr"/>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
@@ -75756,23 +75200,23 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
@@ -75786,57 +75230,49 @@
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2347" t="inlineStr"/>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2348">
-      <c r="A2348" t="inlineStr"/>
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2348" t="inlineStr"/>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2348" t="inlineStr"/>
       <c r="H2348" t="inlineStr">
         <is>
           <t>3</t>
@@ -75846,31 +75282,43 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2349" t="inlineStr"/>
-      <c r="C2349" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
+        </is>
+      </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr"/>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr"/>
-      <c r="H2349" t="inlineStr"/>
+      <c r="H2349" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
@@ -75879,24 +75327,24 @@
       <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
@@ -75912,7 +75360,7 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
@@ -75922,43 +75370,43 @@
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>2.705%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr"/>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
@@ -75972,27 +75420,27 @@
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2354" t="inlineStr"/>
       <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr"/>
+      <c r="G2354" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2354" t="inlineStr">
         <is>
           <t>3</t>
@@ -76002,21 +75450,25 @@
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr"/>
+      <c r="E2355" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
@@ -76028,23 +75480,35 @@
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr"/>
-      <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr"/>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2356" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2356" t="inlineStr">
         <is>
           <t>2</t>
@@ -76054,29 +75518,29 @@
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
@@ -76088,31 +75552,27 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
           <t>3</t>
@@ -76122,27 +75582,31 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr"/>
+      <c r="G2359" t="inlineStr">
+        <is>
+          <t>51.8</t>
+        </is>
+      </c>
       <c r="H2359" t="inlineStr">
         <is>
           <t>2</t>
@@ -76152,23 +75616,31 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr"/>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr"/>
+      <c r="G2360" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2360" t="inlineStr">
         <is>
           <t>3</t>
@@ -76176,27 +75648,19 @@
       </c>
     </row>
     <row r="2361">
-      <c r="A2361" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2361" t="inlineStr"/>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2361" t="inlineStr"/>
       <c r="F2361" t="inlineStr"/>
       <c r="G2361" t="inlineStr"/>
       <c r="H2361" t="inlineStr">
@@ -76206,75 +75670,51 @@
       </c>
     </row>
     <row r="2362">
-      <c r="A2362" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2362" t="inlineStr"/>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr"/>
       <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2362" t="inlineStr"/>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2363">
-      <c r="A2363" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2363" t="inlineStr"/>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2363" t="inlineStr"/>
       <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2363" t="inlineStr"/>
       <c r="H2363" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2364">
-      <c r="A2364" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2364" t="inlineStr"/>
       <c r="B2364" t="inlineStr">
         <is>
           <t>US</t>
@@ -76282,522 +75722,18 @@
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2364" t="inlineStr"/>
       <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2365" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2365" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr"/>
-      <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr">
-        <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2366" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2366" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2367">
-      <c r="A2367" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2367" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2367" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2367" t="inlineStr"/>
-      <c r="E2367" t="inlineStr"/>
-      <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
-      <c r="H2367" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2368">
-      <c r="A2368" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B2368" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2368" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
-      <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
-      <c r="H2368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2369">
-      <c r="A2369" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2369" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2369" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2369" t="inlineStr"/>
-      <c r="E2369" t="inlineStr"/>
-      <c r="F2369" t="inlineStr"/>
-      <c r="G2369" t="inlineStr"/>
-      <c r="H2369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2370">
-      <c r="A2370" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2370" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2370" t="inlineStr">
-        <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr"/>
-      <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr"/>
-      <c r="H2370" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2371">
-      <c r="A2371" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2371" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2371" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr"/>
-      <c r="F2371" t="inlineStr"/>
-      <c r="G2371" t="inlineStr"/>
-      <c r="H2371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2372">
-      <c r="A2372" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2372" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2372" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2372" t="inlineStr"/>
-      <c r="E2372" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr"/>
-      <c r="H2372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2373">
-      <c r="A2373" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2373" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2373" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2373" t="inlineStr"/>
-      <c r="E2373" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2373" t="inlineStr"/>
-      <c r="G2373" t="inlineStr"/>
-      <c r="H2373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2374">
-      <c r="A2374" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2374" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2374" t="inlineStr">
-        <is>
-          <t>Average Cash Earnings YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2374" t="inlineStr"/>
-      <c r="E2374" t="inlineStr"/>
-      <c r="F2374" t="inlineStr"/>
-      <c r="G2374" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H2374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2375">
-      <c r="A2375" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2375" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2375" t="inlineStr">
-        <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2375" t="inlineStr"/>
-      <c r="E2375" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2375" t="inlineStr"/>
-      <c r="G2375" t="inlineStr"/>
-      <c r="H2375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2376">
-      <c r="A2376" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2376" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2376" t="inlineStr">
-        <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2376" t="inlineStr"/>
-      <c r="E2376" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2376" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2376" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="H2376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2377">
-      <c r="A2377" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2377" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2377" t="inlineStr">
-        <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2378">
-      <c r="A2378" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2378" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2378" t="inlineStr">
-        <is>
-          <t>S&amp;P Global PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr"/>
-      <c r="H2378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2379">
-      <c r="A2379" t="inlineStr"/>
-      <c r="B2379" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2379" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr"/>
-      <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr"/>
-      <c r="H2379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2380">
-      <c r="A2380" t="inlineStr"/>
-      <c r="B2380" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2380" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr"/>
-      <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2381">
-      <c r="A2381" t="inlineStr"/>
-      <c r="B2381" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2381" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr"/>
-      <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr"/>
-      <c r="H2381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2382">
-      <c r="A2382" t="inlineStr"/>
-      <c r="B2382" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2382" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr"/>
-      <c r="G2382" t="inlineStr"/>
-      <c r="H2382" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2364"/>
+  <dimension ref="A1:H2342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70837,10 +70837,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -70875,10 +70873,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -70909,10 +70905,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70947,10 +70941,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2210">
@@ -70973,10 +70965,8 @@
       <c r="E2210" t="inlineStr"/>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2211">
@@ -71003,10 +70993,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71033,10 +71021,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71063,10 +71049,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71093,10 +71077,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71123,10 +71105,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71153,10 +71133,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71183,10 +71161,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71213,10 +71189,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71243,10 +71217,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71273,10 +71245,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71303,10 +71273,8 @@
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71333,10 +71301,8 @@
       </c>
       <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr"/>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71367,10 +71333,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71401,10 +71365,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71435,10 +71397,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71469,10 +71429,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71503,10 +71461,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71537,10 +71493,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71567,10 +71521,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71597,10 +71549,8 @@
       </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71627,10 +71577,8 @@
       </c>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr"/>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -71661,10 +71609,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -71695,10 +71641,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -71729,10 +71673,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71767,10 +71709,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2236">
@@ -71805,10 +71745,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -71839,10 +71777,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -71877,10 +71813,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -71915,10 +71849,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
@@ -71949,10 +71881,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -71987,10 +71917,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72025,10 +71953,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -72063,10 +71989,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2244">
@@ -72097,10 +72021,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72131,10 +72053,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72169,10 +72089,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72195,10 +72113,8 @@
       <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
       <c r="G2247" t="inlineStr"/>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72229,10 +72145,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -72263,10 +72177,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72297,10 +72209,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72335,10 +72245,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2252">
@@ -72369,10 +72277,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72399,10 +72305,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -72429,10 +72333,8 @@
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr"/>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72463,10 +72365,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -72497,10 +72397,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72531,10 +72429,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72561,10 +72457,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72591,10 +72485,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72621,10 +72513,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72651,10 +72541,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -72681,10 +72569,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -72725,10 +72611,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2265">
@@ -72759,10 +72643,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72793,10 +72675,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -72827,10 +72707,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -72853,10 +72731,8 @@
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72887,10 +72763,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -72921,10 +72795,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -72951,10 +72823,8 @@
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -72981,10 +72851,8 @@
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73015,10 +72883,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -73053,10 +72919,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2275">
@@ -73087,10 +72951,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73125,10 +72987,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2277">
@@ -73159,10 +73019,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2278">
@@ -73193,10 +73051,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -73227,10 +73083,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -73261,114 +73115,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr"/>
-      <c r="C2281" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr"/>
+      <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
@@ -73382,117 +73242,129 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2288" t="inlineStr">
         <is>
           <t>3</t>
@@ -73502,55 +73374,47 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -73562,47 +73426,43 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
-      <c r="E2291" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2291" t="inlineStr"/>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
@@ -73618,23 +73478,23 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
@@ -73648,27 +73508,35 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73678,73 +73546,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr"/>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>2</t>
@@ -73754,69 +73606,57 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -73826,55 +73666,43 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
+      <c r="F2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73883,54 +73711,50 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
@@ -73939,30 +73763,30 @@
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -73976,87 +73800,87 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2306" t="inlineStr"/>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74066,61 +73890,37 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr"/>
+      <c r="C2307" t="inlineStr"/>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2307" t="inlineStr"/>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74130,31 +73930,23 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74164,31 +73956,27 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74198,47 +73986,55 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr"/>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
@@ -74250,17 +74046,17 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
@@ -74276,17 +74072,17 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
@@ -74295,112 +74091,112 @@
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
@@ -74410,20 +74206,16 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
-      <c r="E2318" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74435,26 +74227,22 @@
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -74474,16 +74262,20 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr"/>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74500,23 +74292,31 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr"/>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74526,13 +74326,21 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -74542,7 +74350,7 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
@@ -74552,7 +74360,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
@@ -74568,7 +74376,7 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
@@ -74578,11 +74386,15 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74594,55 +74406,47 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
@@ -74654,121 +74458,133 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr"/>
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr"/>
-      <c r="C2329" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
@@ -74780,27 +74596,27 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2332" t="inlineStr"/>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -74810,23 +74626,23 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
@@ -74840,53 +74656,69 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr"/>
+      <c r="E2335" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2335" t="inlineStr">
         <is>
           <t>3</t>
@@ -74896,89 +74728,93 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
@@ -74988,49 +74824,37 @@
       </c>
     </row>
     <row r="2339">
-      <c r="A2339" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A2339" t="inlineStr"/>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
       <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
+      <c r="A2340" t="inlineStr"/>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
@@ -75044,27 +74868,19 @@
       </c>
     </row>
     <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2341" t="inlineStr"/>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
@@ -75074,11 +74890,7 @@
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
           <t>US</t>
@@ -75086,654 +74898,18 @@
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr"/>
+      <c r="E2342" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2345" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
-      <c r="H2345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr">
-        <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
-      <c r="H2347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B2348" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2348" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
-      <c r="H2348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2349">
-      <c r="A2349" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2349" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2349" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
-      <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
-      <c r="H2349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2350">
-      <c r="A2350" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2350" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2350" t="inlineStr">
-        <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr"/>
-      <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
-      <c r="H2350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2351">
-      <c r="A2351" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2351" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2351" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr"/>
-      <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
-      <c r="H2351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2352">
-      <c r="A2352" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2352" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2352" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F2352" t="inlineStr"/>
-      <c r="G2352" t="inlineStr"/>
-      <c r="H2352" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2353">
-      <c r="A2353" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2353" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2353" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr"/>
-      <c r="G2353" t="inlineStr"/>
-      <c r="H2353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2354">
-      <c r="A2354" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2354" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2354" t="inlineStr">
-        <is>
-          <t>Average Cash Earnings YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr"/>
-      <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H2354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2355">
-      <c r="A2355" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2355" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2355" t="inlineStr">
-        <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr"/>
-      <c r="H2355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2356">
-      <c r="A2356" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2356" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2356" t="inlineStr">
-        <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="H2356" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2357">
-      <c r="A2357" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2357" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2357" t="inlineStr">
-        <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2358">
-      <c r="A2358" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2358" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2358" t="inlineStr">
-        <is>
-          <t>S&amp;P Global PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr"/>
-      <c r="H2358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2359">
-      <c r="A2359" t="inlineStr">
-        <is>
-          <t>08:45 PM</t>
-        </is>
-      </c>
-      <c r="B2359" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2359" t="inlineStr">
-        <is>
-          <t>Caixin Services PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
-      <c r="H2359" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2360">
-      <c r="A2360" t="inlineStr">
-        <is>
-          <t>08:45 PM</t>
-        </is>
-      </c>
-      <c r="B2360" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2360" t="inlineStr">
-        <is>
-          <t>Caixin Composite PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2361">
-      <c r="A2361" t="inlineStr"/>
-      <c r="B2361" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2361" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr"/>
-      <c r="H2361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2362">
-      <c r="A2362" t="inlineStr"/>
-      <c r="B2362" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2362" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr"/>
-      <c r="H2362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2363">
-      <c r="A2363" t="inlineStr"/>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
-      <c r="H2363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr"/>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
         <is>
           <t>3</t>
         </is>
